--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automatico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C3D94-6E32-4556-BA14-57608D76CCAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB58CA0-A2CA-4A05-8835-6EBAAB80BEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="696" windowWidth="4104" windowHeight="9576" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
@@ -473,9 +473,6 @@
     <t>Da 6 a 18 anni</t>
   </si>
   <si>
-    <t>Nuero e psicomotorio</t>
-  </si>
-  <si>
     <t>Da 0 a 3 anni</t>
   </si>
   <si>
@@ -1140,6 +1137,9 @@
   </si>
   <si>
     <t>E05.MOV</t>
+  </si>
+  <si>
+    <t>Neuro e psicomotorio</t>
   </si>
 </sst>
 </file>
@@ -1505,16 +1505,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B158" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="16384" width="32.5546875" style="1"/>
+    <col min="1" max="16384" width="32.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="191.75" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="177" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="250.75" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="177" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="177" x14ac:dyDescent="0.75">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="191.75" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="309.75" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
         <v>143</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
         <v>143</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A25" s="2" t="s">
         <v>143</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>143</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
         <v>143</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
         <v>143</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
         <v>143</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A32" s="2" t="s">
         <v>143</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A33" s="2" t="s">
         <v>143</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
         <v>143</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A35" s="2" t="s">
         <v>143</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
         <v>143</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3220,10 +3220,10 @@
         <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -3256,7 +3256,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -3264,10 +3264,10 @@
         <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -3300,7 +3300,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A39" s="2" t="s">
         <v>143</v>
       </c>
@@ -3308,10 +3308,10 @@
         <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -3344,7 +3344,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
@@ -3352,10 +3352,10 @@
         <v>62</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -3388,7 +3388,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -3396,10 +3396,10 @@
         <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -3432,7 +3432,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
         <v>143</v>
       </c>
@@ -3440,10 +3440,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
@@ -3476,7 +3476,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A43" s="2" t="s">
         <v>143</v>
       </c>
@@ -3484,10 +3484,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -3520,7 +3520,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A44" s="2" t="s">
         <v>143</v>
       </c>
@@ -3528,10 +3528,10 @@
         <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
@@ -3564,7 +3564,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A45" s="2" t="s">
         <v>143</v>
       </c>
@@ -3572,10 +3572,10 @@
         <v>62</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -3608,7 +3608,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A48" s="2" t="s">
         <v>143</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -3792,10 +3792,10 @@
         <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
@@ -3828,7 +3828,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -3836,10 +3836,10 @@
         <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>8</v>
@@ -3872,7 +3872,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A54" s="2" t="s">
         <v>143</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A56" s="2" t="s">
         <v>143</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A57" s="2" t="s">
         <v>143</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A58" s="2" t="s">
         <v>143</v>
       </c>
@@ -4144,10 +4144,10 @@
         <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -4180,7 +4180,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A62" s="2" t="s">
         <v>143</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A63" s="2" t="s">
         <v>143</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A64" s="2" t="s">
         <v>143</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A65" s="2" t="s">
         <v>143</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
         <v>143</v>
       </c>
@@ -4532,7 +4532,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A67" s="2" t="s">
         <v>143</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A68" s="2" t="s">
         <v>143</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A69" s="2" t="s">
         <v>143</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>128</v>
@@ -4664,7 +4664,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A70" s="2" t="s">
         <v>143</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>128</v>
@@ -4708,7 +4708,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A71" s="2" t="s">
         <v>143</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>128</v>
@@ -4752,7 +4752,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>128</v>
@@ -4796,7 +4796,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>128</v>
@@ -4840,7 +4840,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
         <v>143</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>128</v>
@@ -4884,7 +4884,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
@@ -4892,10 +4892,10 @@
         <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4928,7 +4928,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A76" s="2" t="s">
         <v>143</v>
       </c>
@@ -4936,10 +4936,10 @@
         <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4972,7 +4972,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
@@ -4980,10 +4980,10 @@
         <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5016,7 +5016,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
         <v>143</v>
       </c>
@@ -5024,10 +5024,10 @@
         <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5060,7 +5060,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
@@ -5068,10 +5068,10 @@
         <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5104,7 +5104,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A80" s="2" t="s">
         <v>143</v>
       </c>
@@ -5112,10 +5112,10 @@
         <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5148,7 +5148,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A81" s="2" t="s">
         <v>143</v>
       </c>
@@ -5156,10 +5156,10 @@
         <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5192,7 +5192,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -5200,10 +5200,10 @@
         <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5236,7 +5236,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A83" s="2" t="s">
         <v>143</v>
       </c>
@@ -5244,10 +5244,10 @@
         <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5280,7 +5280,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A84" s="2" t="s">
         <v>143</v>
       </c>
@@ -5288,10 +5288,10 @@
         <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5324,18 +5324,18 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
         <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5368,18 +5368,18 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
         <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5412,18 +5412,18 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
         <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5456,18 +5456,18 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
         <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5500,18 +5500,18 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
         <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5544,18 +5544,18 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>366</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5588,18 +5588,18 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
         <v>68</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -5632,18 +5632,18 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5676,18 +5676,18 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5720,7 +5720,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A94" s="2" t="s">
         <v>143</v>
       </c>
@@ -5728,10 +5728,10 @@
         <v>4</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5764,7 +5764,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A95" s="2" t="s">
         <v>143</v>
       </c>
@@ -5772,10 +5772,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5808,7 +5808,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A96" s="2" t="s">
         <v>143</v>
       </c>
@@ -5816,10 +5816,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -5852,7 +5852,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A97" s="2" t="s">
         <v>143</v>
       </c>
@@ -5860,10 +5860,10 @@
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -5896,18 +5896,18 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -5940,18 +5940,18 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A99" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -5984,18 +5984,18 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A100" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6028,18 +6028,18 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A101" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6072,18 +6072,18 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A102" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -6116,18 +6116,18 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A103" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6160,18 +6160,18 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6204,18 +6204,18 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6248,18 +6248,18 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6292,18 +6292,18 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A107" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6336,18 +6336,18 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6380,18 +6380,18 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6424,7 +6424,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
@@ -6432,10 +6432,10 @@
         <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6468,7 +6468,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
@@ -6476,10 +6476,10 @@
         <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6512,7 +6512,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
@@ -6520,10 +6520,10 @@
         <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6556,7 +6556,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
@@ -6564,10 +6564,10 @@
         <v>68</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -6600,7 +6600,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -6608,10 +6608,10 @@
         <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -6644,7 +6644,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>115</v>
@@ -6688,7 +6688,7 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>116</v>
@@ -6732,7 +6732,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
@@ -6740,10 +6740,10 @@
         <v>62</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6776,7 +6776,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
@@ -6784,10 +6784,10 @@
         <v>62</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6820,7 +6820,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
@@ -6828,10 +6828,10 @@
         <v>62</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -6864,7 +6864,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>62</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -6908,7 +6908,7 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -6916,10 +6916,10 @@
         <v>62</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -6952,7 +6952,7 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -6960,10 +6960,10 @@
         <v>62</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -6996,7 +6996,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
@@ -7004,10 +7004,10 @@
         <v>62</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7040,7 +7040,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
@@ -7048,10 +7048,10 @@
         <v>62</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7084,7 +7084,7 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -7092,10 +7092,10 @@
         <v>62</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7128,7 +7128,7 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -7136,10 +7136,10 @@
         <v>62</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7172,7 +7172,7 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -7180,10 +7180,10 @@
         <v>62</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7216,7 +7216,7 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -7224,10 +7224,10 @@
         <v>62</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7260,7 +7260,7 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -7268,10 +7268,10 @@
         <v>62</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7304,18 +7304,18 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7348,18 +7348,18 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7392,18 +7392,18 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7436,18 +7436,18 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7480,18 +7480,18 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7524,18 +7524,18 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -7568,18 +7568,18 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -7612,18 +7612,18 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -7656,18 +7656,18 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -7700,18 +7700,18 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -7744,18 +7744,18 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -7788,18 +7788,18 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -7832,18 +7832,18 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -7876,18 +7876,18 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -7920,18 +7920,18 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -7964,18 +7964,18 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8008,18 +8008,18 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8052,18 +8052,18 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8096,18 +8096,18 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8140,18 +8140,18 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8184,18 +8184,18 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
+        <v>273</v>
+      </c>
+      <c r="B150" t="s">
         <v>274</v>
       </c>
-      <c r="B150" t="s">
-        <v>275</v>
-      </c>
       <c r="C150" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8228,18 +8228,18 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" t="s">
         <v>274</v>
       </c>
-      <c r="B151" t="s">
-        <v>275</v>
-      </c>
       <c r="C151" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8272,18 +8272,18 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B152" t="s">
+        <v>320</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8316,18 +8316,18 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8360,18 +8360,18 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8404,18 +8404,18 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B155" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8448,18 +8448,18 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8492,18 +8492,18 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8536,18 +8536,18 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8580,18 +8580,18 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8624,18 +8624,18 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8668,18 +8668,18 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8712,18 +8712,18 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s">
+        <v>341</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8756,18 +8756,18 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B163" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8800,18 +8800,18 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8844,18 +8844,18 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B165" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -8888,18 +8888,18 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -8932,18 +8932,18 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -8976,18 +8976,18 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9020,18 +9020,18 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9064,18 +9064,18 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B170" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9108,18 +9108,18 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B171" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9152,18 +9152,18 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9196,18 +9196,18 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9240,7 +9240,7 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9274,7 +9274,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9308,7 +9308,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9342,7 +9342,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9376,7 +9376,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9410,7 +9410,7 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9444,7 +9444,7 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9478,7 +9478,7 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9512,7 +9512,7 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9546,7 +9546,7 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9580,7 +9580,7 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9614,7 +9614,7 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9648,7 +9648,7 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9682,7 +9682,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9716,7 +9716,7 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9750,7 +9750,7 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9784,7 +9784,7 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9818,7 +9818,7 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9852,7 +9852,7 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9886,7 +9886,7 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9920,7 +9920,7 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9954,7 +9954,7 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9988,7 +9988,7 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10022,7 +10022,7 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10056,7 +10056,7 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10090,7 +10090,7 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10124,7 +10124,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10158,7 +10158,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10192,7 +10192,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10226,7 +10226,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10260,7 +10260,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10294,7 +10294,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10328,7 +10328,7 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10362,7 +10362,7 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10396,7 +10396,7 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10430,7 +10430,7 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10464,7 +10464,7 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10498,7 +10498,7 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10532,7 +10532,7 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10566,7 +10566,7 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10600,7 +10600,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10634,7 +10634,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10668,7 +10668,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10702,7 +10702,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10736,7 +10736,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -10770,7 +10770,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -10804,7 +10804,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -10838,7 +10838,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -10872,7 +10872,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -10906,7 +10906,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -10940,7 +10940,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -10974,7 +10974,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11008,7 +11008,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11042,7 +11042,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11076,7 +11076,7 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11110,7 +11110,7 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11144,7 +11144,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11178,7 +11178,7 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11212,7 +11212,7 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11246,7 +11246,7 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11280,7 +11280,7 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11314,7 +11314,7 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11348,7 +11348,7 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11382,7 +11382,7 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11416,7 +11416,7 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11450,7 +11450,7 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -11484,7 +11484,7 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -11518,7 +11518,7 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -11552,7 +11552,7 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -11586,7 +11586,7 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11620,7 +11620,7 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -11654,7 +11654,7 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -11688,7 +11688,7 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -11722,7 +11722,7 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -11756,7 +11756,7 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -11790,7 +11790,7 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -11824,7 +11824,7 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -11858,7 +11858,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -11892,7 +11892,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -11926,7 +11926,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -11960,7 +11960,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -11994,7 +11994,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12028,7 +12028,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12062,7 +12062,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12096,7 +12096,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12130,7 +12130,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12164,7 +12164,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -12198,7 +12198,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -12232,7 +12232,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -12266,7 +12266,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -12300,7 +12300,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -12334,7 +12334,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -12368,7 +12368,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -12402,7 +12402,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -12436,7 +12436,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -12470,7 +12470,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -12504,7 +12504,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -12538,7 +12538,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -12572,7 +12572,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12606,7 +12606,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12640,7 +12640,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12674,7 +12674,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -12708,7 +12708,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -12742,7 +12742,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -12776,7 +12776,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -12810,7 +12810,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -12844,7 +12844,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -12878,7 +12878,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -12912,7 +12912,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -12946,7 +12946,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -12980,7 +12980,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -13014,7 +13014,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -13048,7 +13048,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -13082,7 +13082,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -13116,7 +13116,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -13150,7 +13150,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -13184,7 +13184,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -13218,7 +13218,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -13252,7 +13252,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -13286,7 +13286,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -13320,7 +13320,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -13354,7 +13354,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -13388,7 +13388,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -13422,7 +13422,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -13456,7 +13456,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -13490,7 +13490,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -13524,7 +13524,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -13558,7 +13558,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -13592,7 +13592,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -13626,7 +13626,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -13660,7 +13660,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -13694,7 +13694,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -13728,7 +13728,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -13762,7 +13762,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -13796,7 +13796,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -13830,7 +13830,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -13864,7 +13864,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -13898,7 +13898,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -13932,7 +13932,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -13966,7 +13966,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -14000,7 +14000,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -14034,7 +14034,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -14068,7 +14068,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -14102,7 +14102,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -14136,7 +14136,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -14170,7 +14170,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -14204,7 +14204,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -14238,7 +14238,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -14272,7 +14272,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -14306,7 +14306,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -14340,7 +14340,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -14374,7 +14374,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -14408,7 +14408,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -14442,7 +14442,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB58CA0-A2CA-4A05-8835-6EBAAB80BEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D00160-EDD0-4767-85D5-C8511621D42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Un giocatore avrà il ruolo di cavaliere difensore del castello (il birillo) mentre gli altri giocatori saranno i soldati che disposti in cerchio attorno al cavaliere cercano con la palla di buttare giù il castello. Il cavaliere deve impedire la presa del castello, se un soldato riesce ad abbattere il birillo scambia il suo ruolo con il cavaliere diventando il difensore del castello.</t>
   </si>
   <si>
-    <t>Materiale: una palla e un birillo &lt;br&gt; Numero giocatori: almeno 2 (un cavaliere e un soldato)</t>
-  </si>
-  <si>
     <t>attaccoalcastello.png</t>
   </si>
   <si>
@@ -1140,6 +1137,9 @@
   </si>
   <si>
     <t>Neuro e psicomotorio</t>
+  </si>
+  <si>
+    <t>Materiale: una palla e un birillo Numero giocatori: almeno 2 (un cavaliere e un soldato)</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1572,22 +1572,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>366</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1622,22 +1622,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1672,22 +1672,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1722,22 +1722,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1772,22 +1772,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1822,22 +1822,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1872,22 +1872,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1922,22 +1922,22 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1972,22 +1972,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2022,22 +2022,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2069,25 +2069,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2119,25 +2119,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2169,25 +2169,25 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2219,25 +2219,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2269,25 +2269,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2319,25 +2319,25 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2369,25 +2369,25 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2419,25 +2419,25 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2466,16 +2466,16 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
@@ -2510,16 +2510,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>8</v>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
@@ -2642,16 +2642,16 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2686,16 +2686,16 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -2730,16 +2730,16 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2774,16 +2774,16 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -2906,16 +2906,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -2950,16 +2950,16 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -2994,16 +2994,16 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -3038,16 +3038,16 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
@@ -3082,16 +3082,16 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -3126,16 +3126,16 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -3170,16 +3170,16 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -3214,16 +3214,16 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -3258,16 +3258,16 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A39" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A40" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -3390,16 +3390,16 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -3434,16 +3434,16 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
@@ -3478,16 +3478,16 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -3522,16 +3522,16 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
@@ -3566,16 +3566,16 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A45" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A46" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -3654,16 +3654,16 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>8</v>
@@ -3698,16 +3698,16 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -3742,16 +3742,16 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
@@ -3786,16 +3786,16 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
@@ -3830,16 +3830,16 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>8</v>
@@ -3874,16 +3874,16 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
@@ -3918,16 +3918,16 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -3962,16 +3962,16 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
@@ -4050,16 +4050,16 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -4094,16 +4094,16 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -4138,16 +4138,16 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A58" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -4182,16 +4182,16 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A59" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -4270,16 +4270,16 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -4314,16 +4314,16 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>8</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A63" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4402,16 +4402,16 @@
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A64" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -4446,16 +4446,16 @@
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4490,16 +4490,16 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4534,16 +4534,16 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A67" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4578,16 +4578,16 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4622,16 +4622,16 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4666,16 +4666,16 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -4754,16 +4754,16 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -4798,16 +4798,16 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4842,16 +4842,16 @@
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -4886,16 +4886,16 @@
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4930,16 +4930,16 @@
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4974,16 +4974,16 @@
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5018,16 +5018,16 @@
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5062,16 +5062,16 @@
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5106,16 +5106,16 @@
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5150,16 +5150,16 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5194,16 +5194,16 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5238,16 +5238,16 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5282,16 +5282,16 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5326,16 +5326,16 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5370,16 +5370,16 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5414,16 +5414,16 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5458,16 +5458,16 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5502,16 +5502,16 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5546,16 +5546,16 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
+        <v>365</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B90" t="s">
-        <v>366</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5590,16 +5590,16 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -5634,16 +5634,16 @@
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5678,16 +5678,16 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5722,16 +5722,16 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A94" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5766,16 +5766,16 @@
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5810,16 +5810,16 @@
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -5854,16 +5854,16 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -5898,16 +5898,16 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -5942,16 +5942,16 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -5986,16 +5986,16 @@
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6030,16 +6030,16 @@
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6074,16 +6074,16 @@
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -6118,16 +6118,16 @@
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6206,16 +6206,16 @@
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6250,16 +6250,16 @@
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6294,16 +6294,16 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6341,13 +6341,13 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6385,13 +6385,13 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6429,13 +6429,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6473,13 +6473,13 @@
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6517,13 +6517,13 @@
         <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6561,13 +6561,13 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -6605,13 +6605,13 @@
         <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -6649,13 +6649,13 @@
         <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -6693,13 +6693,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -6737,13 +6737,13 @@
         <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6781,13 +6781,13 @@
         <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6825,13 +6825,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -6869,13 +6869,13 @@
         <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -6913,13 +6913,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -6957,13 +6957,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7001,13 +7001,13 @@
         <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7045,13 +7045,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7089,13 +7089,13 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7133,13 +7133,13 @@
         <v>3</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7177,13 +7177,13 @@
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7221,13 +7221,13 @@
         <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7265,13 +7265,13 @@
         <v>3</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7306,16 +7306,16 @@
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B130" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7350,16 +7350,16 @@
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7394,16 +7394,16 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7438,16 +7438,16 @@
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7482,16 +7482,16 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7526,16 +7526,16 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -7570,16 +7570,16 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -7614,16 +7614,16 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -7658,16 +7658,16 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -7702,16 +7702,16 @@
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -7746,16 +7746,16 @@
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -7790,16 +7790,16 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -7834,16 +7834,16 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -7878,16 +7878,16 @@
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -7922,16 +7922,16 @@
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -7966,16 +7966,16 @@
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8010,16 +8010,16 @@
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8054,16 +8054,16 @@
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8098,16 +8098,16 @@
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8142,16 +8142,16 @@
     </row>
     <row r="149" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8186,16 +8186,16 @@
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" t="s">
         <v>273</v>
       </c>
-      <c r="B150" t="s">
-        <v>274</v>
-      </c>
       <c r="C150" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8230,16 +8230,16 @@
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
+        <v>272</v>
+      </c>
+      <c r="B151" t="s">
         <v>273</v>
       </c>
-      <c r="B151" t="s">
-        <v>274</v>
-      </c>
       <c r="C151" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8274,16 +8274,16 @@
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8318,16 +8318,16 @@
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8362,16 +8362,16 @@
     </row>
     <row r="154" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8406,16 +8406,16 @@
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8450,16 +8450,16 @@
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8494,16 +8494,16 @@
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8538,16 +8538,16 @@
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8582,16 +8582,16 @@
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8626,16 +8626,16 @@
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8670,16 +8670,16 @@
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8714,16 +8714,16 @@
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8758,16 +8758,16 @@
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8802,16 +8802,16 @@
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8846,16 +8846,16 @@
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -8890,16 +8890,16 @@
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -8934,16 +8934,16 @@
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -8978,16 +8978,16 @@
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9022,16 +9022,16 @@
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9066,16 +9066,16 @@
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9110,16 +9110,16 @@
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9154,16 +9154,16 @@
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9198,16 +9198,16 @@
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D00160-EDD0-4767-85D5-C8511621D42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42884E-2FB3-458A-B14E-2778E3066867}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="369">
   <si>
     <t>cartella</t>
   </si>
@@ -1140,6 +1140,12 @@
   </si>
   <si>
     <t>Materiale: una palla e un birillo Numero giocatori: almeno 2 (un cavaliere e un soldato)</t>
+  </si>
+  <si>
+    <t>rinse03.mp4</t>
+  </si>
+  <si>
+    <t>rinse03</t>
   </si>
 </sst>
 </file>
@@ -1505,16 +1511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="32.54296875" style="1"/>
+    <col min="1" max="16384" width="32.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1570,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="147.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1620,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1670,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="177" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1720,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="250.75" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1770,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1820,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="177" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1870,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1914,7 +1920,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +1970,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2020,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2070,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="177" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2114,7 +2120,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2164,7 +2170,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2220,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2264,7 +2270,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="162.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2314,7 +2320,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2370,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="309.75" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" ht="330" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2420,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2470,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>142</v>
       </c>
@@ -2508,7 +2514,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
@@ -2552,7 +2558,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
@@ -2596,7 +2602,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>142</v>
       </c>
@@ -2640,7 +2646,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>142</v>
       </c>
@@ -2684,7 +2690,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -2728,7 +2734,7 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
@@ -2772,7 +2778,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
@@ -2816,7 +2822,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -2860,7 +2866,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
@@ -2904,7 +2910,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
@@ -2948,7 +2954,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
@@ -2992,7 +2998,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
@@ -3036,7 +3042,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
@@ -3080,7 +3086,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
@@ -3124,7 +3130,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
@@ -3168,7 +3174,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3212,7 +3218,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
@@ -3256,7 +3262,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
@@ -3300,7 +3306,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
@@ -3344,7 +3350,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -3388,7 +3394,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
@@ -3432,7 +3438,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
@@ -3476,7 +3482,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -3520,7 +3526,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -3564,7 +3570,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -3608,7 +3614,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -3652,7 +3658,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -3696,7 +3702,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -3740,7 +3746,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -3784,7 +3790,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -3828,7 +3834,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -3872,7 +3878,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
@@ -3916,7 +3922,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -3960,7 +3966,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -4004,7 +4010,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4048,7 +4054,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -4092,7 +4098,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -4136,7 +4142,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -4180,7 +4186,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -4224,7 +4230,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
@@ -4268,7 +4274,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>142</v>
       </c>
@@ -4312,7 +4318,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -4356,7 +4362,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -4400,7 +4406,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>142</v>
       </c>
@@ -4444,7 +4450,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>142</v>
       </c>
@@ -4488,7 +4494,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>142</v>
       </c>
@@ -4532,7 +4538,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -4576,7 +4582,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -4620,7 +4626,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>142</v>
       </c>
@@ -4664,7 +4670,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -4708,7 +4714,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -4752,7 +4758,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -4796,7 +4802,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -4840,7 +4846,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -4884,7 +4890,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -4928,7 +4934,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
@@ -4972,7 +4978,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>142</v>
       </c>
@@ -5016,7 +5022,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -5060,7 +5066,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -5104,7 +5110,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -5148,7 +5154,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -5192,7 +5198,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -5236,7 +5242,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -5280,7 +5286,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -5324,7 +5330,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>143</v>
       </c>
@@ -5368,7 +5374,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>143</v>
       </c>
@@ -5412,7 +5418,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>143</v>
       </c>
@@ -5456,7 +5462,7 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>143</v>
       </c>
@@ -5500,7 +5506,7 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>143</v>
       </c>
@@ -5544,7 +5550,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>143</v>
       </c>
@@ -5588,7 +5594,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>143</v>
       </c>
@@ -5632,7 +5638,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -5676,7 +5682,7 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>143</v>
       </c>
@@ -5720,7 +5726,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>142</v>
       </c>
@@ -5764,7 +5770,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>142</v>
       </c>
@@ -5808,7 +5814,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>142</v>
       </c>
@@ -5852,7 +5858,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>142</v>
       </c>
@@ -5896,7 +5902,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>142</v>
       </c>
@@ -5940,7 +5946,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>142</v>
       </c>
@@ -5984,7 +5990,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>142</v>
       </c>
@@ -6028,7 +6034,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
@@ -6072,7 +6078,7 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>142</v>
       </c>
@@ -6116,7 +6122,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>142</v>
       </c>
@@ -6160,7 +6166,7 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>142</v>
       </c>
@@ -6204,7 +6210,7 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>142</v>
       </c>
@@ -6248,7 +6254,7 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>142</v>
       </c>
@@ -6292,7 +6298,7 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>142</v>
       </c>
@@ -6336,7 +6342,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
@@ -6380,7 +6386,7 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
@@ -6424,7 +6430,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
@@ -6468,7 +6474,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
@@ -6512,7 +6518,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
@@ -6556,7 +6562,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>3</v>
       </c>
@@ -6600,7 +6606,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>3</v>
       </c>
@@ -6644,7 +6650,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>3</v>
       </c>
@@ -6688,7 +6694,7 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
@@ -6732,7 +6738,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
@@ -6776,7 +6782,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
@@ -6820,7 +6826,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>3</v>
       </c>
@@ -6864,7 +6870,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
@@ -6908,7 +6914,7 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
@@ -6952,7 +6958,7 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -6996,7 +7002,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
@@ -7040,7 +7046,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
@@ -7084,7 +7090,7 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -7128,7 +7134,7 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -7172,7 +7178,7 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -7216,7 +7222,7 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -7260,7 +7266,7 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -7304,7 +7310,7 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -7348,7 +7354,7 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>272</v>
       </c>
@@ -7392,7 +7398,7 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>272</v>
       </c>
@@ -7436,7 +7442,7 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -7480,7 +7486,7 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -7524,7 +7530,7 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>272</v>
       </c>
@@ -7568,7 +7574,7 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -7612,7 +7618,7 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7656,7 +7662,7 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -7700,7 +7706,7 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>272</v>
       </c>
@@ -7744,7 +7750,7 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>272</v>
       </c>
@@ -7788,7 +7794,7 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>272</v>
       </c>
@@ -7832,7 +7838,7 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -7876,7 +7882,7 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -7920,7 +7926,7 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>272</v>
       </c>
@@ -7964,7 +7970,7 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>272</v>
       </c>
@@ -8008,7 +8014,7 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>272</v>
       </c>
@@ -8052,7 +8058,7 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>272</v>
       </c>
@@ -8096,7 +8102,7 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>272</v>
       </c>
@@ -8140,7 +8146,7 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -8184,7 +8190,7 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>272</v>
       </c>
@@ -8228,7 +8234,7 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>272</v>
       </c>
@@ -8272,7 +8278,7 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>272</v>
       </c>
@@ -8316,7 +8322,7 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>272</v>
       </c>
@@ -8360,7 +8366,7 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>272</v>
       </c>
@@ -8404,7 +8410,7 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -8448,7 +8454,7 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -8492,7 +8498,7 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -8536,7 +8542,7 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -8580,7 +8586,7 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -8624,7 +8630,7 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>272</v>
       </c>
@@ -8668,7 +8674,7 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -8712,7 +8718,7 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>272</v>
       </c>
@@ -8756,7 +8762,7 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>272</v>
       </c>
@@ -8800,7 +8806,7 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>272</v>
       </c>
@@ -8844,7 +8850,7 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>272</v>
       </c>
@@ -8888,7 +8894,7 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>272</v>
       </c>
@@ -8932,7 +8938,7 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>272</v>
       </c>
@@ -8976,7 +8982,7 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>272</v>
       </c>
@@ -9020,7 +9026,7 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>272</v>
       </c>
@@ -9064,7 +9070,7 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>272</v>
       </c>
@@ -9108,7 +9114,7 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>272</v>
       </c>
@@ -9152,7 +9158,7 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>272</v>
       </c>
@@ -9196,7 +9202,7 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>272</v>
       </c>
@@ -9240,12 +9246,22 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -9274,7 +9290,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9308,7 +9324,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9342,7 +9358,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9376,7 +9392,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9410,7 +9426,7 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9444,7 +9460,7 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9478,7 +9494,7 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9512,7 +9528,7 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9546,7 +9562,7 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9580,7 +9596,7 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9614,7 +9630,7 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9648,7 +9664,7 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9682,7 +9698,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9716,7 +9732,7 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9750,7 +9766,7 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9784,7 +9800,7 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9818,7 +9834,7 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9852,7 +9868,7 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9886,7 +9902,7 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9920,7 +9936,7 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9954,7 +9970,7 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9988,7 +10004,7 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10022,7 +10038,7 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10056,7 +10072,7 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10090,7 +10106,7 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10124,7 +10140,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10158,7 +10174,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10192,7 +10208,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10226,7 +10242,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10260,7 +10276,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10294,7 +10310,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10328,7 +10344,7 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10362,7 +10378,7 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10396,7 +10412,7 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10430,7 +10446,7 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10464,7 +10480,7 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10498,7 +10514,7 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10532,7 +10548,7 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10566,7 +10582,7 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10600,7 +10616,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10634,7 +10650,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10668,7 +10684,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10702,7 +10718,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10736,7 +10752,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -10770,7 +10786,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -10804,7 +10820,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -10838,7 +10854,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -10872,7 +10888,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -10906,7 +10922,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -10940,7 +10956,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -10974,7 +10990,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11008,7 +11024,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11042,7 +11058,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11076,7 +11092,7 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11110,7 +11126,7 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11144,7 +11160,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11178,7 +11194,7 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11212,7 +11228,7 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11246,7 +11262,7 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11280,7 +11296,7 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11314,7 +11330,7 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11348,7 +11364,7 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11382,7 +11398,7 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11416,7 +11432,7 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11450,7 +11466,7 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -11484,7 +11500,7 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -11518,7 +11534,7 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -11552,7 +11568,7 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -11586,7 +11602,7 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11620,7 +11636,7 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -11654,7 +11670,7 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -11688,7 +11704,7 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -11722,7 +11738,7 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -11756,7 +11772,7 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -11790,7 +11806,7 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -11824,7 +11840,7 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -11858,7 +11874,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -11892,7 +11908,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -11926,7 +11942,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -11960,7 +11976,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -11994,7 +12010,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12028,7 +12044,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12062,7 +12078,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12096,7 +12112,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12130,7 +12146,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12164,7 +12180,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -12198,7 +12214,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -12232,7 +12248,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -12266,7 +12282,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -12300,7 +12316,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -12334,7 +12350,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -12368,7 +12384,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -12402,7 +12418,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -12436,7 +12452,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -12470,7 +12486,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -12504,7 +12520,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -12538,7 +12554,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -12572,7 +12588,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12606,7 +12622,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12640,7 +12656,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12674,7 +12690,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -12708,7 +12724,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -12742,7 +12758,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -12776,7 +12792,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -12810,7 +12826,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -12844,7 +12860,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -12878,7 +12894,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -12912,7 +12928,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -12946,7 +12962,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -12980,7 +12996,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -13014,7 +13030,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -13048,7 +13064,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -13082,7 +13098,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -13116,7 +13132,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -13150,7 +13166,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -13184,7 +13200,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -13218,7 +13234,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -13252,7 +13268,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -13286,7 +13302,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -13320,7 +13336,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -13354,7 +13370,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -13388,7 +13404,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -13422,7 +13438,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -13456,7 +13472,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -13490,7 +13506,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -13524,7 +13540,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -13558,7 +13574,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -13592,7 +13608,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -13626,7 +13642,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -13660,7 +13676,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -13694,7 +13710,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -13728,7 +13744,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -13762,7 +13778,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -13796,7 +13812,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -13830,7 +13846,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -13864,7 +13880,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -13898,7 +13914,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -13932,7 +13948,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -13966,7 +13982,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -14000,7 +14016,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -14034,7 +14050,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -14068,7 +14084,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -14102,7 +14118,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -14136,7 +14152,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -14170,7 +14186,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -14204,7 +14220,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -14238,7 +14254,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -14272,7 +14288,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -14306,7 +14322,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -14340,7 +14356,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -14374,7 +14390,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -14408,7 +14424,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -14442,7 +14458,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GitHub\iomimuovoacasa.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42884E-2FB3-458A-B14E-2778E3066867}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDBA01-2F49-4C9E-AAB2-B4FC9E4A2068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,10 +4062,10 @@
         <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -4106,10 +4106,10 @@
         <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -4150,10 +4150,10 @@
         <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -4194,10 +4194,10 @@
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
@@ -4238,10 +4238,10 @@
         <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -4282,10 +4282,10 @@
         <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -4326,10 +4326,10 @@
         <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>8</v>
@@ -4370,10 +4370,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4414,10 +4414,10 @@
         <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -4458,10 +4458,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4502,10 +4502,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4546,10 +4546,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4590,10 +4590,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4634,7 +4634,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>127</v>
@@ -4678,7 +4678,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>127</v>
@@ -4722,7 +4722,7 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>127</v>
@@ -4766,7 +4766,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>127</v>
@@ -4810,7 +4810,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>127</v>
@@ -4854,7 +4854,7 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>127</v>
@@ -4898,10 +4898,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4942,10 +4942,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4986,10 +4986,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5030,10 +5030,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5074,10 +5074,10 @@
         <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5118,10 +5118,10 @@
         <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5162,10 +5162,10 @@
         <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5206,10 +5206,10 @@
         <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5250,10 +5250,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5294,10 +5294,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5331,17 +5331,17 @@
       <c r="AF84" s="2"/>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" t="s">
-        <v>61</v>
+      <c r="A85" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5382,10 +5382,10 @@
         <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5426,10 +5426,10 @@
         <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5470,10 +5470,10 @@
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5514,10 +5514,10 @@
         <v>61</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5555,13 +5555,13 @@
         <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5599,13 +5599,13 @@
         <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -5646,10 +5646,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5690,10 +5690,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5727,17 +5727,17 @@
       <c r="AF93" s="2"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>4</v>
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5778,10 +5778,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5822,10 +5822,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -5866,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -5907,13 +5907,13 @@
         <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -5954,10 +5954,10 @@
         <v>216</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -5998,10 +5998,10 @@
         <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6042,10 +6042,10 @@
         <v>216</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6086,10 +6086,10 @@
         <v>216</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -6130,10 +6130,10 @@
         <v>216</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6174,10 +6174,10 @@
         <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6218,10 +6218,10 @@
         <v>216</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6262,10 +6262,10 @@
         <v>216</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6306,10 +6306,10 @@
         <v>216</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6344,16 +6344,16 @@
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6394,10 +6394,10 @@
         <v>237</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6434,14 +6434,14 @@
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>67</v>
+      <c r="B110" t="s">
+        <v>237</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6482,10 +6482,10 @@
         <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6526,10 +6526,10 @@
         <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6570,10 +6570,10 @@
         <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -6614,10 +6614,10 @@
         <v>67</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -6658,10 +6658,10 @@
         <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -6702,10 +6702,10 @@
         <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -6743,13 +6743,13 @@
         <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6790,10 +6790,10 @@
         <v>61</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6834,10 +6834,10 @@
         <v>61</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -6878,10 +6878,10 @@
         <v>61</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -6922,10 +6922,10 @@
         <v>61</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -6966,10 +6966,10 @@
         <v>61</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7010,10 +7010,10 @@
         <v>61</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7054,10 +7054,10 @@
         <v>61</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7098,10 +7098,10 @@
         <v>61</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7142,10 +7142,10 @@
         <v>61</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7186,10 +7186,10 @@
         <v>61</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7230,10 +7230,10 @@
         <v>61</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7274,10 +7274,10 @@
         <v>61</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7311,17 +7311,17 @@
       <c r="AF129" s="2"/>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>272</v>
-      </c>
-      <c r="B130" t="s">
-        <v>274</v>
+      <c r="A130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7362,10 +7362,10 @@
         <v>274</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7406,10 +7406,10 @@
         <v>274</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7450,10 +7450,10 @@
         <v>274</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7494,10 +7494,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7538,10 +7538,10 @@
         <v>274</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -7582,10 +7582,10 @@
         <v>274</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -7626,10 +7626,10 @@
         <v>274</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -7670,10 +7670,10 @@
         <v>274</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -7714,10 +7714,10 @@
         <v>274</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -7758,10 +7758,10 @@
         <v>274</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -7802,10 +7802,10 @@
         <v>274</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -7846,10 +7846,10 @@
         <v>274</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -7890,10 +7890,10 @@
         <v>274</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -7934,10 +7934,10 @@
         <v>274</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -7978,10 +7978,10 @@
         <v>274</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8022,10 +8022,10 @@
         <v>274</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8066,10 +8066,10 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8110,10 +8110,10 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8154,10 +8154,10 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8195,13 +8195,13 @@
         <v>272</v>
       </c>
       <c r="B150" t="s">
-        <v>273</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>315</v>
+        <v>274</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8242,10 +8242,10 @@
         <v>273</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8283,13 +8283,13 @@
         <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8330,10 +8330,10 @@
         <v>319</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8374,10 +8374,10 @@
         <v>319</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8418,10 +8418,10 @@
         <v>319</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8462,10 +8462,10 @@
         <v>319</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8506,10 +8506,10 @@
         <v>319</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8550,10 +8550,10 @@
         <v>319</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8594,10 +8594,10 @@
         <v>319</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8638,10 +8638,10 @@
         <v>319</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8682,10 +8682,10 @@
         <v>319</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8723,13 +8723,13 @@
         <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8770,10 +8770,10 @@
         <v>340</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8814,10 +8814,10 @@
         <v>340</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8858,10 +8858,10 @@
         <v>340</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -8902,10 +8902,10 @@
         <v>340</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -8946,10 +8946,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -8990,10 +8990,10 @@
         <v>340</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9034,10 +9034,10 @@
         <v>340</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9075,13 +9075,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9122,10 +9122,10 @@
         <v>216</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9166,10 +9166,10 @@
         <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9210,10 +9210,10 @@
         <v>216</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9247,17 +9247,17 @@
       <c r="AF173" s="2"/>
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>67</v>
+      <c r="A174" t="s">
+        <v>272</v>
+      </c>
+      <c r="B174" t="s">
+        <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDBA01-2F49-4C9E-AAB2-B4FC9E4A2068}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03145D38-ECE5-45CC-88AB-72703C876987}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03145D38-ECE5-45CC-88AB-72703C876987}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43EBA94-7DF1-4DAA-96F2-50350D9C6B38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="389">
   <si>
     <t>cartella</t>
   </si>
@@ -1146,13 +1146,73 @@
   </si>
   <si>
     <t>rinse03</t>
+  </si>
+  <si>
+    <t>aer05</t>
+  </si>
+  <si>
+    <t>aer05.mp4</t>
+  </si>
+  <si>
+    <t>aer07.mp4</t>
+  </si>
+  <si>
+    <t>aer08.mp4</t>
+  </si>
+  <si>
+    <t>aer09.mp4</t>
+  </si>
+  <si>
+    <t>aer10.mp4</t>
+  </si>
+  <si>
+    <t>aer11.mp4</t>
+  </si>
+  <si>
+    <t>aer07</t>
+  </si>
+  <si>
+    <t>aer08</t>
+  </si>
+  <si>
+    <t>aer09</t>
+  </si>
+  <si>
+    <t>aer10</t>
+  </si>
+  <si>
+    <t>aer11</t>
+  </si>
+  <si>
+    <t>aer13</t>
+  </si>
+  <si>
+    <t>aer13.mp4</t>
+  </si>
+  <si>
+    <t>rinsu12</t>
+  </si>
+  <si>
+    <t>rinsu17</t>
+  </si>
+  <si>
+    <t>rinsu18</t>
+  </si>
+  <si>
+    <t>rinsu19</t>
+  </si>
+  <si>
+    <t>rinsu21</t>
+  </si>
+  <si>
+    <t>rinsu22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1222,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1509,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
-  <dimension ref="A1:AF327"/>
+  <dimension ref="A1:AF334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,17 +2713,15 @@
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2698,10 +2762,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>8</v>
@@ -2735,17 +2799,15 @@
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2779,17 +2841,15 @@
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -2823,17 +2883,15 @@
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2867,17 +2925,15 @@
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -2911,17 +2967,15 @@
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -2959,13 +3013,13 @@
         <v>142</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -2999,17 +3053,15 @@
       <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>382</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -3050,10 +3102,10 @@
         <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
@@ -3094,10 +3146,10 @@
         <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -3138,10 +3190,10 @@
         <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -3182,10 +3234,10 @@
         <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -3226,10 +3278,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -3270,10 +3322,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -3314,10 +3366,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -3358,10 +3410,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -3402,10 +3454,10 @@
         <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -3446,10 +3498,10 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
@@ -3490,10 +3542,10 @@
         <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -3534,10 +3586,10 @@
         <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
@@ -3578,10 +3630,10 @@
         <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -3622,10 +3674,10 @@
         <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -3666,10 +3718,10 @@
         <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>8</v>
@@ -3710,10 +3762,10 @@
         <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -3754,10 +3806,10 @@
         <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
@@ -3798,10 +3850,10 @@
         <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
@@ -3842,10 +3894,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>8</v>
@@ -3886,10 +3938,10 @@
         <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
@@ -3930,10 +3982,10 @@
         <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -3971,13 +4023,13 @@
         <v>142</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
@@ -4015,13 +4067,13 @@
         <v>142</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
@@ -4059,13 +4111,13 @@
         <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>367</v>
+        <v>94</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>368</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -4103,13 +4155,13 @@
         <v>142</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -4147,13 +4199,13 @@
         <v>142</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -4191,13 +4243,13 @@
         <v>142</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
@@ -4235,13 +4287,13 @@
         <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -4282,10 +4334,10 @@
         <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -4326,10 +4378,10 @@
         <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>8</v>
@@ -4370,10 +4422,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>135</v>
+        <v>367</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4414,10 +4466,10 @@
         <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -4458,10 +4510,10 @@
         <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4502,10 +4554,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4546,10 +4598,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4590,10 +4642,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4634,10 +4686,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4678,10 +4730,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -4722,10 +4774,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -4766,10 +4818,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -4810,10 +4862,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4854,10 +4906,10 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -4898,10 +4950,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4942,10 +4994,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -4986,10 +5038,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5030,10 +5082,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5074,10 +5126,10 @@
         <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5118,10 +5170,10 @@
         <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5162,10 +5214,10 @@
         <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>202</v>
+        <v>387</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5206,10 +5258,10 @@
         <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5250,10 +5302,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5294,10 +5346,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5338,10 +5390,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5375,17 +5427,17 @@
       <c r="AF85" s="2"/>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
+      <c r="A86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5419,17 +5471,17 @@
       <c r="AF86" s="2"/>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" t="s">
-        <v>61</v>
+      <c r="A87" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5463,17 +5515,17 @@
       <c r="AF87" s="2"/>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" t="s">
-        <v>61</v>
+      <c r="A88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5507,17 +5559,17 @@
       <c r="AF88" s="2"/>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" t="s">
-        <v>61</v>
+      <c r="A89" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5551,17 +5603,17 @@
       <c r="AF89" s="2"/>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
+      <c r="A90" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5595,17 +5647,17 @@
       <c r="AF90" s="2"/>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B91" t="s">
-        <v>365</v>
+      <c r="A91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -5639,17 +5691,17 @@
       <c r="AF91" s="2"/>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5687,13 +5739,13 @@
         <v>143</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5731,13 +5783,13 @@
         <v>143</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5771,17 +5823,17 @@
       <c r="AF94" s="2"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>4</v>
+      <c r="A95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5815,17 +5867,17 @@
       <c r="AF95" s="2"/>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>4</v>
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -5859,17 +5911,17 @@
       <c r="AF96" s="2"/>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>4</v>
+      <c r="A97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -5903,17 +5955,17 @@
       <c r="AF97" s="2"/>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>4</v>
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" t="s">
+        <v>365</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -5947,17 +5999,17 @@
       <c r="AF98" s="2"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>216</v>
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -5991,17 +6043,17 @@
       <c r="AF99" s="2"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>216</v>
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6035,17 +6087,17 @@
       <c r="AF100" s="2"/>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>216</v>
+      <c r="A101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" t="s">
+        <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6083,13 +6135,13 @@
         <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -6127,13 +6179,13 @@
         <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6171,13 +6223,13 @@
         <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6215,13 +6267,13 @@
         <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6262,10 +6314,10 @@
         <v>216</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6306,10 +6358,10 @@
         <v>216</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6350,10 +6402,10 @@
         <v>216</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6388,16 +6440,16 @@
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6432,16 +6484,16 @@
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6476,16 +6528,16 @@
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6520,16 +6572,16 @@
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6564,16 +6616,16 @@
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -6608,16 +6660,16 @@
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -6652,16 +6704,16 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -6698,14 +6750,14 @@
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>67</v>
+      <c r="B116" t="s">
+        <v>237</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -6742,14 +6794,14 @@
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>67</v>
+      <c r="B117" t="s">
+        <v>237</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6787,13 +6839,13 @@
         <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6831,13 +6883,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -6875,13 +6927,13 @@
         <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -6919,13 +6971,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -6963,13 +7015,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>263</v>
+        <v>67</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7007,13 +7059,13 @@
         <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>264</v>
+        <v>67</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7051,13 +7103,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>265</v>
+        <v>67</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7098,10 +7150,10 @@
         <v>61</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7142,10 +7194,10 @@
         <v>61</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7186,10 +7238,10 @@
         <v>61</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7230,10 +7282,10 @@
         <v>61</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7274,10 +7326,10 @@
         <v>61</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7318,10 +7370,10 @@
         <v>61</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7355,17 +7407,17 @@
       <c r="AF130" s="2"/>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>272</v>
-      </c>
-      <c r="B131" t="s">
-        <v>274</v>
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7399,17 +7451,17 @@
       <c r="AF131" s="2"/>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>272</v>
-      </c>
-      <c r="B132" t="s">
-        <v>274</v>
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7443,17 +7495,17 @@
       <c r="AF132" s="2"/>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>272</v>
-      </c>
-      <c r="B133" t="s">
-        <v>274</v>
+      <c r="A133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7487,17 +7539,17 @@
       <c r="AF133" s="2"/>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>272</v>
-      </c>
-      <c r="B134" t="s">
-        <v>274</v>
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7531,17 +7583,17 @@
       <c r="AF134" s="2"/>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>272</v>
-      </c>
-      <c r="B135" t="s">
-        <v>274</v>
+      <c r="A135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -7575,17 +7627,17 @@
       <c r="AF135" s="2"/>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" t="s">
-        <v>274</v>
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -7619,17 +7671,17 @@
       <c r="AF136" s="2"/>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" t="s">
-        <v>274</v>
+      <c r="A137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -7670,10 +7722,10 @@
         <v>274</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -7714,10 +7766,10 @@
         <v>274</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -7758,10 +7810,10 @@
         <v>274</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -7802,10 +7854,10 @@
         <v>274</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -7846,10 +7898,10 @@
         <v>274</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -7890,10 +7942,10 @@
         <v>274</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -7934,10 +7986,10 @@
         <v>274</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -7978,10 +8030,10 @@
         <v>274</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8022,10 +8074,10 @@
         <v>274</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8066,10 +8118,10 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8110,10 +8162,10 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8154,10 +8206,10 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8198,10 +8250,10 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8239,13 +8291,13 @@
         <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>273</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>315</v>
+        <v>274</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8283,13 +8335,13 @@
         <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>273</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>317</v>
+        <v>274</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8327,13 +8379,13 @@
         <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>319</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>330</v>
+        <v>274</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8371,13 +8423,13 @@
         <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8415,13 +8467,13 @@
         <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>319</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>332</v>
+        <v>274</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8459,13 +8511,13 @@
         <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>319</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>333</v>
+        <v>274</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8503,13 +8555,13 @@
         <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>319</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>334</v>
+        <v>274</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8547,13 +8599,13 @@
         <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8591,13 +8643,13 @@
         <v>272</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8638,10 +8690,10 @@
         <v>319</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8682,10 +8734,10 @@
         <v>319</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8726,10 +8778,10 @@
         <v>319</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8767,13 +8819,13 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8811,13 +8863,13 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8855,13 +8907,13 @@
         <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -8899,13 +8951,13 @@
         <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -8943,13 +8995,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -8987,13 +9039,13 @@
         <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9031,13 +9083,13 @@
         <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9078,10 +9130,10 @@
         <v>340</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9119,13 +9171,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9163,13 +9215,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9207,13 +9259,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9251,13 +9303,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9291,11 +9343,21 @@
       <c r="AF174" s="2"/>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="A175" t="s">
+        <v>272</v>
+      </c>
+      <c r="B175" t="s">
+        <v>340</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -9325,11 +9387,21 @@
       <c r="AF175" s="2"/>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="A176" t="s">
+        <v>272</v>
+      </c>
+      <c r="B176" t="s">
+        <v>340</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -9359,11 +9431,21 @@
       <c r="AF176" s="2"/>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="A177" t="s">
+        <v>272</v>
+      </c>
+      <c r="B177" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
@@ -9393,11 +9475,21 @@
       <c r="AF177" s="2"/>
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="A178" t="s">
+        <v>272</v>
+      </c>
+      <c r="B178" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -9427,11 +9519,21 @@
       <c r="AF178" s="2"/>
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="A179" t="s">
+        <v>272</v>
+      </c>
+      <c r="B179" t="s">
+        <v>216</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -9461,11 +9563,21 @@
       <c r="AF179" s="2"/>
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="A180" t="s">
+        <v>272</v>
+      </c>
+      <c r="B180" t="s">
+        <v>216</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -9495,11 +9607,21 @@
       <c r="AF180" s="2"/>
     </row>
     <row r="181" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="A181" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -14492,7 +14614,246 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
     </row>
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="2"/>
+      <c r="L328" s="2"/>
+      <c r="M328" s="2"/>
+      <c r="N328" s="2"/>
+      <c r="O328" s="2"/>
+      <c r="P328" s="2"/>
+      <c r="Q328" s="2"/>
+      <c r="R328" s="2"/>
+      <c r="S328" s="2"/>
+      <c r="T328" s="2"/>
+      <c r="U328" s="2"/>
+      <c r="V328" s="2"/>
+      <c r="W328" s="2"/>
+      <c r="X328" s="2"/>
+      <c r="Y328" s="2"/>
+      <c r="Z328" s="2"/>
+      <c r="AA328" s="2"/>
+      <c r="AB328" s="2"/>
+      <c r="AC328" s="2"/>
+      <c r="AD328" s="2"/>
+      <c r="AE328" s="2"/>
+      <c r="AF328" s="2"/>
+    </row>
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
+      <c r="J329" s="2"/>
+      <c r="K329" s="2"/>
+      <c r="L329" s="2"/>
+      <c r="M329" s="2"/>
+      <c r="N329" s="2"/>
+      <c r="O329" s="2"/>
+      <c r="P329" s="2"/>
+      <c r="Q329" s="2"/>
+      <c r="R329" s="2"/>
+      <c r="S329" s="2"/>
+      <c r="T329" s="2"/>
+      <c r="U329" s="2"/>
+      <c r="V329" s="2"/>
+      <c r="W329" s="2"/>
+      <c r="X329" s="2"/>
+      <c r="Y329" s="2"/>
+      <c r="Z329" s="2"/>
+      <c r="AA329" s="2"/>
+      <c r="AB329" s="2"/>
+      <c r="AC329" s="2"/>
+      <c r="AD329" s="2"/>
+      <c r="AE329" s="2"/>
+      <c r="AF329" s="2"/>
+    </row>
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
+      <c r="J330" s="2"/>
+      <c r="K330" s="2"/>
+      <c r="L330" s="2"/>
+      <c r="M330" s="2"/>
+      <c r="N330" s="2"/>
+      <c r="O330" s="2"/>
+      <c r="P330" s="2"/>
+      <c r="Q330" s="2"/>
+      <c r="R330" s="2"/>
+      <c r="S330" s="2"/>
+      <c r="T330" s="2"/>
+      <c r="U330" s="2"/>
+      <c r="V330" s="2"/>
+      <c r="W330" s="2"/>
+      <c r="X330" s="2"/>
+      <c r="Y330" s="2"/>
+      <c r="Z330" s="2"/>
+      <c r="AA330" s="2"/>
+      <c r="AB330" s="2"/>
+      <c r="AC330" s="2"/>
+      <c r="AD330" s="2"/>
+      <c r="AE330" s="2"/>
+      <c r="AF330" s="2"/>
+    </row>
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+      <c r="L331" s="2"/>
+      <c r="M331" s="2"/>
+      <c r="N331" s="2"/>
+      <c r="O331" s="2"/>
+      <c r="P331" s="2"/>
+      <c r="Q331" s="2"/>
+      <c r="R331" s="2"/>
+      <c r="S331" s="2"/>
+      <c r="T331" s="2"/>
+      <c r="U331" s="2"/>
+      <c r="V331" s="2"/>
+      <c r="W331" s="2"/>
+      <c r="X331" s="2"/>
+      <c r="Y331" s="2"/>
+      <c r="Z331" s="2"/>
+      <c r="AA331" s="2"/>
+      <c r="AB331" s="2"/>
+      <c r="AC331" s="2"/>
+      <c r="AD331" s="2"/>
+      <c r="AE331" s="2"/>
+      <c r="AF331" s="2"/>
+    </row>
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
+      <c r="J332" s="2"/>
+      <c r="K332" s="2"/>
+      <c r="L332" s="2"/>
+      <c r="M332" s="2"/>
+      <c r="N332" s="2"/>
+      <c r="O332" s="2"/>
+      <c r="P332" s="2"/>
+      <c r="Q332" s="2"/>
+      <c r="R332" s="2"/>
+      <c r="S332" s="2"/>
+      <c r="T332" s="2"/>
+      <c r="U332" s="2"/>
+      <c r="V332" s="2"/>
+      <c r="W332" s="2"/>
+      <c r="X332" s="2"/>
+      <c r="Y332" s="2"/>
+      <c r="Z332" s="2"/>
+      <c r="AA332" s="2"/>
+      <c r="AB332" s="2"/>
+      <c r="AC332" s="2"/>
+      <c r="AD332" s="2"/>
+      <c r="AE332" s="2"/>
+      <c r="AF332" s="2"/>
+    </row>
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="2"/>
+      <c r="L333" s="2"/>
+      <c r="M333" s="2"/>
+      <c r="N333" s="2"/>
+      <c r="O333" s="2"/>
+      <c r="P333" s="2"/>
+      <c r="Q333" s="2"/>
+      <c r="R333" s="2"/>
+      <c r="S333" s="2"/>
+      <c r="T333" s="2"/>
+      <c r="U333" s="2"/>
+      <c r="V333" s="2"/>
+      <c r="W333" s="2"/>
+      <c r="X333" s="2"/>
+      <c r="Y333" s="2"/>
+      <c r="Z333" s="2"/>
+      <c r="AA333" s="2"/>
+      <c r="AB333" s="2"/>
+      <c r="AC333" s="2"/>
+      <c r="AD333" s="2"/>
+      <c r="AE333" s="2"/>
+      <c r="AF333" s="2"/>
+    </row>
+    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="2"/>
+      <c r="L334" s="2"/>
+      <c r="M334" s="2"/>
+      <c r="N334" s="2"/>
+      <c r="O334" s="2"/>
+      <c r="P334" s="2"/>
+      <c r="Q334" s="2"/>
+      <c r="R334" s="2"/>
+      <c r="S334" s="2"/>
+      <c r="T334" s="2"/>
+      <c r="U334" s="2"/>
+      <c r="V334" s="2"/>
+      <c r="W334" s="2"/>
+      <c r="X334" s="2"/>
+      <c r="Y334" s="2"/>
+      <c r="Z334" s="2"/>
+      <c r="AA334" s="2"/>
+      <c r="AB334" s="2"/>
+      <c r="AC334" s="2"/>
+      <c r="AD334" s="2"/>
+      <c r="AE334" s="2"/>
+      <c r="AF334" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43EBA94-7DF1-4DAA-96F2-50350D9C6B38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6572A00A-8859-47D3-BB64-107058C90B7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="397">
   <si>
     <t>cartella</t>
   </si>
@@ -1206,6 +1206,30 @@
   </si>
   <si>
     <t>rinsu22</t>
+  </si>
+  <si>
+    <t>rinse06</t>
+  </si>
+  <si>
+    <t>rinse06.mp4</t>
+  </si>
+  <si>
+    <t>rindec03.mp4</t>
+  </si>
+  <si>
+    <t>rindec03</t>
+  </si>
+  <si>
+    <t>rinsu14</t>
+  </si>
+  <si>
+    <t>rinsu14.mp4</t>
+  </si>
+  <si>
+    <t>rinsu15.mp4</t>
+  </si>
+  <si>
+    <t>rinsu15</t>
   </si>
 </sst>
 </file>
@@ -1575,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
-  <dimension ref="A1:AF334"/>
+  <dimension ref="A1:AF338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,17 +4571,15 @@
       <c r="AF65" s="2"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4598,10 +4620,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4642,10 +4664,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4686,10 +4708,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4730,10 +4752,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -4774,10 +4796,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -4818,10 +4840,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -4862,10 +4884,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4906,10 +4928,10 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -4950,10 +4972,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -4994,10 +5016,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -5038,10 +5060,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>383</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5082,10 +5104,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5119,17 +5141,15 @@
       <c r="AF78" s="2"/>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>192</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5163,17 +5183,15 @@
       <c r="AF79" s="2"/>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>193</v>
+        <v>395</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5214,10 +5232,10 @@
         <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5258,10 +5276,10 @@
         <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5302,10 +5320,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>198</v>
+        <v>386</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5346,10 +5364,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5390,10 +5408,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5434,10 +5452,10 @@
         <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5478,10 +5496,10 @@
         <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5515,17 +5533,15 @@
       <c r="AF87" s="2"/>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>202</v>
+        <v>392</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5566,10 +5582,10 @@
         <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5610,10 +5626,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5654,10 +5670,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -5698,10 +5714,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5735,17 +5751,17 @@
       <c r="AF92" s="2"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" t="s">
-        <v>61</v>
+      <c r="A93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5779,17 +5795,17 @@
       <c r="AF93" s="2"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" t="s">
-        <v>61</v>
+      <c r="A94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5823,17 +5839,17 @@
       <c r="AF94" s="2"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
+      <c r="A95" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5867,17 +5883,17 @@
       <c r="AF95" s="2"/>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>143</v>
-      </c>
-      <c r="B96" t="s">
-        <v>61</v>
+      <c r="A96" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -5918,10 +5934,10 @@
         <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -5959,13 +5975,13 @@
         <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -6003,13 +6019,13 @@
         <v>143</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -6047,13 +6063,13 @@
         <v>143</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6091,13 +6107,13 @@
         <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6131,17 +6147,17 @@
       <c r="AF101" s="2"/>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>4</v>
+      <c r="A102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" t="s">
+        <v>365</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -6175,17 +6191,17 @@
       <c r="AF102" s="2"/>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>4</v>
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6219,17 +6235,17 @@
       <c r="AF103" s="2"/>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>4</v>
+      <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6263,17 +6279,17 @@
       <c r="AF104" s="2"/>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>4</v>
+      <c r="A105" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6311,13 +6327,13 @@
         <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6355,13 +6371,13 @@
         <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6399,13 +6415,13 @@
         <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6443,13 +6459,13 @@
         <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6490,10 +6506,10 @@
         <v>216</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6534,10 +6550,10 @@
         <v>216</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6578,10 +6594,10 @@
         <v>216</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6622,10 +6638,10 @@
         <v>216</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -6666,10 +6682,10 @@
         <v>216</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -6710,10 +6726,10 @@
         <v>216</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -6748,16 +6764,16 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -6792,16 +6808,16 @@
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6836,16 +6852,16 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6880,16 +6896,16 @@
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -6926,14 +6942,14 @@
       <c r="A120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>67</v>
+      <c r="B120" t="s">
+        <v>237</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -6970,14 +6986,14 @@
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>67</v>
+      <c r="B121" t="s">
+        <v>237</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7018,10 +7034,10 @@
         <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7062,10 +7078,10 @@
         <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7106,10 +7122,10 @@
         <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7147,13 +7163,13 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7191,13 +7207,13 @@
         <v>3</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7235,13 +7251,13 @@
         <v>3</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7279,13 +7295,13 @@
         <v>3</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7326,10 +7342,10 @@
         <v>61</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7370,10 +7386,10 @@
         <v>61</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7414,10 +7430,10 @@
         <v>61</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7458,10 +7474,10 @@
         <v>61</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7502,10 +7518,10 @@
         <v>61</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7546,10 +7562,10 @@
         <v>61</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7590,10 +7606,10 @@
         <v>61</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -7634,10 +7650,10 @@
         <v>61</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -7678,10 +7694,10 @@
         <v>61</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -7715,17 +7731,17 @@
       <c r="AF137" s="2"/>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" t="s">
-        <v>274</v>
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -7759,17 +7775,17 @@
       <c r="AF138" s="2"/>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
+      <c r="A139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -7803,17 +7819,17 @@
       <c r="AF139" s="2"/>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>272</v>
-      </c>
-      <c r="B140" t="s">
-        <v>274</v>
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -7847,17 +7863,17 @@
       <c r="AF140" s="2"/>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>272</v>
-      </c>
-      <c r="B141" t="s">
-        <v>274</v>
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -7898,10 +7914,10 @@
         <v>274</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -7942,10 +7958,10 @@
         <v>274</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -7986,10 +8002,10 @@
         <v>274</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -8030,10 +8046,10 @@
         <v>274</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8074,10 +8090,10 @@
         <v>274</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8118,10 +8134,10 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8162,10 +8178,10 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8206,10 +8222,10 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8250,10 +8266,10 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8294,10 +8310,10 @@
         <v>274</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8338,10 +8354,10 @@
         <v>274</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8382,10 +8398,10 @@
         <v>274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8426,10 +8442,10 @@
         <v>274</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8470,10 +8486,10 @@
         <v>274</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8514,10 +8530,10 @@
         <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8558,10 +8574,10 @@
         <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8599,13 +8615,13 @@
         <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>273</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>315</v>
+        <v>274</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8643,13 +8659,13 @@
         <v>272</v>
       </c>
       <c r="B159" t="s">
-        <v>273</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>317</v>
+        <v>274</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8687,13 +8703,13 @@
         <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>319</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>330</v>
+        <v>274</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8731,13 +8747,13 @@
         <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8775,13 +8791,13 @@
         <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8819,13 +8835,13 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8866,10 +8882,10 @@
         <v>319</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8910,10 +8926,10 @@
         <v>319</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -8954,10 +8970,10 @@
         <v>319</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -8998,10 +9014,10 @@
         <v>319</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9042,10 +9058,10 @@
         <v>319</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9086,10 +9102,10 @@
         <v>319</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9127,13 +9143,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9171,13 +9187,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9215,13 +9231,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9259,13 +9275,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9306,10 +9322,10 @@
         <v>340</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9350,10 +9366,10 @@
         <v>340</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9394,10 +9410,10 @@
         <v>340</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9438,10 +9454,10 @@
         <v>340</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9479,13 +9495,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9523,13 +9539,13 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9567,13 +9583,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9611,13 +9627,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9651,11 +9667,21 @@
       <c r="AF181" s="2"/>
     </row>
     <row r="182" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="A182" t="s">
+        <v>272</v>
+      </c>
+      <c r="B182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -9685,11 +9711,21 @@
       <c r="AF182" s="2"/>
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="A183" t="s">
+        <v>272</v>
+      </c>
+      <c r="B183" t="s">
+        <v>216</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
@@ -9719,11 +9755,21 @@
       <c r="AF183" s="2"/>
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="A184" t="s">
+        <v>272</v>
+      </c>
+      <c r="B184" t="s">
+        <v>216</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
@@ -9753,11 +9799,21 @@
       <c r="AF184" s="2"/>
     </row>
     <row r="185" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
+      <c r="A185" t="s">
+        <v>272</v>
+      </c>
+      <c r="B185" t="s">
+        <v>216</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
@@ -14852,6 +14908,142 @@
       <c r="AE334" s="2"/>
       <c r="AF334" s="2"/>
     </row>
+    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+      <c r="J335" s="2"/>
+      <c r="K335" s="2"/>
+      <c r="L335" s="2"/>
+      <c r="M335" s="2"/>
+      <c r="N335" s="2"/>
+      <c r="O335" s="2"/>
+      <c r="P335" s="2"/>
+      <c r="Q335" s="2"/>
+      <c r="R335" s="2"/>
+      <c r="S335" s="2"/>
+      <c r="T335" s="2"/>
+      <c r="U335" s="2"/>
+      <c r="V335" s="2"/>
+      <c r="W335" s="2"/>
+      <c r="X335" s="2"/>
+      <c r="Y335" s="2"/>
+      <c r="Z335" s="2"/>
+      <c r="AA335" s="2"/>
+      <c r="AB335" s="2"/>
+      <c r="AC335" s="2"/>
+      <c r="AD335" s="2"/>
+      <c r="AE335" s="2"/>
+      <c r="AF335" s="2"/>
+    </row>
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+      <c r="J336" s="2"/>
+      <c r="K336" s="2"/>
+      <c r="L336" s="2"/>
+      <c r="M336" s="2"/>
+      <c r="N336" s="2"/>
+      <c r="O336" s="2"/>
+      <c r="P336" s="2"/>
+      <c r="Q336" s="2"/>
+      <c r="R336" s="2"/>
+      <c r="S336" s="2"/>
+      <c r="T336" s="2"/>
+      <c r="U336" s="2"/>
+      <c r="V336" s="2"/>
+      <c r="W336" s="2"/>
+      <c r="X336" s="2"/>
+      <c r="Y336" s="2"/>
+      <c r="Z336" s="2"/>
+      <c r="AA336" s="2"/>
+      <c r="AB336" s="2"/>
+      <c r="AC336" s="2"/>
+      <c r="AD336" s="2"/>
+      <c r="AE336" s="2"/>
+      <c r="AF336" s="2"/>
+    </row>
+    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
+      <c r="J337" s="2"/>
+      <c r="K337" s="2"/>
+      <c r="L337" s="2"/>
+      <c r="M337" s="2"/>
+      <c r="N337" s="2"/>
+      <c r="O337" s="2"/>
+      <c r="P337" s="2"/>
+      <c r="Q337" s="2"/>
+      <c r="R337" s="2"/>
+      <c r="S337" s="2"/>
+      <c r="T337" s="2"/>
+      <c r="U337" s="2"/>
+      <c r="V337" s="2"/>
+      <c r="W337" s="2"/>
+      <c r="X337" s="2"/>
+      <c r="Y337" s="2"/>
+      <c r="Z337" s="2"/>
+      <c r="AA337" s="2"/>
+      <c r="AB337" s="2"/>
+      <c r="AC337" s="2"/>
+      <c r="AD337" s="2"/>
+      <c r="AE337" s="2"/>
+      <c r="AF337" s="2"/>
+    </row>
+    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+      <c r="M338" s="2"/>
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
+      <c r="P338" s="2"/>
+      <c r="Q338" s="2"/>
+      <c r="R338" s="2"/>
+      <c r="S338" s="2"/>
+      <c r="T338" s="2"/>
+      <c r="U338" s="2"/>
+      <c r="V338" s="2"/>
+      <c r="W338" s="2"/>
+      <c r="X338" s="2"/>
+      <c r="Y338" s="2"/>
+      <c r="Z338" s="2"/>
+      <c r="AA338" s="2"/>
+      <c r="AB338" s="2"/>
+      <c r="AC338" s="2"/>
+      <c r="AD338" s="2"/>
+      <c r="AE338" s="2"/>
+      <c r="AF338" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6572A00A-8859-47D3-BB64-107058C90B7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0933ACE6-5540-40B5-A68E-06357DE6878C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0933ACE6-5540-40B5-A68E-06357DE6878C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E335E2-9C72-43FF-A1B7-09668664598A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="397">
   <si>
     <t>cartella</t>
   </si>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
   <dimension ref="A1:AF338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,7 +2737,9 @@
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2825,9 @@
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2869,9 @@
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2913,9 @@
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2957,9 @@
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2991,7 +3001,9 @@
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3089,9 @@
       <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4571,7 +4585,9 @@
       <c r="AF65" s="2"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
@@ -5141,7 +5157,9 @@
       <c r="AF78" s="2"/>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>67</v>
       </c>
@@ -5183,7 +5201,9 @@
       <c r="AF79" s="2"/>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>67</v>
       </c>
@@ -5533,7 +5553,9 @@
       <c r="AF87" s="2"/>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B88" s="2" t="s">
         <v>67</v>
       </c>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E335E2-9C72-43FF-A1B7-09668664598A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF8941-78D9-4B44-961B-487E81320EF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="407">
   <si>
     <t>cartella</t>
   </si>
@@ -1230,6 +1230,36 @@
   </si>
   <si>
     <t>rinsu15</t>
+  </si>
+  <si>
+    <t>rinsu13</t>
+  </si>
+  <si>
+    <t>rinsu13.mp4</t>
+  </si>
+  <si>
+    <t>rinse07.mp4</t>
+  </si>
+  <si>
+    <t>rinse07</t>
+  </si>
+  <si>
+    <t>rinse11.mp4</t>
+  </si>
+  <si>
+    <t>rinse11</t>
+  </si>
+  <si>
+    <t>rinse15.mp4</t>
+  </si>
+  <si>
+    <t>rinse15</t>
+  </si>
+  <si>
+    <t>rinse12</t>
+  </si>
+  <si>
+    <t>rinse12.mp4</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
-  <dimension ref="A1:AF338"/>
+  <dimension ref="A1:AF343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,10 +4666,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>196</v>
+        <v>399</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4680,10 +4710,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>132</v>
+        <v>401</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>402</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4724,10 +4754,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>133</v>
+        <v>406</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4768,10 +4798,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>134</v>
+        <v>403</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>120</v>
+        <v>404</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -4812,10 +4842,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -4856,10 +4886,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -4900,10 +4930,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -4944,10 +4974,10 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -4988,10 +5018,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -5032,10 +5062,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -5076,10 +5106,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5120,10 +5150,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>383</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5164,10 +5194,10 @@
         <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>394</v>
+        <v>139</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>393</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5208,10 +5238,10 @@
         <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>395</v>
+        <v>140</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5252,10 +5282,10 @@
         <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>384</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5296,10 +5326,10 @@
         <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5340,10 +5370,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5384,10 +5414,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>194</v>
+        <v>394</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5428,10 +5458,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>195</v>
+        <v>395</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5472,10 +5502,10 @@
         <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>198</v>
+        <v>384</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5516,10 +5546,10 @@
         <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5560,10 +5590,10 @@
         <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>391</v>
+        <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5604,10 +5634,10 @@
         <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>387</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5648,10 +5678,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>200</v>
+        <v>388</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5692,10 +5722,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -5736,10 +5766,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -5780,10 +5810,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>212</v>
+        <v>391</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>203</v>
+        <v>392</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5824,10 +5854,10 @@
         <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -5868,10 +5898,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -5912,10 +5942,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -5949,17 +5979,17 @@
       <c r="AF96" s="2"/>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" t="s">
-        <v>61</v>
+      <c r="A97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -5993,17 +6023,17 @@
       <c r="AF97" s="2"/>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" t="s">
-        <v>61</v>
+      <c r="A98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -6037,17 +6067,17 @@
       <c r="AF98" s="2"/>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>143</v>
-      </c>
-      <c r="B99" t="s">
-        <v>61</v>
+      <c r="A99" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -6081,17 +6111,17 @@
       <c r="AF99" s="2"/>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" t="s">
-        <v>61</v>
+      <c r="A100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6125,17 +6155,17 @@
       <c r="AF100" s="2"/>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" t="s">
-        <v>61</v>
+      <c r="A101" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6173,7 +6203,7 @@
         <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>152</v>
@@ -6217,13 +6247,13 @@
         <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6261,13 +6291,13 @@
         <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6305,13 +6335,13 @@
         <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6345,17 +6375,17 @@
       <c r="AF105" s="2"/>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>4</v>
+      <c r="A106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" t="s">
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6389,17 +6419,17 @@
       <c r="AF106" s="2"/>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>4</v>
+      <c r="A107" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" t="s">
+        <v>365</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6433,17 +6463,17 @@
       <c r="AF107" s="2"/>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>4</v>
+      <c r="A108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6477,17 +6507,17 @@
       <c r="AF108" s="2"/>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>4</v>
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6521,17 +6551,17 @@
       <c r="AF109" s="2"/>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>216</v>
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6569,13 +6599,13 @@
         <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6613,13 +6643,13 @@
         <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6657,13 +6687,13 @@
         <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -6701,13 +6731,13 @@
         <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -6748,10 +6778,10 @@
         <v>216</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -6792,10 +6822,10 @@
         <v>216</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -6836,10 +6866,10 @@
         <v>216</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -6880,10 +6910,10 @@
         <v>216</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -6924,10 +6954,10 @@
         <v>216</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -6962,16 +6992,16 @@
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -7006,16 +7036,16 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7050,16 +7080,16 @@
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7094,16 +7124,16 @@
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7138,16 +7168,16 @@
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7184,14 +7214,14 @@
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>67</v>
+      <c r="B125" t="s">
+        <v>237</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7228,14 +7258,14 @@
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>67</v>
+      <c r="B126" t="s">
+        <v>237</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7276,10 +7306,10 @@
         <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7320,10 +7350,10 @@
         <v>67</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7361,13 +7391,13 @@
         <v>3</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7405,13 +7435,13 @@
         <v>3</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7449,13 +7479,13 @@
         <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7493,13 +7523,13 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7537,13 +7567,13 @@
         <v>3</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>67</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7584,10 +7614,10 @@
         <v>61</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7628,10 +7658,10 @@
         <v>61</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -7672,10 +7702,10 @@
         <v>61</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -7716,10 +7746,10 @@
         <v>61</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -7760,10 +7790,10 @@
         <v>61</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -7804,10 +7834,10 @@
         <v>61</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -7848,10 +7878,10 @@
         <v>61</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -7892,10 +7922,10 @@
         <v>61</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -7929,17 +7959,17 @@
       <c r="AF141" s="2"/>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>272</v>
-      </c>
-      <c r="B142" t="s">
-        <v>274</v>
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -7973,17 +8003,17 @@
       <c r="AF142" s="2"/>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>272</v>
-      </c>
-      <c r="B143" t="s">
-        <v>274</v>
+      <c r="A143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -8017,17 +8047,17 @@
       <c r="AF143" s="2"/>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>272</v>
-      </c>
-      <c r="B144" t="s">
-        <v>274</v>
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -8061,17 +8091,17 @@
       <c r="AF144" s="2"/>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>272</v>
-      </c>
-      <c r="B145" t="s">
-        <v>274</v>
+      <c r="A145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8105,17 +8135,17 @@
       <c r="AF145" s="2"/>
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>272</v>
-      </c>
-      <c r="B146" t="s">
-        <v>274</v>
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8156,10 +8186,10 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8200,10 +8230,10 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8244,10 +8274,10 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8288,10 +8318,10 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8332,10 +8362,10 @@
         <v>274</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8376,10 +8406,10 @@
         <v>274</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8420,10 +8450,10 @@
         <v>274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8464,10 +8494,10 @@
         <v>274</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8508,10 +8538,10 @@
         <v>274</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8552,10 +8582,10 @@
         <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8596,10 +8626,10 @@
         <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8640,10 +8670,10 @@
         <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8684,10 +8714,10 @@
         <v>274</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8728,10 +8758,10 @@
         <v>274</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8772,10 +8802,10 @@
         <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8813,13 +8843,13 @@
         <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>315</v>
+        <v>274</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8857,13 +8887,13 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>317</v>
+        <v>274</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8901,13 +8931,13 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>330</v>
+        <v>274</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8945,13 +8975,13 @@
         <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>319</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -8989,13 +9019,13 @@
         <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>319</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>332</v>
+        <v>274</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9033,13 +9063,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9077,13 +9107,13 @@
         <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9124,10 +9154,10 @@
         <v>319</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9168,10 +9198,10 @@
         <v>319</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9212,10 +9242,10 @@
         <v>319</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9256,10 +9286,10 @@
         <v>319</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9300,10 +9330,10 @@
         <v>319</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9341,13 +9371,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9385,13 +9415,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9429,13 +9459,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9473,13 +9503,13 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9517,13 +9547,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9564,10 +9594,10 @@
         <v>340</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9608,10 +9638,10 @@
         <v>340</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9652,10 +9682,10 @@
         <v>340</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9693,13 +9723,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9737,13 +9767,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9781,13 +9811,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9825,13 +9855,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9865,11 +9895,21 @@
       <c r="AF185" s="2"/>
     </row>
     <row r="186" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
+      <c r="A186" t="s">
+        <v>272</v>
+      </c>
+      <c r="B186" t="s">
+        <v>340</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
@@ -9899,11 +9939,21 @@
       <c r="AF186" s="2"/>
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
+      <c r="A187" t="s">
+        <v>272</v>
+      </c>
+      <c r="B187" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
@@ -9933,11 +9983,21 @@
       <c r="AF187" s="2"/>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
+      <c r="A188" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" t="s">
+        <v>216</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
@@ -9967,11 +10027,21 @@
       <c r="AF188" s="2"/>
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
+      <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -10001,11 +10071,21 @@
       <c r="AF189" s="2"/>
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="A190" t="s">
+        <v>272</v>
+      </c>
+      <c r="B190" t="s">
+        <v>216</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
@@ -15066,6 +15146,176 @@
       <c r="AE338" s="2"/>
       <c r="AF338" s="2"/>
     </row>
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+      <c r="J339" s="2"/>
+      <c r="K339" s="2"/>
+      <c r="L339" s="2"/>
+      <c r="M339" s="2"/>
+      <c r="N339" s="2"/>
+      <c r="O339" s="2"/>
+      <c r="P339" s="2"/>
+      <c r="Q339" s="2"/>
+      <c r="R339" s="2"/>
+      <c r="S339" s="2"/>
+      <c r="T339" s="2"/>
+      <c r="U339" s="2"/>
+      <c r="V339" s="2"/>
+      <c r="W339" s="2"/>
+      <c r="X339" s="2"/>
+      <c r="Y339" s="2"/>
+      <c r="Z339" s="2"/>
+      <c r="AA339" s="2"/>
+      <c r="AB339" s="2"/>
+      <c r="AC339" s="2"/>
+      <c r="AD339" s="2"/>
+      <c r="AE339" s="2"/>
+      <c r="AF339" s="2"/>
+    </row>
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+      <c r="L340" s="2"/>
+      <c r="M340" s="2"/>
+      <c r="N340" s="2"/>
+      <c r="O340" s="2"/>
+      <c r="P340" s="2"/>
+      <c r="Q340" s="2"/>
+      <c r="R340" s="2"/>
+      <c r="S340" s="2"/>
+      <c r="T340" s="2"/>
+      <c r="U340" s="2"/>
+      <c r="V340" s="2"/>
+      <c r="W340" s="2"/>
+      <c r="X340" s="2"/>
+      <c r="Y340" s="2"/>
+      <c r="Z340" s="2"/>
+      <c r="AA340" s="2"/>
+      <c r="AB340" s="2"/>
+      <c r="AC340" s="2"/>
+      <c r="AD340" s="2"/>
+      <c r="AE340" s="2"/>
+      <c r="AF340" s="2"/>
+    </row>
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+      <c r="L341" s="2"/>
+      <c r="M341" s="2"/>
+      <c r="N341" s="2"/>
+      <c r="O341" s="2"/>
+      <c r="P341" s="2"/>
+      <c r="Q341" s="2"/>
+      <c r="R341" s="2"/>
+      <c r="S341" s="2"/>
+      <c r="T341" s="2"/>
+      <c r="U341" s="2"/>
+      <c r="V341" s="2"/>
+      <c r="W341" s="2"/>
+      <c r="X341" s="2"/>
+      <c r="Y341" s="2"/>
+      <c r="Z341" s="2"/>
+      <c r="AA341" s="2"/>
+      <c r="AB341" s="2"/>
+      <c r="AC341" s="2"/>
+      <c r="AD341" s="2"/>
+      <c r="AE341" s="2"/>
+      <c r="AF341" s="2"/>
+    </row>
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+      <c r="J342" s="2"/>
+      <c r="K342" s="2"/>
+      <c r="L342" s="2"/>
+      <c r="M342" s="2"/>
+      <c r="N342" s="2"/>
+      <c r="O342" s="2"/>
+      <c r="P342" s="2"/>
+      <c r="Q342" s="2"/>
+      <c r="R342" s="2"/>
+      <c r="S342" s="2"/>
+      <c r="T342" s="2"/>
+      <c r="U342" s="2"/>
+      <c r="V342" s="2"/>
+      <c r="W342" s="2"/>
+      <c r="X342" s="2"/>
+      <c r="Y342" s="2"/>
+      <c r="Z342" s="2"/>
+      <c r="AA342" s="2"/>
+      <c r="AB342" s="2"/>
+      <c r="AC342" s="2"/>
+      <c r="AD342" s="2"/>
+      <c r="AE342" s="2"/>
+      <c r="AF342" s="2"/>
+    </row>
+    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+      <c r="J343" s="2"/>
+      <c r="K343" s="2"/>
+      <c r="L343" s="2"/>
+      <c r="M343" s="2"/>
+      <c r="N343" s="2"/>
+      <c r="O343" s="2"/>
+      <c r="P343" s="2"/>
+      <c r="Q343" s="2"/>
+      <c r="R343" s="2"/>
+      <c r="S343" s="2"/>
+      <c r="T343" s="2"/>
+      <c r="U343" s="2"/>
+      <c r="V343" s="2"/>
+      <c r="W343" s="2"/>
+      <c r="X343" s="2"/>
+      <c r="Y343" s="2"/>
+      <c r="Z343" s="2"/>
+      <c r="AA343" s="2"/>
+      <c r="AB343" s="2"/>
+      <c r="AC343" s="2"/>
+      <c r="AD343" s="2"/>
+      <c r="AE343" s="2"/>
+      <c r="AF343" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF8941-78D9-4B44-961B-487E81320EF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D04ACDA4-7515-4249-AF43-4A86ACDA9557}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1049,9 +1043,6 @@
     <t>C12.MOV</t>
   </si>
   <si>
-    <t>C13.MOV</t>
-  </si>
-  <si>
     <t>C14.MOV</t>
   </si>
   <si>
@@ -1260,13 +1251,16 @@
   </si>
   <si>
     <t>rinse12.mp4</t>
+  </si>
+  <si>
+    <t>C13.mp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,7 +1369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1427,7 +1421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1621,26 +1615,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B5828-1DD9-429E-936D-554BBAB67831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="32.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1684,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="165">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1740,7 +1734,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="225">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1784,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="195">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1840,7 +1834,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="285">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1884,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="120">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1940,7 +1934,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="195">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1984,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="180">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2040,7 +2034,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="240">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2090,7 +2084,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="330" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="330">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2140,7 +2134,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="240" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="240">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +2184,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="195">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2240,7 +2234,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="180">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2290,7 +2284,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="165">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2334,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="225" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="225">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2384,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="180">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2434,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="240" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="240">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2490,7 +2484,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="330" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="330">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2534,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="240" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="240">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,7 +2584,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20" s="2" t="s">
         <v>142</v>
       </c>
@@ -2634,7 +2628,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
@@ -2678,7 +2672,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
@@ -2722,7 +2716,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23" s="2" t="s">
         <v>142</v>
       </c>
@@ -2766,7 +2760,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24" s="2" t="s">
         <v>142</v>
       </c>
@@ -2774,10 +2768,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2810,7 +2804,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -2854,7 +2848,7 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
@@ -2862,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2898,7 +2892,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
@@ -2906,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -2942,7 +2936,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -2950,10 +2944,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2986,7 +2980,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
@@ -2994,10 +2988,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -3030,7 +3024,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
@@ -3038,10 +3032,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -3074,7 +3068,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
@@ -3118,7 +3112,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
@@ -3126,10 +3120,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -3162,7 +3156,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
@@ -3206,7 +3200,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
@@ -3250,7 +3244,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
@@ -3294,7 +3288,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3338,7 +3332,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
@@ -3382,7 +3376,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
@@ -3426,7 +3420,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
@@ -3470,7 +3464,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -3514,7 +3508,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
@@ -3558,7 +3552,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32">
       <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
@@ -3602,7 +3596,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -3646,7 +3640,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -3690,7 +3684,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -3734,7 +3728,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -3778,7 +3772,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -3822,7 +3816,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -3866,7 +3860,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -3910,7 +3904,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -3954,7 +3948,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -3998,7 +3992,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
@@ -4042,7 +4036,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -4086,7 +4080,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -4130,7 +4124,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4174,7 +4168,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -4218,7 +4212,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -4262,7 +4256,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -4306,7 +4300,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -4350,7 +4344,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32">
       <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
@@ -4394,7 +4388,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32">
       <c r="A61" s="2" t="s">
         <v>142</v>
       </c>
@@ -4438,7 +4432,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -4482,7 +4476,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -4490,10 +4484,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4526,7 +4520,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32">
       <c r="A64" s="2" t="s">
         <v>142</v>
       </c>
@@ -4570,7 +4564,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32">
       <c r="A65" s="2" t="s">
         <v>142</v>
       </c>
@@ -4614,7 +4608,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32">
       <c r="A66" s="2" t="s">
         <v>142</v>
       </c>
@@ -4622,10 +4616,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4658,7 +4652,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -4666,10 +4660,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4702,7 +4696,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -4710,10 +4704,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4746,7 +4740,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32">
       <c r="A69" s="2" t="s">
         <v>142</v>
       </c>
@@ -4754,10 +4748,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4790,7 +4784,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -4798,10 +4792,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -4834,7 +4828,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -4878,7 +4872,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -4922,7 +4916,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -4966,7 +4960,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -5010,7 +5004,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -5054,7 +5048,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32">
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
@@ -5098,7 +5092,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32">
       <c r="A77" s="2" t="s">
         <v>142</v>
       </c>
@@ -5142,7 +5136,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -5186,7 +5180,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -5230,7 +5224,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -5274,7 +5268,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -5318,7 +5312,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -5329,7 +5323,7 @@
         <v>190</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5362,7 +5356,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -5370,10 +5364,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5406,7 +5400,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -5414,10 +5408,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5450,7 +5444,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32">
       <c r="A85" s="2" t="s">
         <v>142</v>
       </c>
@@ -5458,10 +5452,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5494,7 +5488,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32">
       <c r="A86" s="2" t="s">
         <v>142</v>
       </c>
@@ -5505,7 +5499,7 @@
         <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5538,7 +5532,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32">
       <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
@@ -5549,7 +5543,7 @@
         <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5582,7 +5576,7 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32">
       <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5626,7 +5620,7 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32">
       <c r="A89" s="2" t="s">
         <v>142</v>
       </c>
@@ -5637,7 +5631,7 @@
         <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5670,7 +5664,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32">
       <c r="A90" s="2" t="s">
         <v>142</v>
       </c>
@@ -5681,7 +5675,7 @@
         <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5714,7 +5708,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32">
       <c r="A91" s="2" t="s">
         <v>142</v>
       </c>
@@ -5758,7 +5752,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32">
       <c r="A92" s="2" t="s">
         <v>142</v>
       </c>
@@ -5802,7 +5796,7 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32">
       <c r="A93" s="2" t="s">
         <v>142</v>
       </c>
@@ -5810,10 +5804,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -5846,7 +5840,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32">
       <c r="A94" s="2" t="s">
         <v>142</v>
       </c>
@@ -5890,7 +5884,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32">
       <c r="A95" s="2" t="s">
         <v>142</v>
       </c>
@@ -5934,7 +5928,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32">
       <c r="A96" s="2" t="s">
         <v>142</v>
       </c>
@@ -5978,7 +5972,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32">
       <c r="A97" s="2" t="s">
         <v>142</v>
       </c>
@@ -6022,7 +6016,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32">
       <c r="A98" s="2" t="s">
         <v>142</v>
       </c>
@@ -6066,7 +6060,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32">
       <c r="A99" s="2" t="s">
         <v>142</v>
       </c>
@@ -6110,7 +6104,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32">
       <c r="A100" s="2" t="s">
         <v>142</v>
       </c>
@@ -6154,7 +6148,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
@@ -6198,7 +6192,7 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
         <v>143</v>
       </c>
@@ -6242,7 +6236,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -6286,7 +6280,7 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -6330,7 +6324,7 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -6374,7 +6368,7 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -6418,12 +6412,12 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
         <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>152</v>
@@ -6462,7 +6456,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -6506,7 +6500,7 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
         <v>143</v>
       </c>
@@ -6550,7 +6544,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -6594,7 +6588,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32">
       <c r="A111" s="2" t="s">
         <v>142</v>
       </c>
@@ -6638,7 +6632,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -6682,7 +6676,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32">
       <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
@@ -6726,7 +6720,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32">
       <c r="A114" s="2" t="s">
         <v>142</v>
       </c>
@@ -6770,7 +6764,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -6814,7 +6808,7 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32">
       <c r="A116" s="2" t="s">
         <v>142</v>
       </c>
@@ -6858,7 +6852,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32">
       <c r="A117" s="2" t="s">
         <v>142</v>
       </c>
@@ -6902,7 +6896,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32">
       <c r="A118" s="2" t="s">
         <v>142</v>
       </c>
@@ -6946,7 +6940,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32">
       <c r="A119" s="2" t="s">
         <v>142</v>
       </c>
@@ -6990,7 +6984,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32">
       <c r="A120" s="2" t="s">
         <v>142</v>
       </c>
@@ -7034,7 +7028,7 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32">
       <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
@@ -7078,7 +7072,7 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32">
       <c r="A122" s="2" t="s">
         <v>142</v>
       </c>
@@ -7122,7 +7116,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32">
       <c r="A123" s="2" t="s">
         <v>142</v>
       </c>
@@ -7166,7 +7160,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32">
       <c r="A124" s="2" t="s">
         <v>142</v>
       </c>
@@ -7210,7 +7204,7 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -7254,7 +7248,7 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -7298,7 +7292,7 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -7342,7 +7336,7 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -7386,7 +7380,7 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -7430,7 +7424,7 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
@@ -7474,7 +7468,7 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -7518,7 +7512,7 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32">
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
@@ -7562,7 +7556,7 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
@@ -7606,7 +7600,7 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
@@ -7650,7 +7644,7 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -7694,7 +7688,7 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
@@ -7738,7 +7732,7 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
@@ -7782,7 +7776,7 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
@@ -7826,7 +7820,7 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -7870,7 +7864,7 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -7914,7 +7908,7 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
@@ -7958,7 +7952,7 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -8002,7 +7996,7 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -8046,7 +8040,7 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -8090,7 +8084,7 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -8134,7 +8128,7 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -8178,7 +8172,7 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32">
       <c r="A147" t="s">
         <v>272</v>
       </c>
@@ -8222,7 +8216,7 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32">
       <c r="A148" t="s">
         <v>272</v>
       </c>
@@ -8266,7 +8260,7 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32">
       <c r="A149" t="s">
         <v>272</v>
       </c>
@@ -8310,7 +8304,7 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32">
       <c r="A150" t="s">
         <v>272</v>
       </c>
@@ -8354,7 +8348,7 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32">
       <c r="A151" t="s">
         <v>272</v>
       </c>
@@ -8398,7 +8392,7 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32">
       <c r="A152" t="s">
         <v>272</v>
       </c>
@@ -8442,7 +8436,7 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32">
       <c r="A153" t="s">
         <v>272</v>
       </c>
@@ -8486,7 +8480,7 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32">
       <c r="A154" t="s">
         <v>272</v>
       </c>
@@ -8530,7 +8524,7 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -8574,7 +8568,7 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -8618,7 +8612,7 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -8662,7 +8656,7 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -8706,7 +8700,7 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -8750,7 +8744,7 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32">
       <c r="A160" t="s">
         <v>272</v>
       </c>
@@ -8794,7 +8788,7 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -8838,7 +8832,7 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32">
       <c r="A162" t="s">
         <v>272</v>
       </c>
@@ -8882,7 +8876,7 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32">
       <c r="A163" t="s">
         <v>272</v>
       </c>
@@ -8926,7 +8920,7 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32">
       <c r="A164" t="s">
         <v>272</v>
       </c>
@@ -8970,7 +8964,7 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32">
       <c r="A165" t="s">
         <v>272</v>
       </c>
@@ -9014,7 +9008,7 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:32">
       <c r="A166" t="s">
         <v>272</v>
       </c>
@@ -9058,7 +9052,7 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32">
       <c r="A167" t="s">
         <v>272</v>
       </c>
@@ -9102,7 +9096,7 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32">
       <c r="A168" t="s">
         <v>272</v>
       </c>
@@ -9146,7 +9140,7 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32">
       <c r="A169" t="s">
         <v>272</v>
       </c>
@@ -9190,7 +9184,7 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32">
       <c r="A170" t="s">
         <v>272</v>
       </c>
@@ -9234,7 +9228,7 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32">
       <c r="A171" t="s">
         <v>272</v>
       </c>
@@ -9278,7 +9272,7 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:32">
       <c r="A172" t="s">
         <v>272</v>
       </c>
@@ -9322,7 +9316,7 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:32">
       <c r="A173" t="s">
         <v>272</v>
       </c>
@@ -9366,7 +9360,7 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:32">
       <c r="A174" t="s">
         <v>272</v>
       </c>
@@ -9410,7 +9404,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:32">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -9418,7 +9412,7 @@
         <v>319</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>326</v>
@@ -9454,7 +9448,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:32">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -9462,7 +9456,7 @@
         <v>319</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>327</v>
@@ -9498,7 +9492,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:32">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -9506,7 +9500,7 @@
         <v>319</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>328</v>
@@ -9542,7 +9536,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:32">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -9550,7 +9544,7 @@
         <v>319</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>329</v>
@@ -9586,18 +9580,18 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:32">
       <c r="A179" t="s">
         <v>272</v>
       </c>
       <c r="B179" t="s">
+        <v>339</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9630,18 +9624,18 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:32">
       <c r="A180" t="s">
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9674,18 +9668,18 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:32">
       <c r="A181" t="s">
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9718,18 +9712,18 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:32">
       <c r="A182" t="s">
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9762,18 +9756,18 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:32">
       <c r="A183" t="s">
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9806,18 +9800,18 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:32">
       <c r="A184" t="s">
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9850,18 +9844,18 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:32">
       <c r="A185" t="s">
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9894,18 +9888,18 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:32">
       <c r="A186" t="s">
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -9938,7 +9932,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:32">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -9946,10 +9940,10 @@
         <v>216</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -9982,7 +9976,7 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:32">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -9990,10 +9984,10 @@
         <v>216</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10026,7 +10020,7 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:32">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -10034,10 +10028,10 @@
         <v>216</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10070,7 +10064,7 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:32">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -10078,10 +10072,10 @@
         <v>216</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10114,7 +10108,7 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:32">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10148,7 +10142,7 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:32">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10182,7 +10176,7 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10216,7 +10210,7 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10250,7 +10244,7 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10284,7 +10278,7 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10318,7 +10312,7 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10352,7 +10346,7 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10386,7 +10380,7 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10420,7 +10414,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10454,7 +10448,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10488,7 +10482,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10522,7 +10516,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10556,7 +10550,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10590,7 +10584,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10624,7 +10618,7 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:32">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10658,7 +10652,7 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:32">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10692,7 +10686,7 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:32">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10726,7 +10720,7 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10760,7 +10754,7 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10794,7 +10788,7 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10828,7 +10822,7 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10862,7 +10856,7 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10896,7 +10890,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10930,7 +10924,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10964,7 +10958,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10998,7 +10992,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11032,7 +11026,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11066,7 +11060,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:32">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11100,7 +11094,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11134,7 +11128,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:32">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11168,7 +11162,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11202,7 +11196,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11236,7 +11230,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11270,7 +11264,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:32">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11304,7 +11298,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:32">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11338,7 +11332,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:32">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11372,7 +11366,7 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:32">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11406,7 +11400,7 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:32">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11440,7 +11434,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:32">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11474,7 +11468,7 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:32">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11508,7 +11502,7 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:32">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11542,7 +11536,7 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:32">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11576,7 +11570,7 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:32">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11610,7 +11604,7 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:32">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11644,7 +11638,7 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:32">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11678,7 +11672,7 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:32">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11712,7 +11706,7 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:32">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11746,7 +11740,7 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:32">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -11780,7 +11774,7 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:32">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -11814,7 +11808,7 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:32">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -11848,7 +11842,7 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:32">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -11882,7 +11876,7 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:32">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11916,7 +11910,7 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:32">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -11950,7 +11944,7 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:32">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -11984,7 +11978,7 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:32">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12018,7 +12012,7 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:32">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12052,7 +12046,7 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:32">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12086,7 +12080,7 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:32">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12120,7 +12114,7 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:32">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12154,7 +12148,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:32">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12188,7 +12182,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:32">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12222,7 +12216,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:32">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12256,7 +12250,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:32">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12290,7 +12284,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:32">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12324,7 +12318,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:32">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12358,7 +12352,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:32">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12392,7 +12386,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:32">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12426,7 +12420,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:32">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12460,7 +12454,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:32">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -12494,7 +12488,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:32">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -12528,7 +12522,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:32">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -12562,7 +12556,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:32">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -12596,7 +12590,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:32">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -12630,7 +12624,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:32">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -12664,7 +12658,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:32">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -12698,7 +12692,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:32">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -12732,7 +12726,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:32">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -12766,7 +12760,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:32">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -12800,7 +12794,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:32">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -12834,7 +12828,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:32">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -12868,7 +12862,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:32">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12902,7 +12896,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:32">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12936,7 +12930,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:32">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12970,7 +12964,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:32">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13004,7 +12998,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:32">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13038,7 +13032,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13072,7 +13066,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:32">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13106,7 +13100,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:32">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13140,7 +13134,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:32">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13174,7 +13168,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:32">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -13208,7 +13202,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:32">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -13242,7 +13236,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:32">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -13276,7 +13270,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:32">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -13310,7 +13304,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:32">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -13344,7 +13338,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:32">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -13378,7 +13372,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:32">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -13412,7 +13406,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:32">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -13446,7 +13440,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:32">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -13480,7 +13474,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:32">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -13514,7 +13508,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:32">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -13548,7 +13542,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:32">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -13582,7 +13576,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:32">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -13616,7 +13610,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:32">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -13650,7 +13644,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:32">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -13684,7 +13678,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:32">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -13718,7 +13712,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:32">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -13752,7 +13746,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:32">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -13786,7 +13780,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:32">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -13820,7 +13814,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:32">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -13854,7 +13848,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:32">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -13888,7 +13882,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:32">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -13922,7 +13916,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:32">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -13956,7 +13950,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:32">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -13990,7 +13984,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:32">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -14024,7 +14018,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:32">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -14058,7 +14052,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:32">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -14092,7 +14086,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:32">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -14126,7 +14120,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:32">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -14160,7 +14154,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:32">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -14194,7 +14188,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:32">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -14228,7 +14222,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:32">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -14262,7 +14256,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:32">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -14296,7 +14290,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:32">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -14330,7 +14324,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:32">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -14364,7 +14358,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:32">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -14398,7 +14392,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:32">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -14432,7 +14426,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:32">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -14466,7 +14460,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:32">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -14500,7 +14494,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:32">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -14534,7 +14528,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:32">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -14568,7 +14562,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:32">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -14602,7 +14596,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:32">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -14636,7 +14630,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:32">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -14670,7 +14664,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:32">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -14704,7 +14698,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:32">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -14738,7 +14732,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:32">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -14772,7 +14766,7 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
     </row>
-    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:32">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -14806,7 +14800,7 @@
       <c r="AE328" s="2"/>
       <c r="AF328" s="2"/>
     </row>
-    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:32">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -14840,7 +14834,7 @@
       <c r="AE329" s="2"/>
       <c r="AF329" s="2"/>
     </row>
-    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:32">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -14874,7 +14868,7 @@
       <c r="AE330" s="2"/>
       <c r="AF330" s="2"/>
     </row>
-    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:32">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -14908,7 +14902,7 @@
       <c r="AE331" s="2"/>
       <c r="AF331" s="2"/>
     </row>
-    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:32">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -14942,7 +14936,7 @@
       <c r="AE332" s="2"/>
       <c r="AF332" s="2"/>
     </row>
-    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:32">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -14976,7 +14970,7 @@
       <c r="AE333" s="2"/>
       <c r="AF333" s="2"/>
     </row>
-    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:32">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -15010,7 +15004,7 @@
       <c r="AE334" s="2"/>
       <c r="AF334" s="2"/>
     </row>
-    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:32">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -15044,7 +15038,7 @@
       <c r="AE335" s="2"/>
       <c r="AF335" s="2"/>
     </row>
-    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:32">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -15078,7 +15072,7 @@
       <c r="AE336" s="2"/>
       <c r="AF336" s="2"/>
     </row>
-    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:32">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -15112,7 +15106,7 @@
       <c r="AE337" s="2"/>
       <c r="AF337" s="2"/>
     </row>
-    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:32">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -15146,7 +15140,7 @@
       <c r="AE338" s="2"/>
       <c r="AF338" s="2"/>
     </row>
-    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:32">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -15180,7 +15174,7 @@
       <c r="AE339" s="2"/>
       <c r="AF339" s="2"/>
     </row>
-    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:32">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -15214,7 +15208,7 @@
       <c r="AE340" s="2"/>
       <c r="AF340" s="2"/>
     </row>
-    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:32">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -15248,7 +15242,7 @@
       <c r="AE341" s="2"/>
       <c r="AF341" s="2"/>
     </row>
-    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:32">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -15282,7 +15276,7 @@
       <c r="AE342" s="2"/>
       <c r="AF342" s="2"/>
     </row>
-    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:32">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="410">
   <si>
     <t>cartella</t>
   </si>
@@ -920,18 +920,6 @@
     <t>A52</t>
   </si>
   <si>
-    <t>A04.MOV</t>
-  </si>
-  <si>
-    <t>A06.MOV</t>
-  </si>
-  <si>
-    <t>A08.MOV</t>
-  </si>
-  <si>
-    <t>A09.MOV</t>
-  </si>
-  <si>
     <t>A11.MOV</t>
   </si>
   <si>
@@ -1254,6 +1242,27 @@
   </si>
   <si>
     <t>C13.mp4</t>
+  </si>
+  <si>
+    <t>A04.mp4</t>
+  </si>
+  <si>
+    <t>A06.mp4</t>
+  </si>
+  <si>
+    <t>A08.mp4</t>
+  </si>
+  <si>
+    <t>A09.mp4</t>
+  </si>
+  <si>
+    <t>Carico Parziale</t>
+  </si>
+  <si>
+    <t>B01.mp4</t>
+  </si>
+  <si>
+    <t>B01</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1623,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF343"/>
+  <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -1701,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -2768,10 +2777,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2856,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2900,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -2944,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2988,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -3032,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -3120,10 +3129,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -4484,10 +4493,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4616,10 +4625,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4660,10 +4669,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4704,10 +4713,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4748,10 +4757,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4792,10 +4801,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -5323,7 +5332,7 @@
         <v>190</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5364,10 +5373,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5408,10 +5417,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5452,10 +5461,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5499,7 +5508,7 @@
         <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5543,7 +5552,7 @@
         <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5587,7 +5596,7 @@
         <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5631,7 +5640,7 @@
         <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5675,7 +5684,7 @@
         <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5804,10 +5813,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -6417,7 +6426,7 @@
         <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>152</v>
@@ -8180,7 +8189,7 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>295</v>
+        <v>403</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>275</v>
@@ -8224,7 +8233,7 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>296</v>
+        <v>404</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>276</v>
@@ -8268,7 +8277,7 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>277</v>
@@ -8312,7 +8321,7 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>278</v>
@@ -8356,7 +8365,7 @@
         <v>274</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>279</v>
@@ -8400,7 +8409,7 @@
         <v>274</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>280</v>
@@ -8444,7 +8453,7 @@
         <v>274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>281</v>
@@ -8488,7 +8497,7 @@
         <v>274</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>282</v>
@@ -8532,7 +8541,7 @@
         <v>274</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>283</v>
@@ -8576,7 +8585,7 @@
         <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>284</v>
@@ -8620,7 +8629,7 @@
         <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>285</v>
@@ -8664,7 +8673,7 @@
         <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>286</v>
@@ -8708,7 +8717,7 @@
         <v>274</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>287</v>
@@ -8752,7 +8761,7 @@
         <v>274</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>288</v>
@@ -8796,7 +8805,7 @@
         <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>289</v>
@@ -8840,7 +8849,7 @@
         <v>274</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>290</v>
@@ -8884,7 +8893,7 @@
         <v>274</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>291</v>
@@ -8928,7 +8937,7 @@
         <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>292</v>
@@ -8972,7 +8981,7 @@
         <v>274</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>293</v>
@@ -9016,7 +9025,7 @@
         <v>274</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>294</v>
@@ -9057,13 +9066,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>273</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>315</v>
+        <v>407</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>316</v>
+        <v>409</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9104,10 +9113,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9145,13 +9154,13 @@
         <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9189,13 +9198,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9233,13 +9242,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9277,13 +9286,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9321,13 +9330,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
+        <v>315</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9365,13 +9374,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9409,13 +9418,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>406</v>
+        <v>331</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9453,13 +9462,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9497,13 +9506,13 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9541,13 +9550,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9585,13 +9594,13 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9629,13 +9638,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9673,13 +9682,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9717,13 +9726,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9761,13 +9770,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9805,13 +9814,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9849,13 +9858,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9893,13 +9902,13 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -9937,13 +9946,13 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -9984,10 +9993,10 @@
         <v>216</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10028,10 +10037,10 @@
         <v>216</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10072,10 +10081,10 @@
         <v>216</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10109,11 +10118,21 @@
       <c r="AF190" s="2"/>
     </row>
     <row r="191" spans="1:32">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="A191" t="s">
+        <v>272</v>
+      </c>
+      <c r="B191" t="s">
+        <v>216</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
@@ -15310,6 +15329,40 @@
       <c r="AE343" s="2"/>
       <c r="AF343" s="2"/>
     </row>
+    <row r="344" spans="1:32">
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+      <c r="J344" s="2"/>
+      <c r="K344" s="2"/>
+      <c r="L344" s="2"/>
+      <c r="M344" s="2"/>
+      <c r="N344" s="2"/>
+      <c r="O344" s="2"/>
+      <c r="P344" s="2"/>
+      <c r="Q344" s="2"/>
+      <c r="R344" s="2"/>
+      <c r="S344" s="2"/>
+      <c r="T344" s="2"/>
+      <c r="U344" s="2"/>
+      <c r="V344" s="2"/>
+      <c r="W344" s="2"/>
+      <c r="X344" s="2"/>
+      <c r="Y344" s="2"/>
+      <c r="Z344" s="2"/>
+      <c r="AA344" s="2"/>
+      <c r="AB344" s="2"/>
+      <c r="AC344" s="2"/>
+      <c r="AD344" s="2"/>
+      <c r="AE344" s="2"/>
+      <c r="AF344" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -920,30 +920,6 @@
     <t>A52</t>
   </si>
   <si>
-    <t>A11.MOV</t>
-  </si>
-  <si>
-    <t>A14.MOV</t>
-  </si>
-  <si>
-    <t>A18.MOV</t>
-  </si>
-  <si>
-    <t>A22.MOV</t>
-  </si>
-  <si>
-    <t>A24.MOV</t>
-  </si>
-  <si>
-    <t>A25.MOV</t>
-  </si>
-  <si>
-    <t>A28.MOV</t>
-  </si>
-  <si>
-    <t>A30.MOV</t>
-  </si>
-  <si>
     <t>A33.MOV</t>
   </si>
   <si>
@@ -1263,6 +1239,30 @@
   </si>
   <si>
     <t>B01</t>
+  </si>
+  <si>
+    <t>A11.mp4</t>
+  </si>
+  <si>
+    <t>A14.mp4</t>
+  </si>
+  <si>
+    <t>A18.mp4</t>
+  </si>
+  <si>
+    <t>A22.mp4</t>
+  </si>
+  <si>
+    <t>A24.mp4</t>
+  </si>
+  <si>
+    <t>A25.mp4</t>
+  </si>
+  <si>
+    <t>A28.mp4</t>
+  </si>
+  <si>
+    <t>A30.mp4</t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -2777,10 +2777,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2865,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2909,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -2953,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2997,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -3041,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -3129,10 +3129,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -4493,10 +4493,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4625,10 +4625,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4669,10 +4669,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4713,10 +4713,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4757,10 +4757,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4801,10 +4801,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -5332,7 +5332,7 @@
         <v>190</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5373,10 +5373,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5417,10 +5417,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5461,10 +5461,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5508,7 +5508,7 @@
         <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5552,7 +5552,7 @@
         <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5596,7 +5596,7 @@
         <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5684,7 +5684,7 @@
         <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5813,10 +5813,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -6426,7 +6426,7 @@
         <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>152</v>
@@ -8189,7 +8189,7 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>275</v>
@@ -8233,7 +8233,7 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>276</v>
@@ -8277,7 +8277,7 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>277</v>
@@ -8321,7 +8321,7 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>278</v>
@@ -8365,7 +8365,7 @@
         <v>274</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>295</v>
+        <v>402</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>279</v>
@@ -8409,7 +8409,7 @@
         <v>274</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>296</v>
+        <v>403</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>280</v>
@@ -8453,7 +8453,7 @@
         <v>274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>281</v>
@@ -8497,7 +8497,7 @@
         <v>274</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>282</v>
@@ -8541,7 +8541,7 @@
         <v>274</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>283</v>
@@ -8585,7 +8585,7 @@
         <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>300</v>
+        <v>407</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>284</v>
@@ -8629,7 +8629,7 @@
         <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>301</v>
+        <v>408</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>285</v>
@@ -8673,7 +8673,7 @@
         <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>302</v>
+        <v>409</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>286</v>
@@ -8717,7 +8717,7 @@
         <v>274</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>287</v>
@@ -8761,7 +8761,7 @@
         <v>274</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>288</v>
@@ -8805,7 +8805,7 @@
         <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>289</v>
@@ -8849,7 +8849,7 @@
         <v>274</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>290</v>
@@ -8893,7 +8893,7 @@
         <v>274</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>291</v>
@@ -8937,7 +8937,7 @@
         <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>292</v>
@@ -8981,7 +8981,7 @@
         <v>274</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>293</v>
@@ -9025,7 +9025,7 @@
         <v>274</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>294</v>
@@ -9066,13 +9066,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9113,10 +9113,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9157,10 +9157,10 @@
         <v>273</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9198,13 +9198,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9242,13 +9242,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9286,13 +9286,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9330,13 +9330,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9374,13 +9374,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9418,13 +9418,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9462,13 +9462,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9506,13 +9506,13 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
+        <v>307</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9550,13 +9550,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9594,13 +9594,13 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9638,13 +9638,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9682,13 +9682,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9726,13 +9726,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9770,13 +9770,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9814,13 +9814,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9858,13 +9858,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9902,13 +9902,13 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -9946,13 +9946,13 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
+        <v>327</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -9993,10 +9993,10 @@
         <v>216</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10037,10 +10037,10 @@
         <v>216</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10081,10 +10081,10 @@
         <v>216</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10125,10 +10125,10 @@
         <v>216</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
@@ -920,39 +920,9 @@
     <t>A52</t>
   </si>
   <si>
-    <t>A33.MOV</t>
-  </si>
-  <si>
-    <t>A35.MOV</t>
-  </si>
-  <si>
-    <t>A41.MOV</t>
-  </si>
-  <si>
-    <t>A44.MOV</t>
-  </si>
-  <si>
-    <t>A46.MOV</t>
-  </si>
-  <si>
-    <t>A47.MOV</t>
-  </si>
-  <si>
-    <t>A49.MOV</t>
-  </si>
-  <si>
-    <t>A52.MOV</t>
-  </si>
-  <si>
-    <t>B07.MOV</t>
-  </si>
-  <si>
     <t>B07</t>
   </si>
   <si>
-    <t>B15.MOV</t>
-  </si>
-  <si>
     <t>B15</t>
   </si>
   <si>
@@ -989,33 +959,6 @@
     <t>C22</t>
   </si>
   <si>
-    <t>C02.MOV</t>
-  </si>
-  <si>
-    <t>C03.MOV</t>
-  </si>
-  <si>
-    <t>C05.MOV</t>
-  </si>
-  <si>
-    <t>C08.MOV</t>
-  </si>
-  <si>
-    <t>C10.MOV</t>
-  </si>
-  <si>
-    <t>C12.MOV</t>
-  </si>
-  <si>
-    <t>C14.MOV</t>
-  </si>
-  <si>
-    <t>C17.MOV</t>
-  </si>
-  <si>
-    <t>C22.MOV</t>
-  </si>
-  <si>
     <t>Core Stability</t>
   </si>
   <si>
@@ -1055,42 +998,6 @@
     <t>E05</t>
   </si>
   <si>
-    <t>D01.MOV</t>
-  </si>
-  <si>
-    <t>D02.MOV</t>
-  </si>
-  <si>
-    <t>D03.MOV</t>
-  </si>
-  <si>
-    <t>D04.MOV</t>
-  </si>
-  <si>
-    <t>D05.MOV</t>
-  </si>
-  <si>
-    <t>D06.MOV</t>
-  </si>
-  <si>
-    <t>D07.MOV</t>
-  </si>
-  <si>
-    <t>D08.MOV</t>
-  </si>
-  <si>
-    <t>E02.MOV</t>
-  </si>
-  <si>
-    <t>E03.MOV</t>
-  </si>
-  <si>
-    <t>E04.MOV</t>
-  </si>
-  <si>
-    <t>E05.MOV</t>
-  </si>
-  <si>
     <t>Neuro e psicomotorio</t>
   </si>
   <si>
@@ -1263,6 +1170,99 @@
   </si>
   <si>
     <t>A30.mp4</t>
+  </si>
+  <si>
+    <t>A33.mp4</t>
+  </si>
+  <si>
+    <t>A35.mp4</t>
+  </si>
+  <si>
+    <t>A41.mp4</t>
+  </si>
+  <si>
+    <t>A44.mp4</t>
+  </si>
+  <si>
+    <t>A46.mp4</t>
+  </si>
+  <si>
+    <t>A47.mp4</t>
+  </si>
+  <si>
+    <t>A49.mp4</t>
+  </si>
+  <si>
+    <t>A52.mp4</t>
+  </si>
+  <si>
+    <t>B07.mp4</t>
+  </si>
+  <si>
+    <t>B15.mp4</t>
+  </si>
+  <si>
+    <t>C02.mp4</t>
+  </si>
+  <si>
+    <t>C03.mp4</t>
+  </si>
+  <si>
+    <t>C05.mp4</t>
+  </si>
+  <si>
+    <t>C08.mp4</t>
+  </si>
+  <si>
+    <t>C10.mp4</t>
+  </si>
+  <si>
+    <t>C12.mp4</t>
+  </si>
+  <si>
+    <t>C14.mp4</t>
+  </si>
+  <si>
+    <t>C17.mp4</t>
+  </si>
+  <si>
+    <t>C22.mp4</t>
+  </si>
+  <si>
+    <t>D01.mp4</t>
+  </si>
+  <si>
+    <t>D02.mp4</t>
+  </si>
+  <si>
+    <t>D03.mp4</t>
+  </si>
+  <si>
+    <t>D04.mp4</t>
+  </si>
+  <si>
+    <t>D05.mp4</t>
+  </si>
+  <si>
+    <t>D06.mp4</t>
+  </si>
+  <si>
+    <t>D07.mp4</t>
+  </si>
+  <si>
+    <t>D08.mp4</t>
+  </si>
+  <si>
+    <t>E02.mp4</t>
+  </si>
+  <si>
+    <t>E03.mp4</t>
+  </si>
+  <si>
+    <t>E04.mp4</t>
+  </si>
+  <si>
+    <t>E05.mp4</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -2777,10 +2777,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -2865,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -2909,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -2953,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -2997,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -3041,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -3129,10 +3129,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -4493,10 +4493,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4625,10 +4625,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4669,10 +4669,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4713,10 +4713,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4757,10 +4757,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -4801,10 +4801,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -5332,7 +5332,7 @@
         <v>190</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5373,10 +5373,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5417,10 +5417,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5461,10 +5461,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5508,7 +5508,7 @@
         <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5552,7 +5552,7 @@
         <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5596,7 +5596,7 @@
         <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5684,7 +5684,7 @@
         <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -5813,10 +5813,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -6426,7 +6426,7 @@
         <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>152</v>
@@ -8189,7 +8189,7 @@
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>275</v>
@@ -8233,7 +8233,7 @@
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>276</v>
@@ -8277,7 +8277,7 @@
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>277</v>
@@ -8321,7 +8321,7 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>278</v>
@@ -8365,7 +8365,7 @@
         <v>274</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>279</v>
@@ -8409,7 +8409,7 @@
         <v>274</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>280</v>
@@ -8453,7 +8453,7 @@
         <v>274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>281</v>
@@ -8497,7 +8497,7 @@
         <v>274</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>282</v>
@@ -8541,7 +8541,7 @@
         <v>274</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>283</v>
@@ -8585,7 +8585,7 @@
         <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>284</v>
@@ -8629,7 +8629,7 @@
         <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>285</v>
@@ -8673,7 +8673,7 @@
         <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>286</v>
@@ -8717,7 +8717,7 @@
         <v>274</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>287</v>
@@ -8761,7 +8761,7 @@
         <v>274</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>288</v>
@@ -8805,7 +8805,7 @@
         <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>289</v>
@@ -8849,7 +8849,7 @@
         <v>274</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>290</v>
@@ -8893,7 +8893,7 @@
         <v>274</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>291</v>
@@ -8937,7 +8937,7 @@
         <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>292</v>
@@ -8981,7 +8981,7 @@
         <v>274</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>293</v>
@@ -9025,7 +9025,7 @@
         <v>274</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>294</v>
@@ -9066,13 +9066,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9113,10 +9113,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9157,10 +9157,10 @@
         <v>273</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9198,13 +9198,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9242,13 +9242,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9286,13 +9286,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9330,13 +9330,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9374,13 +9374,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9418,13 +9418,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9462,13 +9462,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9506,13 +9506,13 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9550,13 +9550,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9594,13 +9594,13 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
+        <v>297</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9638,13 +9638,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>340</v>
+        <v>398</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9682,13 +9682,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9726,13 +9726,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9770,13 +9770,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9814,13 +9814,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9858,13 +9858,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9902,13 +9902,13 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -9946,13 +9946,13 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -9993,10 +9993,10 @@
         <v>216</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10037,10 +10037,10 @@
         <v>216</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10081,10 +10081,10 @@
         <v>216</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10125,10 +10125,10 @@
         <v>216</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="424">
   <si>
     <t>cartella</t>
   </si>
@@ -1263,6 +1263,48 @@
   </si>
   <si>
     <t>E05.mp4</t>
+  </si>
+  <si>
+    <t>A01.mp4</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02.mp4</t>
+  </si>
+  <si>
+    <t>A03.mp4</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A05.mp4</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A07.mp4</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A10.mp4</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A13.mp4</t>
+  </si>
+  <si>
+    <t>A13</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1632,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF344"/>
+  <dimension ref="A1:AF351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -8182,17 +8224,17 @@
       <c r="AF146" s="2"/>
     </row>
     <row r="147" spans="1:32">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8226,17 +8268,17 @@
       <c r="AF147" s="2"/>
     </row>
     <row r="148" spans="1:32">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8270,17 +8312,17 @@
       <c r="AF148" s="2"/>
     </row>
     <row r="149" spans="1:32">
-      <c r="A149" t="s">
+      <c r="A149" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8321,10 +8363,10 @@
         <v>274</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8358,17 +8400,17 @@
       <c r="AF150" s="2"/>
     </row>
     <row r="151" spans="1:32">
-      <c r="A151" t="s">
+      <c r="A151" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8409,10 +8451,10 @@
         <v>274</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8446,17 +8488,17 @@
       <c r="AF152" s="2"/>
     </row>
     <row r="153" spans="1:32">
-      <c r="A153" t="s">
+      <c r="A153" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>281</v>
+        <v>419</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8497,10 +8539,10 @@
         <v>274</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8541,10 +8583,10 @@
         <v>274</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8585,10 +8627,10 @@
         <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8629,10 +8671,10 @@
         <v>274</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8673,10 +8715,10 @@
         <v>274</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8717,10 +8759,10 @@
         <v>274</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8761,10 +8803,10 @@
         <v>274</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8805,10 +8847,10 @@
         <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8849,10 +8891,10 @@
         <v>274</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8893,10 +8935,10 @@
         <v>274</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8937,10 +8979,10 @@
         <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -8981,10 +9023,10 @@
         <v>274</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9025,10 +9067,10 @@
         <v>274</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9066,13 +9108,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>370</v>
+        <v>288</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9110,13 +9152,13 @@
         <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>387</v>
+        <v>274</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9154,13 +9196,13 @@
         <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>388</v>
+        <v>274</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9198,13 +9240,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>389</v>
+        <v>274</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9242,13 +9284,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>390</v>
+        <v>274</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9286,13 +9328,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>391</v>
+        <v>274</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9330,13 +9372,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>297</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>392</v>
+        <v>274</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9374,13 +9416,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>297</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>393</v>
+        <v>368</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9418,13 +9460,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9462,13 +9504,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9509,10 +9551,10 @@
         <v>297</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9553,10 +9595,10 @@
         <v>297</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9597,10 +9639,10 @@
         <v>297</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9638,13 +9680,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9682,13 +9724,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9726,13 +9768,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9770,13 +9812,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9814,13 +9856,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9858,13 +9900,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9902,13 +9944,13 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -9949,10 +9991,10 @@
         <v>308</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -9990,13 +10032,13 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10034,13 +10076,13 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10078,13 +10120,13 @@
         <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10122,13 +10164,13 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10162,11 +10204,21 @@
       <c r="AF191" s="2"/>
     </row>
     <row r="192" spans="1:32">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
+      <c r="A192" t="s">
+        <v>272</v>
+      </c>
+      <c r="B192" t="s">
+        <v>308</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
@@ -10196,11 +10248,21 @@
       <c r="AF192" s="2"/>
     </row>
     <row r="193" spans="1:32">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="A193" t="s">
+        <v>272</v>
+      </c>
+      <c r="B193" t="s">
+        <v>308</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
@@ -10230,11 +10292,21 @@
       <c r="AF193" s="2"/>
     </row>
     <row r="194" spans="1:32">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
+      <c r="A194" t="s">
+        <v>272</v>
+      </c>
+      <c r="B194" t="s">
+        <v>308</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
@@ -10264,11 +10336,21 @@
       <c r="AF194" s="2"/>
     </row>
     <row r="195" spans="1:32">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
+      <c r="A195" t="s">
+        <v>272</v>
+      </c>
+      <c r="B195" t="s">
+        <v>216</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
@@ -10298,11 +10380,21 @@
       <c r="AF195" s="2"/>
     </row>
     <row r="196" spans="1:32">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
+      <c r="A196" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
@@ -10332,11 +10424,21 @@
       <c r="AF196" s="2"/>
     </row>
     <row r="197" spans="1:32">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
+      <c r="A197" t="s">
+        <v>272</v>
+      </c>
+      <c r="B197" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
@@ -10366,11 +10468,21 @@
       <c r="AF197" s="2"/>
     </row>
     <row r="198" spans="1:32">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="A198" t="s">
+        <v>272</v>
+      </c>
+      <c r="B198" t="s">
+        <v>216</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
@@ -15363,6 +15475,244 @@
       <c r="AE344" s="2"/>
       <c r="AF344" s="2"/>
     </row>
+    <row r="345" spans="1:32">
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+      <c r="L345" s="2"/>
+      <c r="M345" s="2"/>
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
+      <c r="P345" s="2"/>
+      <c r="Q345" s="2"/>
+      <c r="R345" s="2"/>
+      <c r="S345" s="2"/>
+      <c r="T345" s="2"/>
+      <c r="U345" s="2"/>
+      <c r="V345" s="2"/>
+      <c r="W345" s="2"/>
+      <c r="X345" s="2"/>
+      <c r="Y345" s="2"/>
+      <c r="Z345" s="2"/>
+      <c r="AA345" s="2"/>
+      <c r="AB345" s="2"/>
+      <c r="AC345" s="2"/>
+      <c r="AD345" s="2"/>
+      <c r="AE345" s="2"/>
+      <c r="AF345" s="2"/>
+    </row>
+    <row r="346" spans="1:32">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+      <c r="I346" s="2"/>
+      <c r="J346" s="2"/>
+      <c r="K346" s="2"/>
+      <c r="L346" s="2"/>
+      <c r="M346" s="2"/>
+      <c r="N346" s="2"/>
+      <c r="O346" s="2"/>
+      <c r="P346" s="2"/>
+      <c r="Q346" s="2"/>
+      <c r="R346" s="2"/>
+      <c r="S346" s="2"/>
+      <c r="T346" s="2"/>
+      <c r="U346" s="2"/>
+      <c r="V346" s="2"/>
+      <c r="W346" s="2"/>
+      <c r="X346" s="2"/>
+      <c r="Y346" s="2"/>
+      <c r="Z346" s="2"/>
+      <c r="AA346" s="2"/>
+      <c r="AB346" s="2"/>
+      <c r="AC346" s="2"/>
+      <c r="AD346" s="2"/>
+      <c r="AE346" s="2"/>
+      <c r="AF346" s="2"/>
+    </row>
+    <row r="347" spans="1:32">
+      <c r="A347" s="2"/>
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
+      <c r="J347" s="2"/>
+      <c r="K347" s="2"/>
+      <c r="L347" s="2"/>
+      <c r="M347" s="2"/>
+      <c r="N347" s="2"/>
+      <c r="O347" s="2"/>
+      <c r="P347" s="2"/>
+      <c r="Q347" s="2"/>
+      <c r="R347" s="2"/>
+      <c r="S347" s="2"/>
+      <c r="T347" s="2"/>
+      <c r="U347" s="2"/>
+      <c r="V347" s="2"/>
+      <c r="W347" s="2"/>
+      <c r="X347" s="2"/>
+      <c r="Y347" s="2"/>
+      <c r="Z347" s="2"/>
+      <c r="AA347" s="2"/>
+      <c r="AB347" s="2"/>
+      <c r="AC347" s="2"/>
+      <c r="AD347" s="2"/>
+      <c r="AE347" s="2"/>
+      <c r="AF347" s="2"/>
+    </row>
+    <row r="348" spans="1:32">
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="2"/>
+      <c r="L348" s="2"/>
+      <c r="M348" s="2"/>
+      <c r="N348" s="2"/>
+      <c r="O348" s="2"/>
+      <c r="P348" s="2"/>
+      <c r="Q348" s="2"/>
+      <c r="R348" s="2"/>
+      <c r="S348" s="2"/>
+      <c r="T348" s="2"/>
+      <c r="U348" s="2"/>
+      <c r="V348" s="2"/>
+      <c r="W348" s="2"/>
+      <c r="X348" s="2"/>
+      <c r="Y348" s="2"/>
+      <c r="Z348" s="2"/>
+      <c r="AA348" s="2"/>
+      <c r="AB348" s="2"/>
+      <c r="AC348" s="2"/>
+      <c r="AD348" s="2"/>
+      <c r="AE348" s="2"/>
+      <c r="AF348" s="2"/>
+    </row>
+    <row r="349" spans="1:32">
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
+      <c r="H349" s="2"/>
+      <c r="I349" s="2"/>
+      <c r="J349" s="2"/>
+      <c r="K349" s="2"/>
+      <c r="L349" s="2"/>
+      <c r="M349" s="2"/>
+      <c r="N349" s="2"/>
+      <c r="O349" s="2"/>
+      <c r="P349" s="2"/>
+      <c r="Q349" s="2"/>
+      <c r="R349" s="2"/>
+      <c r="S349" s="2"/>
+      <c r="T349" s="2"/>
+      <c r="U349" s="2"/>
+      <c r="V349" s="2"/>
+      <c r="W349" s="2"/>
+      <c r="X349" s="2"/>
+      <c r="Y349" s="2"/>
+      <c r="Z349" s="2"/>
+      <c r="AA349" s="2"/>
+      <c r="AB349" s="2"/>
+      <c r="AC349" s="2"/>
+      <c r="AD349" s="2"/>
+      <c r="AE349" s="2"/>
+      <c r="AF349" s="2"/>
+    </row>
+    <row r="350" spans="1:32">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="2"/>
+      <c r="J350" s="2"/>
+      <c r="K350" s="2"/>
+      <c r="L350" s="2"/>
+      <c r="M350" s="2"/>
+      <c r="N350" s="2"/>
+      <c r="O350" s="2"/>
+      <c r="P350" s="2"/>
+      <c r="Q350" s="2"/>
+      <c r="R350" s="2"/>
+      <c r="S350" s="2"/>
+      <c r="T350" s="2"/>
+      <c r="U350" s="2"/>
+      <c r="V350" s="2"/>
+      <c r="W350" s="2"/>
+      <c r="X350" s="2"/>
+      <c r="Y350" s="2"/>
+      <c r="Z350" s="2"/>
+      <c r="AA350" s="2"/>
+      <c r="AB350" s="2"/>
+      <c r="AC350" s="2"/>
+      <c r="AD350" s="2"/>
+      <c r="AE350" s="2"/>
+      <c r="AF350" s="2"/>
+    </row>
+    <row r="351" spans="1:32">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+      <c r="H351" s="2"/>
+      <c r="I351" s="2"/>
+      <c r="J351" s="2"/>
+      <c r="K351" s="2"/>
+      <c r="L351" s="2"/>
+      <c r="M351" s="2"/>
+      <c r="N351" s="2"/>
+      <c r="O351" s="2"/>
+      <c r="P351" s="2"/>
+      <c r="Q351" s="2"/>
+      <c r="R351" s="2"/>
+      <c r="S351" s="2"/>
+      <c r="T351" s="2"/>
+      <c r="U351" s="2"/>
+      <c r="V351" s="2"/>
+      <c r="W351" s="2"/>
+      <c r="X351" s="2"/>
+      <c r="Y351" s="2"/>
+      <c r="Z351" s="2"/>
+      <c r="AA351" s="2"/>
+      <c r="AB351" s="2"/>
+      <c r="AC351" s="2"/>
+      <c r="AD351" s="2"/>
+      <c r="AE351" s="2"/>
+      <c r="AF351" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="452">
   <si>
     <t>cartella</t>
   </si>
@@ -1305,6 +1305,90 @@
   </si>
   <si>
     <t>A13</t>
+  </si>
+  <si>
+    <t>A15.mp4</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A19.mp4</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20.mp4</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A23.mp4</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A26.mp4</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27.mp4</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A31.mp4</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A32.mp4</t>
+  </si>
+  <si>
+    <t>A34.mp4</t>
+  </si>
+  <si>
+    <t>A36.mp4</t>
+  </si>
+  <si>
+    <t>A37.mp4</t>
+  </si>
+  <si>
+    <t>A38.mp4</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39.mp4</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A50.mp4</t>
+  </si>
+  <si>
+    <t>A50</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1674,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF351"/>
+  <dimension ref="A1:AF365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="B180" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -8803,10 +8887,10 @@
         <v>274</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>281</v>
+        <v>425</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -8847,10 +8931,10 @@
         <v>274</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -8891,10 +8975,10 @@
         <v>274</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>283</v>
+        <v>427</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -8935,10 +9019,10 @@
         <v>274</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -8979,10 +9063,10 @@
         <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -9023,10 +9107,10 @@
         <v>274</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>286</v>
+        <v>431</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9067,10 +9151,10 @@
         <v>274</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9111,10 +9195,10 @@
         <v>274</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9155,10 +9239,10 @@
         <v>274</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9199,10 +9283,10 @@
         <v>274</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9243,10 +9327,10 @@
         <v>274</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9287,10 +9371,10 @@
         <v>274</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9331,10 +9415,10 @@
         <v>274</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>293</v>
+        <v>437</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9375,10 +9459,10 @@
         <v>274</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9416,13 +9500,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9460,13 +9544,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>387</v>
+        <v>274</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>295</v>
+        <v>439</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9504,13 +9588,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>388</v>
+        <v>274</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9548,13 +9632,13 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>297</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>389</v>
+        <v>274</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9592,13 +9676,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>297</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>390</v>
+        <v>274</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>299</v>
+        <v>446</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9636,13 +9720,13 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>297</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>391</v>
+        <v>274</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9680,13 +9764,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>297</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>392</v>
+        <v>274</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>301</v>
+        <v>449</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9724,13 +9808,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>297</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>393</v>
+        <v>274</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9768,13 +9852,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>394</v>
+        <v>274</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9812,13 +9896,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>363</v>
+        <v>274</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -9856,13 +9940,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>297</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>395</v>
+        <v>274</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -9900,13 +9984,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>297</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>396</v>
+        <v>274</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -9944,13 +10028,13 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>297</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>397</v>
+        <v>274</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>307</v>
+        <v>451</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -9988,13 +10072,13 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>308</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>398</v>
+        <v>274</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10032,13 +10116,13 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>308</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>399</v>
+        <v>368</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10076,13 +10160,13 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10120,13 +10204,13 @@
         <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10164,13 +10248,13 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10208,13 +10292,13 @@
         <v>272</v>
       </c>
       <c r="B192" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10252,13 +10336,13 @@
         <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10296,13 +10380,13 @@
         <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10340,13 +10424,13 @@
         <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10384,13 +10468,13 @@
         <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10428,13 +10512,13 @@
         <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10472,13 +10556,13 @@
         <v>272</v>
       </c>
       <c r="B198" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10512,11 +10596,21 @@
       <c r="AF198" s="2"/>
     </row>
     <row r="199" spans="1:32">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
+      <c r="A199" t="s">
+        <v>272</v>
+      </c>
+      <c r="B199" t="s">
+        <v>297</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
@@ -10546,11 +10640,21 @@
       <c r="AF199" s="2"/>
     </row>
     <row r="200" spans="1:32">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
+      <c r="A200" t="s">
+        <v>272</v>
+      </c>
+      <c r="B200" t="s">
+        <v>297</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
@@ -10580,11 +10684,21 @@
       <c r="AF200" s="2"/>
     </row>
     <row r="201" spans="1:32">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
+      <c r="A201" t="s">
+        <v>272</v>
+      </c>
+      <c r="B201" t="s">
+        <v>308</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
@@ -10614,11 +10728,21 @@
       <c r="AF201" s="2"/>
     </row>
     <row r="202" spans="1:32">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
+      <c r="A202" t="s">
+        <v>272</v>
+      </c>
+      <c r="B202" t="s">
+        <v>308</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
@@ -10648,11 +10772,21 @@
       <c r="AF202" s="2"/>
     </row>
     <row r="203" spans="1:32">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
+      <c r="A203" t="s">
+        <v>272</v>
+      </c>
+      <c r="B203" t="s">
+        <v>308</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
@@ -10682,11 +10816,21 @@
       <c r="AF203" s="2"/>
     </row>
     <row r="204" spans="1:32">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
+      <c r="A204" t="s">
+        <v>272</v>
+      </c>
+      <c r="B204" t="s">
+        <v>308</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
@@ -10716,11 +10860,21 @@
       <c r="AF204" s="2"/>
     </row>
     <row r="205" spans="1:32">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
+      <c r="A205" t="s">
+        <v>272</v>
+      </c>
+      <c r="B205" t="s">
+        <v>308</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
@@ -10750,11 +10904,21 @@
       <c r="AF205" s="2"/>
     </row>
     <row r="206" spans="1:32">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
+      <c r="A206" t="s">
+        <v>272</v>
+      </c>
+      <c r="B206" t="s">
+        <v>308</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
@@ -10784,11 +10948,21 @@
       <c r="AF206" s="2"/>
     </row>
     <row r="207" spans="1:32">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
+      <c r="A207" t="s">
+        <v>272</v>
+      </c>
+      <c r="B207" t="s">
+        <v>308</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
@@ -10818,11 +10992,21 @@
       <c r="AF207" s="2"/>
     </row>
     <row r="208" spans="1:32">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
+      <c r="A208" t="s">
+        <v>272</v>
+      </c>
+      <c r="B208" t="s">
+        <v>308</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
@@ -10852,11 +11036,21 @@
       <c r="AF208" s="2"/>
     </row>
     <row r="209" spans="1:32">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
+      <c r="A209" t="s">
+        <v>272</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
@@ -10886,11 +11080,21 @@
       <c r="AF209" s="2"/>
     </row>
     <row r="210" spans="1:32">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
+      <c r="A210" t="s">
+        <v>272</v>
+      </c>
+      <c r="B210" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
@@ -10920,11 +11124,21 @@
       <c r="AF210" s="2"/>
     </row>
     <row r="211" spans="1:32">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
+      <c r="A211" t="s">
+        <v>272</v>
+      </c>
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
@@ -10954,11 +11168,21 @@
       <c r="AF211" s="2"/>
     </row>
     <row r="212" spans="1:32">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
+      <c r="A212" t="s">
+        <v>272</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -15713,6 +15937,482 @@
       <c r="AE351" s="2"/>
       <c r="AF351" s="2"/>
     </row>
+    <row r="352" spans="1:32">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2"/>
+      <c r="K352" s="2"/>
+      <c r="L352" s="2"/>
+      <c r="M352" s="2"/>
+      <c r="N352" s="2"/>
+      <c r="O352" s="2"/>
+      <c r="P352" s="2"/>
+      <c r="Q352" s="2"/>
+      <c r="R352" s="2"/>
+      <c r="S352" s="2"/>
+      <c r="T352" s="2"/>
+      <c r="U352" s="2"/>
+      <c r="V352" s="2"/>
+      <c r="W352" s="2"/>
+      <c r="X352" s="2"/>
+      <c r="Y352" s="2"/>
+      <c r="Z352" s="2"/>
+      <c r="AA352" s="2"/>
+      <c r="AB352" s="2"/>
+      <c r="AC352" s="2"/>
+      <c r="AD352" s="2"/>
+      <c r="AE352" s="2"/>
+      <c r="AF352" s="2"/>
+    </row>
+    <row r="353" spans="1:32">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+      <c r="H353" s="2"/>
+      <c r="I353" s="2"/>
+      <c r="J353" s="2"/>
+      <c r="K353" s="2"/>
+      <c r="L353" s="2"/>
+      <c r="M353" s="2"/>
+      <c r="N353" s="2"/>
+      <c r="O353" s="2"/>
+      <c r="P353" s="2"/>
+      <c r="Q353" s="2"/>
+      <c r="R353" s="2"/>
+      <c r="S353" s="2"/>
+      <c r="T353" s="2"/>
+      <c r="U353" s="2"/>
+      <c r="V353" s="2"/>
+      <c r="W353" s="2"/>
+      <c r="X353" s="2"/>
+      <c r="Y353" s="2"/>
+      <c r="Z353" s="2"/>
+      <c r="AA353" s="2"/>
+      <c r="AB353" s="2"/>
+      <c r="AC353" s="2"/>
+      <c r="AD353" s="2"/>
+      <c r="AE353" s="2"/>
+      <c r="AF353" s="2"/>
+    </row>
+    <row r="354" spans="1:32">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="2"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="2"/>
+      <c r="L354" s="2"/>
+      <c r="M354" s="2"/>
+      <c r="N354" s="2"/>
+      <c r="O354" s="2"/>
+      <c r="P354" s="2"/>
+      <c r="Q354" s="2"/>
+      <c r="R354" s="2"/>
+      <c r="S354" s="2"/>
+      <c r="T354" s="2"/>
+      <c r="U354" s="2"/>
+      <c r="V354" s="2"/>
+      <c r="W354" s="2"/>
+      <c r="X354" s="2"/>
+      <c r="Y354" s="2"/>
+      <c r="Z354" s="2"/>
+      <c r="AA354" s="2"/>
+      <c r="AB354" s="2"/>
+      <c r="AC354" s="2"/>
+      <c r="AD354" s="2"/>
+      <c r="AE354" s="2"/>
+      <c r="AF354" s="2"/>
+    </row>
+    <row r="355" spans="1:32">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
+      <c r="J355" s="2"/>
+      <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2"/>
+      <c r="N355" s="2"/>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
+      <c r="Q355" s="2"/>
+      <c r="R355" s="2"/>
+      <c r="S355" s="2"/>
+      <c r="T355" s="2"/>
+      <c r="U355" s="2"/>
+      <c r="V355" s="2"/>
+      <c r="W355" s="2"/>
+      <c r="X355" s="2"/>
+      <c r="Y355" s="2"/>
+      <c r="Z355" s="2"/>
+      <c r="AA355" s="2"/>
+      <c r="AB355" s="2"/>
+      <c r="AC355" s="2"/>
+      <c r="AD355" s="2"/>
+      <c r="AE355" s="2"/>
+      <c r="AF355" s="2"/>
+    </row>
+    <row r="356" spans="1:32">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
+      <c r="H356" s="2"/>
+      <c r="I356" s="2"/>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2"/>
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+      <c r="P356" s="2"/>
+      <c r="Q356" s="2"/>
+      <c r="R356" s="2"/>
+      <c r="S356" s="2"/>
+      <c r="T356" s="2"/>
+      <c r="U356" s="2"/>
+      <c r="V356" s="2"/>
+      <c r="W356" s="2"/>
+      <c r="X356" s="2"/>
+      <c r="Y356" s="2"/>
+      <c r="Z356" s="2"/>
+      <c r="AA356" s="2"/>
+      <c r="AB356" s="2"/>
+      <c r="AC356" s="2"/>
+      <c r="AD356" s="2"/>
+      <c r="AE356" s="2"/>
+      <c r="AF356" s="2"/>
+    </row>
+    <row r="357" spans="1:32">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
+      <c r="H357" s="2"/>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+      <c r="K357" s="2"/>
+      <c r="L357" s="2"/>
+      <c r="M357" s="2"/>
+      <c r="N357" s="2"/>
+      <c r="O357" s="2"/>
+      <c r="P357" s="2"/>
+      <c r="Q357" s="2"/>
+      <c r="R357" s="2"/>
+      <c r="S357" s="2"/>
+      <c r="T357" s="2"/>
+      <c r="U357" s="2"/>
+      <c r="V357" s="2"/>
+      <c r="W357" s="2"/>
+      <c r="X357" s="2"/>
+      <c r="Y357" s="2"/>
+      <c r="Z357" s="2"/>
+      <c r="AA357" s="2"/>
+      <c r="AB357" s="2"/>
+      <c r="AC357" s="2"/>
+      <c r="AD357" s="2"/>
+      <c r="AE357" s="2"/>
+      <c r="AF357" s="2"/>
+    </row>
+    <row r="358" spans="1:32">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="2"/>
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+      <c r="K358" s="2"/>
+      <c r="L358" s="2"/>
+      <c r="M358" s="2"/>
+      <c r="N358" s="2"/>
+      <c r="O358" s="2"/>
+      <c r="P358" s="2"/>
+      <c r="Q358" s="2"/>
+      <c r="R358" s="2"/>
+      <c r="S358" s="2"/>
+      <c r="T358" s="2"/>
+      <c r="U358" s="2"/>
+      <c r="V358" s="2"/>
+      <c r="W358" s="2"/>
+      <c r="X358" s="2"/>
+      <c r="Y358" s="2"/>
+      <c r="Z358" s="2"/>
+      <c r="AA358" s="2"/>
+      <c r="AB358" s="2"/>
+      <c r="AC358" s="2"/>
+      <c r="AD358" s="2"/>
+      <c r="AE358" s="2"/>
+      <c r="AF358" s="2"/>
+    </row>
+    <row r="359" spans="1:32">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
+      <c r="H359" s="2"/>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+      <c r="K359" s="2"/>
+      <c r="L359" s="2"/>
+      <c r="M359" s="2"/>
+      <c r="N359" s="2"/>
+      <c r="O359" s="2"/>
+      <c r="P359" s="2"/>
+      <c r="Q359" s="2"/>
+      <c r="R359" s="2"/>
+      <c r="S359" s="2"/>
+      <c r="T359" s="2"/>
+      <c r="U359" s="2"/>
+      <c r="V359" s="2"/>
+      <c r="W359" s="2"/>
+      <c r="X359" s="2"/>
+      <c r="Y359" s="2"/>
+      <c r="Z359" s="2"/>
+      <c r="AA359" s="2"/>
+      <c r="AB359" s="2"/>
+      <c r="AC359" s="2"/>
+      <c r="AD359" s="2"/>
+      <c r="AE359" s="2"/>
+      <c r="AF359" s="2"/>
+    </row>
+    <row r="360" spans="1:32">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
+      <c r="H360" s="2"/>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+      <c r="K360" s="2"/>
+      <c r="L360" s="2"/>
+      <c r="M360" s="2"/>
+      <c r="N360" s="2"/>
+      <c r="O360" s="2"/>
+      <c r="P360" s="2"/>
+      <c r="Q360" s="2"/>
+      <c r="R360" s="2"/>
+      <c r="S360" s="2"/>
+      <c r="T360" s="2"/>
+      <c r="U360" s="2"/>
+      <c r="V360" s="2"/>
+      <c r="W360" s="2"/>
+      <c r="X360" s="2"/>
+      <c r="Y360" s="2"/>
+      <c r="Z360" s="2"/>
+      <c r="AA360" s="2"/>
+      <c r="AB360" s="2"/>
+      <c r="AC360" s="2"/>
+      <c r="AD360" s="2"/>
+      <c r="AE360" s="2"/>
+      <c r="AF360" s="2"/>
+    </row>
+    <row r="361" spans="1:32">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+      <c r="H361" s="2"/>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+      <c r="K361" s="2"/>
+      <c r="L361" s="2"/>
+      <c r="M361" s="2"/>
+      <c r="N361" s="2"/>
+      <c r="O361" s="2"/>
+      <c r="P361" s="2"/>
+      <c r="Q361" s="2"/>
+      <c r="R361" s="2"/>
+      <c r="S361" s="2"/>
+      <c r="T361" s="2"/>
+      <c r="U361" s="2"/>
+      <c r="V361" s="2"/>
+      <c r="W361" s="2"/>
+      <c r="X361" s="2"/>
+      <c r="Y361" s="2"/>
+      <c r="Z361" s="2"/>
+      <c r="AA361" s="2"/>
+      <c r="AB361" s="2"/>
+      <c r="AC361" s="2"/>
+      <c r="AD361" s="2"/>
+      <c r="AE361" s="2"/>
+      <c r="AF361" s="2"/>
+    </row>
+    <row r="362" spans="1:32">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2"/>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
+      <c r="K362" s="2"/>
+      <c r="L362" s="2"/>
+      <c r="M362" s="2"/>
+      <c r="N362" s="2"/>
+      <c r="O362" s="2"/>
+      <c r="P362" s="2"/>
+      <c r="Q362" s="2"/>
+      <c r="R362" s="2"/>
+      <c r="S362" s="2"/>
+      <c r="T362" s="2"/>
+      <c r="U362" s="2"/>
+      <c r="V362" s="2"/>
+      <c r="W362" s="2"/>
+      <c r="X362" s="2"/>
+      <c r="Y362" s="2"/>
+      <c r="Z362" s="2"/>
+      <c r="AA362" s="2"/>
+      <c r="AB362" s="2"/>
+      <c r="AC362" s="2"/>
+      <c r="AD362" s="2"/>
+      <c r="AE362" s="2"/>
+      <c r="AF362" s="2"/>
+    </row>
+    <row r="363" spans="1:32">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
+      <c r="H363" s="2"/>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+      <c r="K363" s="2"/>
+      <c r="L363" s="2"/>
+      <c r="M363" s="2"/>
+      <c r="N363" s="2"/>
+      <c r="O363" s="2"/>
+      <c r="P363" s="2"/>
+      <c r="Q363" s="2"/>
+      <c r="R363" s="2"/>
+      <c r="S363" s="2"/>
+      <c r="T363" s="2"/>
+      <c r="U363" s="2"/>
+      <c r="V363" s="2"/>
+      <c r="W363" s="2"/>
+      <c r="X363" s="2"/>
+      <c r="Y363" s="2"/>
+      <c r="Z363" s="2"/>
+      <c r="AA363" s="2"/>
+      <c r="AB363" s="2"/>
+      <c r="AC363" s="2"/>
+      <c r="AD363" s="2"/>
+      <c r="AE363" s="2"/>
+      <c r="AF363" s="2"/>
+    </row>
+    <row r="364" spans="1:32">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+      <c r="K364" s="2"/>
+      <c r="L364" s="2"/>
+      <c r="M364" s="2"/>
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
+      <c r="P364" s="2"/>
+      <c r="Q364" s="2"/>
+      <c r="R364" s="2"/>
+      <c r="S364" s="2"/>
+      <c r="T364" s="2"/>
+      <c r="U364" s="2"/>
+      <c r="V364" s="2"/>
+      <c r="W364" s="2"/>
+      <c r="X364" s="2"/>
+      <c r="Y364" s="2"/>
+      <c r="Z364" s="2"/>
+      <c r="AA364" s="2"/>
+      <c r="AB364" s="2"/>
+      <c r="AC364" s="2"/>
+      <c r="AD364" s="2"/>
+      <c r="AE364" s="2"/>
+      <c r="AF364" s="2"/>
+    </row>
+    <row r="365" spans="1:32">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
+      <c r="H365" s="2"/>
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
+      <c r="K365" s="2"/>
+      <c r="L365" s="2"/>
+      <c r="M365" s="2"/>
+      <c r="N365" s="2"/>
+      <c r="O365" s="2"/>
+      <c r="P365" s="2"/>
+      <c r="Q365" s="2"/>
+      <c r="R365" s="2"/>
+      <c r="S365" s="2"/>
+      <c r="T365" s="2"/>
+      <c r="U365" s="2"/>
+      <c r="V365" s="2"/>
+      <c r="W365" s="2"/>
+      <c r="X365" s="2"/>
+      <c r="Y365" s="2"/>
+      <c r="Z365" s="2"/>
+      <c r="AA365" s="2"/>
+      <c r="AB365" s="2"/>
+      <c r="AC365" s="2"/>
+      <c r="AD365" s="2"/>
+      <c r="AE365" s="2"/>
+      <c r="AF365" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="482">
   <si>
     <t>cartella</t>
   </si>
@@ -1389,6 +1389,96 @@
   </si>
   <si>
     <t>A50</t>
+  </si>
+  <si>
+    <t>C01.mp4</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C04.mp4</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C06.mp4</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07.mp4</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C11.mp4</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C18.mp4</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19.mp4</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C24.mp4</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25.mp4</t>
+  </si>
+  <si>
+    <t>C27.mp4</t>
+  </si>
+  <si>
+    <t>C29.mp4</t>
+  </si>
+  <si>
+    <t>C30.mp4</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31.mp4</t>
+  </si>
+  <si>
+    <t>C34.mp4</t>
+  </si>
+  <si>
+    <t>C35.mp4</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1758,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF365"/>
+  <dimension ref="A1:AF380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B180" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -10251,10 +10341,10 @@
         <v>297</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10295,10 +10385,10 @@
         <v>297</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10339,10 +10429,10 @@
         <v>297</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10383,10 +10473,10 @@
         <v>297</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>301</v>
+        <v>455</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10427,10 +10517,10 @@
         <v>297</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10471,10 +10561,10 @@
         <v>297</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>303</v>
+        <v>457</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10515,10 +10605,10 @@
         <v>297</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10559,10 +10649,10 @@
         <v>297</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10603,10 +10693,10 @@
         <v>297</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10647,10 +10737,10 @@
         <v>297</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>307</v>
+        <v>461</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10688,13 +10778,13 @@
         <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10732,13 +10822,13 @@
         <v>272</v>
       </c>
       <c r="B202" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10776,13 +10866,13 @@
         <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10820,13 +10910,13 @@
         <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -10864,13 +10954,13 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>313</v>
+        <v>463</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -10908,13 +10998,13 @@
         <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>314</v>
+        <v>465</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -10952,13 +11042,13 @@
         <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -10996,13 +11086,13 @@
         <v>272</v>
       </c>
       <c r="B208" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>316</v>
+        <v>467</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11040,13 +11130,13 @@
         <v>272</v>
       </c>
       <c r="B209" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>317</v>
+        <v>472</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11084,13 +11174,13 @@
         <v>272</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11128,13 +11218,13 @@
         <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>319</v>
+        <v>474</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11172,13 +11262,13 @@
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>320</v>
+        <v>475</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11212,11 +11302,21 @@
       <c r="AF212" s="2"/>
     </row>
     <row r="213" spans="1:32">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
+      <c r="A213" t="s">
+        <v>272</v>
+      </c>
+      <c r="B213" t="s">
+        <v>297</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
@@ -11246,11 +11346,21 @@
       <c r="AF213" s="2"/>
     </row>
     <row r="214" spans="1:32">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
+      <c r="A214" t="s">
+        <v>272</v>
+      </c>
+      <c r="B214" t="s">
+        <v>297</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
@@ -11280,11 +11390,21 @@
       <c r="AF214" s="2"/>
     </row>
     <row r="215" spans="1:32">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
+      <c r="A215" t="s">
+        <v>272</v>
+      </c>
+      <c r="B215" t="s">
+        <v>297</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
@@ -11314,11 +11434,21 @@
       <c r="AF215" s="2"/>
     </row>
     <row r="216" spans="1:32">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
+      <c r="A216" t="s">
+        <v>272</v>
+      </c>
+      <c r="B216" t="s">
+        <v>308</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
@@ -11348,11 +11478,21 @@
       <c r="AF216" s="2"/>
     </row>
     <row r="217" spans="1:32">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
+      <c r="A217" t="s">
+        <v>272</v>
+      </c>
+      <c r="B217" t="s">
+        <v>308</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
@@ -11382,11 +11522,21 @@
       <c r="AF217" s="2"/>
     </row>
     <row r="218" spans="1:32">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="A218" t="s">
+        <v>272</v>
+      </c>
+      <c r="B218" t="s">
+        <v>308</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
@@ -11416,11 +11566,21 @@
       <c r="AF218" s="2"/>
     </row>
     <row r="219" spans="1:32">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
+      <c r="A219" t="s">
+        <v>272</v>
+      </c>
+      <c r="B219" t="s">
+        <v>308</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
@@ -11450,11 +11610,21 @@
       <c r="AF219" s="2"/>
     </row>
     <row r="220" spans="1:32">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
+      <c r="A220" t="s">
+        <v>272</v>
+      </c>
+      <c r="B220" t="s">
+        <v>308</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
@@ -11484,11 +11654,21 @@
       <c r="AF220" s="2"/>
     </row>
     <row r="221" spans="1:32">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
+      <c r="A221" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221" t="s">
+        <v>308</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
@@ -11518,11 +11698,21 @@
       <c r="AF221" s="2"/>
     </row>
     <row r="222" spans="1:32">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
+      <c r="A222" t="s">
+        <v>272</v>
+      </c>
+      <c r="B222" t="s">
+        <v>308</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
@@ -11552,11 +11742,21 @@
       <c r="AF222" s="2"/>
     </row>
     <row r="223" spans="1:32">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
+      <c r="A223" t="s">
+        <v>272</v>
+      </c>
+      <c r="B223" t="s">
+        <v>308</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
@@ -11586,11 +11786,21 @@
       <c r="AF223" s="2"/>
     </row>
     <row r="224" spans="1:32">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
+      <c r="A224" t="s">
+        <v>272</v>
+      </c>
+      <c r="B224" t="s">
+        <v>216</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
@@ -11620,11 +11830,21 @@
       <c r="AF224" s="2"/>
     </row>
     <row r="225" spans="1:32">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
+      <c r="A225" t="s">
+        <v>272</v>
+      </c>
+      <c r="B225" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
@@ -11654,11 +11874,21 @@
       <c r="AF225" s="2"/>
     </row>
     <row r="226" spans="1:32">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
+      <c r="A226" t="s">
+        <v>272</v>
+      </c>
+      <c r="B226" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
@@ -11688,11 +11918,21 @@
       <c r="AF226" s="2"/>
     </row>
     <row r="227" spans="1:32">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
+      <c r="A227" t="s">
+        <v>272</v>
+      </c>
+      <c r="B227" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
@@ -16413,6 +16653,516 @@
       <c r="AE365" s="2"/>
       <c r="AF365" s="2"/>
     </row>
+    <row r="366" spans="1:32">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
+      <c r="H366" s="2"/>
+      <c r="I366" s="2"/>
+      <c r="J366" s="2"/>
+      <c r="K366" s="2"/>
+      <c r="L366" s="2"/>
+      <c r="M366" s="2"/>
+      <c r="N366" s="2"/>
+      <c r="O366" s="2"/>
+      <c r="P366" s="2"/>
+      <c r="Q366" s="2"/>
+      <c r="R366" s="2"/>
+      <c r="S366" s="2"/>
+      <c r="T366" s="2"/>
+      <c r="U366" s="2"/>
+      <c r="V366" s="2"/>
+      <c r="W366" s="2"/>
+      <c r="X366" s="2"/>
+      <c r="Y366" s="2"/>
+      <c r="Z366" s="2"/>
+      <c r="AA366" s="2"/>
+      <c r="AB366" s="2"/>
+      <c r="AC366" s="2"/>
+      <c r="AD366" s="2"/>
+      <c r="AE366" s="2"/>
+      <c r="AF366" s="2"/>
+    </row>
+    <row r="367" spans="1:32">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
+      <c r="H367" s="2"/>
+      <c r="I367" s="2"/>
+      <c r="J367" s="2"/>
+      <c r="K367" s="2"/>
+      <c r="L367" s="2"/>
+      <c r="M367" s="2"/>
+      <c r="N367" s="2"/>
+      <c r="O367" s="2"/>
+      <c r="P367" s="2"/>
+      <c r="Q367" s="2"/>
+      <c r="R367" s="2"/>
+      <c r="S367" s="2"/>
+      <c r="T367" s="2"/>
+      <c r="U367" s="2"/>
+      <c r="V367" s="2"/>
+      <c r="W367" s="2"/>
+      <c r="X367" s="2"/>
+      <c r="Y367" s="2"/>
+      <c r="Z367" s="2"/>
+      <c r="AA367" s="2"/>
+      <c r="AB367" s="2"/>
+      <c r="AC367" s="2"/>
+      <c r="AD367" s="2"/>
+      <c r="AE367" s="2"/>
+      <c r="AF367" s="2"/>
+    </row>
+    <row r="368" spans="1:32">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
+      <c r="H368" s="2"/>
+      <c r="I368" s="2"/>
+      <c r="J368" s="2"/>
+      <c r="K368" s="2"/>
+      <c r="L368" s="2"/>
+      <c r="M368" s="2"/>
+      <c r="N368" s="2"/>
+      <c r="O368" s="2"/>
+      <c r="P368" s="2"/>
+      <c r="Q368" s="2"/>
+      <c r="R368" s="2"/>
+      <c r="S368" s="2"/>
+      <c r="T368" s="2"/>
+      <c r="U368" s="2"/>
+      <c r="V368" s="2"/>
+      <c r="W368" s="2"/>
+      <c r="X368" s="2"/>
+      <c r="Y368" s="2"/>
+      <c r="Z368" s="2"/>
+      <c r="AA368" s="2"/>
+      <c r="AB368" s="2"/>
+      <c r="AC368" s="2"/>
+      <c r="AD368" s="2"/>
+      <c r="AE368" s="2"/>
+      <c r="AF368" s="2"/>
+    </row>
+    <row r="369" spans="1:32">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
+      <c r="H369" s="2"/>
+      <c r="I369" s="2"/>
+      <c r="J369" s="2"/>
+      <c r="K369" s="2"/>
+      <c r="L369" s="2"/>
+      <c r="M369" s="2"/>
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
+      <c r="P369" s="2"/>
+      <c r="Q369" s="2"/>
+      <c r="R369" s="2"/>
+      <c r="S369" s="2"/>
+      <c r="T369" s="2"/>
+      <c r="U369" s="2"/>
+      <c r="V369" s="2"/>
+      <c r="W369" s="2"/>
+      <c r="X369" s="2"/>
+      <c r="Y369" s="2"/>
+      <c r="Z369" s="2"/>
+      <c r="AA369" s="2"/>
+      <c r="AB369" s="2"/>
+      <c r="AC369" s="2"/>
+      <c r="AD369" s="2"/>
+      <c r="AE369" s="2"/>
+      <c r="AF369" s="2"/>
+    </row>
+    <row r="370" spans="1:32">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
+      <c r="H370" s="2"/>
+      <c r="I370" s="2"/>
+      <c r="J370" s="2"/>
+      <c r="K370" s="2"/>
+      <c r="L370" s="2"/>
+      <c r="M370" s="2"/>
+      <c r="N370" s="2"/>
+      <c r="O370" s="2"/>
+      <c r="P370" s="2"/>
+      <c r="Q370" s="2"/>
+      <c r="R370" s="2"/>
+      <c r="S370" s="2"/>
+      <c r="T370" s="2"/>
+      <c r="U370" s="2"/>
+      <c r="V370" s="2"/>
+      <c r="W370" s="2"/>
+      <c r="X370" s="2"/>
+      <c r="Y370" s="2"/>
+      <c r="Z370" s="2"/>
+      <c r="AA370" s="2"/>
+      <c r="AB370" s="2"/>
+      <c r="AC370" s="2"/>
+      <c r="AD370" s="2"/>
+      <c r="AE370" s="2"/>
+      <c r="AF370" s="2"/>
+    </row>
+    <row r="371" spans="1:32">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
+      <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
+      <c r="M371" s="2"/>
+      <c r="N371" s="2"/>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
+      <c r="Q371" s="2"/>
+      <c r="R371" s="2"/>
+      <c r="S371" s="2"/>
+      <c r="T371" s="2"/>
+      <c r="U371" s="2"/>
+      <c r="V371" s="2"/>
+      <c r="W371" s="2"/>
+      <c r="X371" s="2"/>
+      <c r="Y371" s="2"/>
+      <c r="Z371" s="2"/>
+      <c r="AA371" s="2"/>
+      <c r="AB371" s="2"/>
+      <c r="AC371" s="2"/>
+      <c r="AD371" s="2"/>
+      <c r="AE371" s="2"/>
+      <c r="AF371" s="2"/>
+    </row>
+    <row r="372" spans="1:32">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="2"/>
+      <c r="L372" s="2"/>
+      <c r="M372" s="2"/>
+      <c r="N372" s="2"/>
+      <c r="O372" s="2"/>
+      <c r="P372" s="2"/>
+      <c r="Q372" s="2"/>
+      <c r="R372" s="2"/>
+      <c r="S372" s="2"/>
+      <c r="T372" s="2"/>
+      <c r="U372" s="2"/>
+      <c r="V372" s="2"/>
+      <c r="W372" s="2"/>
+      <c r="X372" s="2"/>
+      <c r="Y372" s="2"/>
+      <c r="Z372" s="2"/>
+      <c r="AA372" s="2"/>
+      <c r="AB372" s="2"/>
+      <c r="AC372" s="2"/>
+      <c r="AD372" s="2"/>
+      <c r="AE372" s="2"/>
+      <c r="AF372" s="2"/>
+    </row>
+    <row r="373" spans="1:32">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
+      <c r="H373" s="2"/>
+      <c r="I373" s="2"/>
+      <c r="J373" s="2"/>
+      <c r="K373" s="2"/>
+      <c r="L373" s="2"/>
+      <c r="M373" s="2"/>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" s="2"/>
+      <c r="Q373" s="2"/>
+      <c r="R373" s="2"/>
+      <c r="S373" s="2"/>
+      <c r="T373" s="2"/>
+      <c r="U373" s="2"/>
+      <c r="V373" s="2"/>
+      <c r="W373" s="2"/>
+      <c r="X373" s="2"/>
+      <c r="Y373" s="2"/>
+      <c r="Z373" s="2"/>
+      <c r="AA373" s="2"/>
+      <c r="AB373" s="2"/>
+      <c r="AC373" s="2"/>
+      <c r="AD373" s="2"/>
+      <c r="AE373" s="2"/>
+      <c r="AF373" s="2"/>
+    </row>
+    <row r="374" spans="1:32">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="2"/>
+      <c r="J374" s="2"/>
+      <c r="K374" s="2"/>
+      <c r="L374" s="2"/>
+      <c r="M374" s="2"/>
+      <c r="N374" s="2"/>
+      <c r="O374" s="2"/>
+      <c r="P374" s="2"/>
+      <c r="Q374" s="2"/>
+      <c r="R374" s="2"/>
+      <c r="S374" s="2"/>
+      <c r="T374" s="2"/>
+      <c r="U374" s="2"/>
+      <c r="V374" s="2"/>
+      <c r="W374" s="2"/>
+      <c r="X374" s="2"/>
+      <c r="Y374" s="2"/>
+      <c r="Z374" s="2"/>
+      <c r="AA374" s="2"/>
+      <c r="AB374" s="2"/>
+      <c r="AC374" s="2"/>
+      <c r="AD374" s="2"/>
+      <c r="AE374" s="2"/>
+      <c r="AF374" s="2"/>
+    </row>
+    <row r="375" spans="1:32">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
+      <c r="K375" s="2"/>
+      <c r="L375" s="2"/>
+      <c r="M375" s="2"/>
+      <c r="N375" s="2"/>
+      <c r="O375" s="2"/>
+      <c r="P375" s="2"/>
+      <c r="Q375" s="2"/>
+      <c r="R375" s="2"/>
+      <c r="S375" s="2"/>
+      <c r="T375" s="2"/>
+      <c r="U375" s="2"/>
+      <c r="V375" s="2"/>
+      <c r="W375" s="2"/>
+      <c r="X375" s="2"/>
+      <c r="Y375" s="2"/>
+      <c r="Z375" s="2"/>
+      <c r="AA375" s="2"/>
+      <c r="AB375" s="2"/>
+      <c r="AC375" s="2"/>
+      <c r="AD375" s="2"/>
+      <c r="AE375" s="2"/>
+      <c r="AF375" s="2"/>
+    </row>
+    <row r="376" spans="1:32">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+      <c r="H376" s="2"/>
+      <c r="I376" s="2"/>
+      <c r="J376" s="2"/>
+      <c r="K376" s="2"/>
+      <c r="L376" s="2"/>
+      <c r="M376" s="2"/>
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+      <c r="P376" s="2"/>
+      <c r="Q376" s="2"/>
+      <c r="R376" s="2"/>
+      <c r="S376" s="2"/>
+      <c r="T376" s="2"/>
+      <c r="U376" s="2"/>
+      <c r="V376" s="2"/>
+      <c r="W376" s="2"/>
+      <c r="X376" s="2"/>
+      <c r="Y376" s="2"/>
+      <c r="Z376" s="2"/>
+      <c r="AA376" s="2"/>
+      <c r="AB376" s="2"/>
+      <c r="AC376" s="2"/>
+      <c r="AD376" s="2"/>
+      <c r="AE376" s="2"/>
+      <c r="AF376" s="2"/>
+    </row>
+    <row r="377" spans="1:32">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+      <c r="H377" s="2"/>
+      <c r="I377" s="2"/>
+      <c r="J377" s="2"/>
+      <c r="K377" s="2"/>
+      <c r="L377" s="2"/>
+      <c r="M377" s="2"/>
+      <c r="N377" s="2"/>
+      <c r="O377" s="2"/>
+      <c r="P377" s="2"/>
+      <c r="Q377" s="2"/>
+      <c r="R377" s="2"/>
+      <c r="S377" s="2"/>
+      <c r="T377" s="2"/>
+      <c r="U377" s="2"/>
+      <c r="V377" s="2"/>
+      <c r="W377" s="2"/>
+      <c r="X377" s="2"/>
+      <c r="Y377" s="2"/>
+      <c r="Z377" s="2"/>
+      <c r="AA377" s="2"/>
+      <c r="AB377" s="2"/>
+      <c r="AC377" s="2"/>
+      <c r="AD377" s="2"/>
+      <c r="AE377" s="2"/>
+      <c r="AF377" s="2"/>
+    </row>
+    <row r="378" spans="1:32">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+      <c r="I378" s="2"/>
+      <c r="J378" s="2"/>
+      <c r="K378" s="2"/>
+      <c r="L378" s="2"/>
+      <c r="M378" s="2"/>
+      <c r="N378" s="2"/>
+      <c r="O378" s="2"/>
+      <c r="P378" s="2"/>
+      <c r="Q378" s="2"/>
+      <c r="R378" s="2"/>
+      <c r="S378" s="2"/>
+      <c r="T378" s="2"/>
+      <c r="U378" s="2"/>
+      <c r="V378" s="2"/>
+      <c r="W378" s="2"/>
+      <c r="X378" s="2"/>
+      <c r="Y378" s="2"/>
+      <c r="Z378" s="2"/>
+      <c r="AA378" s="2"/>
+      <c r="AB378" s="2"/>
+      <c r="AC378" s="2"/>
+      <c r="AD378" s="2"/>
+      <c r="AE378" s="2"/>
+      <c r="AF378" s="2"/>
+    </row>
+    <row r="379" spans="1:32">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="2"/>
+      <c r="G379" s="2"/>
+      <c r="H379" s="2"/>
+      <c r="I379" s="2"/>
+      <c r="J379" s="2"/>
+      <c r="K379" s="2"/>
+      <c r="L379" s="2"/>
+      <c r="M379" s="2"/>
+      <c r="N379" s="2"/>
+      <c r="O379" s="2"/>
+      <c r="P379" s="2"/>
+      <c r="Q379" s="2"/>
+      <c r="R379" s="2"/>
+      <c r="S379" s="2"/>
+      <c r="T379" s="2"/>
+      <c r="U379" s="2"/>
+      <c r="V379" s="2"/>
+      <c r="W379" s="2"/>
+      <c r="X379" s="2"/>
+      <c r="Y379" s="2"/>
+      <c r="Z379" s="2"/>
+      <c r="AA379" s="2"/>
+      <c r="AB379" s="2"/>
+      <c r="AC379" s="2"/>
+      <c r="AD379" s="2"/>
+      <c r="AE379" s="2"/>
+      <c r="AF379" s="2"/>
+    </row>
+    <row r="380" spans="1:32">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
+      <c r="H380" s="2"/>
+      <c r="I380" s="2"/>
+      <c r="J380" s="2"/>
+      <c r="K380" s="2"/>
+      <c r="L380" s="2"/>
+      <c r="M380" s="2"/>
+      <c r="N380" s="2"/>
+      <c r="O380" s="2"/>
+      <c r="P380" s="2"/>
+      <c r="Q380" s="2"/>
+      <c r="R380" s="2"/>
+      <c r="S380" s="2"/>
+      <c r="T380" s="2"/>
+      <c r="U380" s="2"/>
+      <c r="V380" s="2"/>
+      <c r="W380" s="2"/>
+      <c r="X380" s="2"/>
+      <c r="Y380" s="2"/>
+      <c r="Z380" s="2"/>
+      <c r="AA380" s="2"/>
+      <c r="AB380" s="2"/>
+      <c r="AC380" s="2"/>
+      <c r="AD380" s="2"/>
+      <c r="AE380" s="2"/>
+      <c r="AF380" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB403C0-65C6-4396-983D-D99F8ED398A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="487">
   <si>
     <t>cartella</t>
   </si>
@@ -1479,13 +1479,28 @@
   </si>
   <si>
     <t>C35</t>
+  </si>
+  <si>
+    <t>Mobilizzazione</t>
+  </si>
+  <si>
+    <t>mosu02</t>
+  </si>
+  <si>
+    <t>mosu02.mp4</t>
+  </si>
+  <si>
+    <t>mosu03.mp4</t>
+  </si>
+  <si>
+    <t>mosu03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1840,26 +1855,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228:E229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="32.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1924,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="165">
+    <row r="2" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1974,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="225">
+    <row r="3" spans="1:32" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2009,7 +2024,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="195">
+    <row r="4" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2059,7 +2074,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="285">
+    <row r="5" spans="1:32" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2124,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="120">
+    <row r="6" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2159,7 +2174,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="195">
+    <row r="7" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2209,7 +2224,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="180">
+    <row r="8" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2274,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="240">
+    <row r="9" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2309,7 +2324,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="330">
+    <row r="10" spans="1:32" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2359,7 +2374,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="240">
+    <row r="11" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2409,7 +2424,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="195">
+    <row r="12" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2474,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="180">
+    <row r="13" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2509,7 +2524,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="165">
+    <row r="14" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2559,7 +2574,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="225">
+    <row r="15" spans="1:32" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2609,7 +2624,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="180">
+    <row r="16" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2659,7 +2674,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="240">
+    <row r="17" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2709,7 +2724,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="330">
+    <row r="18" spans="1:32" ht="330" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2759,7 +2774,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="240">
+    <row r="19" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2809,7 +2824,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>142</v>
       </c>
@@ -2853,7 +2868,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
@@ -2897,7 +2912,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
@@ -2941,7 +2956,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>142</v>
       </c>
@@ -2985,7 +3000,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>142</v>
       </c>
@@ -3029,7 +3044,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -3073,7 +3088,7 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
@@ -3117,7 +3132,7 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
@@ -3161,7 +3176,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -3205,7 +3220,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
@@ -3249,7 +3264,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
@@ -3293,7 +3308,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
@@ -3337,7 +3352,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
@@ -3381,7 +3396,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
@@ -3425,7 +3440,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
@@ -3469,7 +3484,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
@@ -3513,7 +3528,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3557,7 +3572,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
@@ -3601,7 +3616,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
@@ -3645,7 +3660,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
@@ -3689,7 +3704,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -3733,7 +3748,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
@@ -3777,7 +3792,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
@@ -3821,7 +3836,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -3865,7 +3880,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -3909,7 +3924,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -3953,7 +3968,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -3997,7 +4012,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4041,7 +4056,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -4085,7 +4100,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -4129,7 +4144,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -4173,7 +4188,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -4217,7 +4232,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
@@ -4261,7 +4276,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -4305,7 +4320,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -4349,7 +4364,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4393,7 +4408,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -4437,7 +4452,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -4481,7 +4496,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -4525,7 +4540,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -4569,7 +4584,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
@@ -4613,7 +4628,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>142</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
@@ -4701,7 +4716,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
@@ -4745,7 +4760,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>142</v>
       </c>
@@ -4789,7 +4804,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>142</v>
       </c>
@@ -4833,7 +4848,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>142</v>
       </c>
@@ -4877,7 +4892,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -4921,7 +4936,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -4965,7 +4980,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>142</v>
       </c>
@@ -5009,7 +5024,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -5053,7 +5068,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -5097,7 +5112,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -5141,7 +5156,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -5185,7 +5200,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -5229,7 +5244,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -5273,7 +5288,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
@@ -5317,7 +5332,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>142</v>
       </c>
@@ -5361,7 +5376,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -5405,7 +5420,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -5449,7 +5464,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -5493,7 +5508,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -5537,7 +5552,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -5581,7 +5596,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -5625,7 +5640,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -5669,7 +5684,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>142</v>
       </c>
@@ -5713,7 +5728,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>142</v>
       </c>
@@ -5757,7 +5772,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
@@ -5801,7 +5816,7 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
@@ -5845,7 +5860,7 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>142</v>
       </c>
@@ -5889,7 +5904,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>142</v>
       </c>
@@ -5933,7 +5948,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>142</v>
       </c>
@@ -5977,7 +5992,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>142</v>
       </c>
@@ -6021,7 +6036,7 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>142</v>
       </c>
@@ -6065,7 +6080,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>142</v>
       </c>
@@ -6109,7 +6124,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>142</v>
       </c>
@@ -6153,7 +6168,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>142</v>
       </c>
@@ -6197,7 +6212,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>142</v>
       </c>
@@ -6241,7 +6256,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>142</v>
       </c>
@@ -6285,7 +6300,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>142</v>
       </c>
@@ -6329,7 +6344,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>142</v>
       </c>
@@ -6373,7 +6388,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
@@ -6417,7 +6432,7 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>143</v>
       </c>
@@ -6461,7 +6476,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -6505,7 +6520,7 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -6549,7 +6564,7 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>143</v>
       </c>
@@ -6593,7 +6608,7 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -6637,7 +6652,7 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -6681,7 +6696,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>143</v>
       </c>
@@ -6725,7 +6740,7 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>143</v>
       </c>
@@ -6769,7 +6784,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -6813,7 +6828,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>142</v>
       </c>
@@ -6857,7 +6872,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>142</v>
       </c>
@@ -6901,7 +6916,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>142</v>
       </c>
@@ -6945,7 +6960,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>142</v>
       </c>
@@ -6989,7 +7004,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>142</v>
       </c>
@@ -7033,7 +7048,7 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>142</v>
       </c>
@@ -7077,7 +7092,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>142</v>
       </c>
@@ -7121,7 +7136,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>142</v>
       </c>
@@ -7165,7 +7180,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>142</v>
       </c>
@@ -7209,7 +7224,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>142</v>
       </c>
@@ -7253,7 +7268,7 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
@@ -7297,7 +7312,7 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>142</v>
       </c>
@@ -7341,7 +7356,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>142</v>
       </c>
@@ -7385,7 +7400,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>142</v>
       </c>
@@ -7429,7 +7444,7 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -7473,7 +7488,7 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -7517,7 +7532,7 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -7561,7 +7576,7 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -7605,7 +7620,7 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -7649,7 +7664,7 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
@@ -7693,7 +7708,7 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
@@ -7737,7 +7752,7 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
@@ -7781,7 +7796,7 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
@@ -7825,7 +7840,7 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
@@ -7869,7 +7884,7 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -7913,7 +7928,7 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
@@ -7957,7 +7972,7 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
@@ -8001,7 +8016,7 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
@@ -8045,7 +8060,7 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -8089,7 +8104,7 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8148,7 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
@@ -8177,7 +8192,7 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -8221,7 +8236,7 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -8265,7 +8280,7 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -8309,7 +8324,7 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -8353,7 +8368,7 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -8397,7 +8412,7 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>272</v>
       </c>
@@ -8441,7 +8456,7 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>272</v>
       </c>
@@ -8485,7 +8500,7 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>272</v>
       </c>
@@ -8529,7 +8544,7 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>272</v>
       </c>
@@ -8573,7 +8588,7 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>272</v>
       </c>
@@ -8617,7 +8632,7 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>272</v>
       </c>
@@ -8661,7 +8676,7 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>272</v>
       </c>
@@ -8705,7 +8720,7 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>272</v>
       </c>
@@ -8749,7 +8764,7 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -8793,7 +8808,7 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -8837,7 +8852,7 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -8881,7 +8896,7 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -8925,7 +8940,7 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -8969,7 +8984,7 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>272</v>
       </c>
@@ -9013,7 +9028,7 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>272</v>
       </c>
@@ -9057,7 +9072,7 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>272</v>
       </c>
@@ -9101,7 +9116,7 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>272</v>
       </c>
@@ -9145,7 +9160,7 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>272</v>
       </c>
@@ -9189,7 +9204,7 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>272</v>
       </c>
@@ -9233,7 +9248,7 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>272</v>
       </c>
@@ -9277,7 +9292,7 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>272</v>
       </c>
@@ -9321,7 +9336,7 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>272</v>
       </c>
@@ -9365,7 +9380,7 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>272</v>
       </c>
@@ -9409,7 +9424,7 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>272</v>
       </c>
@@ -9453,7 +9468,7 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>272</v>
       </c>
@@ -9497,7 +9512,7 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>272</v>
       </c>
@@ -9541,7 +9556,7 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>272</v>
       </c>
@@ -9585,7 +9600,7 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>272</v>
       </c>
@@ -9629,7 +9644,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -9673,7 +9688,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -9717,7 +9732,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -9761,7 +9776,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -9805,7 +9820,7 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -9849,7 +9864,7 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>272</v>
       </c>
@@ -9893,7 +9908,7 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>272</v>
       </c>
@@ -9937,7 +9952,7 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -9981,7 +9996,7 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -10025,7 +10040,7 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -10069,7 +10084,7 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -10113,7 +10128,7 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -10157,7 +10172,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -10201,7 +10216,7 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -10245,7 +10260,7 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -10289,7 +10304,7 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -10333,7 +10348,7 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -10377,7 +10392,7 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>272</v>
       </c>
@@ -10421,7 +10436,7 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>272</v>
       </c>
@@ -10465,7 +10480,7 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>272</v>
       </c>
@@ -10509,7 +10524,7 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>272</v>
       </c>
@@ -10553,7 +10568,7 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>272</v>
       </c>
@@ -10597,7 +10612,7 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>272</v>
       </c>
@@ -10641,7 +10656,7 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>272</v>
       </c>
@@ -10685,7 +10700,7 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>272</v>
       </c>
@@ -10729,7 +10744,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>272</v>
       </c>
@@ -10773,7 +10788,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>272</v>
       </c>
@@ -10817,7 +10832,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -10861,7 +10876,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>272</v>
       </c>
@@ -10905,7 +10920,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>272</v>
       </c>
@@ -10949,7 +10964,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>272</v>
       </c>
@@ -10993,7 +11008,7 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>272</v>
       </c>
@@ -11037,7 +11052,7 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>272</v>
       </c>
@@ -11081,7 +11096,7 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>272</v>
       </c>
@@ -11125,7 +11140,7 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>272</v>
       </c>
@@ -11169,7 +11184,7 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>272</v>
       </c>
@@ -11213,7 +11228,7 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>272</v>
       </c>
@@ -11257,7 +11272,7 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -11301,7 +11316,7 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>272</v>
       </c>
@@ -11345,7 +11360,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>272</v>
       </c>
@@ -11389,7 +11404,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>272</v>
       </c>
@@ -11433,7 +11448,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>272</v>
       </c>
@@ -11477,7 +11492,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -11521,7 +11536,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -11565,7 +11580,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -11609,7 +11624,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>272</v>
       </c>
@@ -11653,7 +11668,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>272</v>
       </c>
@@ -11697,7 +11712,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>272</v>
       </c>
@@ -11741,7 +11756,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>272</v>
       </c>
@@ -11785,7 +11800,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>272</v>
       </c>
@@ -11829,7 +11844,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>272</v>
       </c>
@@ -11873,7 +11888,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>272</v>
       </c>
@@ -11917,7 +11932,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>272</v>
       </c>
@@ -11961,12 +11976,22 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
@@ -11995,12 +12020,22 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
@@ -12029,7 +12064,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12063,7 +12098,7 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12097,7 +12132,7 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12131,7 +12166,7 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12165,7 +12200,7 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12199,7 +12234,7 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12233,7 +12268,7 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12267,7 +12302,7 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12301,7 +12336,7 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12335,7 +12370,7 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12369,7 +12404,7 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12403,7 +12438,7 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12437,7 +12472,7 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12471,7 +12506,7 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12505,7 +12540,7 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12539,7 +12574,7 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12573,7 +12608,7 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12607,7 +12642,7 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12641,7 +12676,7 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12675,7 +12710,7 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12709,7 +12744,7 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12743,7 +12778,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12777,7 +12812,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12811,7 +12846,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12845,7 +12880,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12879,7 +12914,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12913,7 +12948,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12947,7 +12982,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12981,7 +13016,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13015,7 +13050,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -13049,7 +13084,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13083,7 +13118,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13117,7 +13152,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13151,7 +13186,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13185,7 +13220,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13219,7 +13254,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13253,7 +13288,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13287,7 +13322,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13321,7 +13356,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13355,7 +13390,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13389,7 +13424,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13423,7 +13458,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13457,7 +13492,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13491,7 +13526,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13525,7 +13560,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13559,7 +13594,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13593,7 +13628,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13627,7 +13662,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13661,7 +13696,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13695,7 +13730,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13729,7 +13764,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13763,7 +13798,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -13797,7 +13832,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -13831,7 +13866,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -13865,7 +13900,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -13899,7 +13934,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -13933,7 +13968,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -13967,7 +14002,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14001,7 +14036,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14035,7 +14070,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14069,7 +14104,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14103,7 +14138,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14137,7 +14172,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14171,7 +14206,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14205,7 +14240,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14239,7 +14274,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14273,7 +14308,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14307,7 +14342,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14341,7 +14376,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14375,7 +14410,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14409,7 +14444,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14443,7 +14478,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14477,7 +14512,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -14511,7 +14546,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -14545,7 +14580,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -14579,7 +14614,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -14613,7 +14648,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -14647,7 +14682,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -14681,7 +14716,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -14715,7 +14750,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -14749,7 +14784,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -14783,7 +14818,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -14817,7 +14852,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -14851,7 +14886,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -14885,7 +14920,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -14919,7 +14954,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -14953,7 +14988,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -14987,7 +15022,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15021,7 +15056,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -15055,7 +15090,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -15089,7 +15124,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -15123,7 +15158,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -15157,7 +15192,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -15191,7 +15226,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -15225,7 +15260,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -15259,7 +15294,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -15293,7 +15328,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -15327,7 +15362,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -15361,7 +15396,7 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
     </row>
-    <row r="328" spans="1:32">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -15395,7 +15430,7 @@
       <c r="AE328" s="2"/>
       <c r="AF328" s="2"/>
     </row>
-    <row r="329" spans="1:32">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -15429,7 +15464,7 @@
       <c r="AE329" s="2"/>
       <c r="AF329" s="2"/>
     </row>
-    <row r="330" spans="1:32">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -15463,7 +15498,7 @@
       <c r="AE330" s="2"/>
       <c r="AF330" s="2"/>
     </row>
-    <row r="331" spans="1:32">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -15497,7 +15532,7 @@
       <c r="AE331" s="2"/>
       <c r="AF331" s="2"/>
     </row>
-    <row r="332" spans="1:32">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -15531,7 +15566,7 @@
       <c r="AE332" s="2"/>
       <c r="AF332" s="2"/>
     </row>
-    <row r="333" spans="1:32">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -15565,7 +15600,7 @@
       <c r="AE333" s="2"/>
       <c r="AF333" s="2"/>
     </row>
-    <row r="334" spans="1:32">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -15599,7 +15634,7 @@
       <c r="AE334" s="2"/>
       <c r="AF334" s="2"/>
     </row>
-    <row r="335" spans="1:32">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -15633,7 +15668,7 @@
       <c r="AE335" s="2"/>
       <c r="AF335" s="2"/>
     </row>
-    <row r="336" spans="1:32">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -15667,7 +15702,7 @@
       <c r="AE336" s="2"/>
       <c r="AF336" s="2"/>
     </row>
-    <row r="337" spans="1:32">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -15701,7 +15736,7 @@
       <c r="AE337" s="2"/>
       <c r="AF337" s="2"/>
     </row>
-    <row r="338" spans="1:32">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -15735,7 +15770,7 @@
       <c r="AE338" s="2"/>
       <c r="AF338" s="2"/>
     </row>
-    <row r="339" spans="1:32">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -15769,7 +15804,7 @@
       <c r="AE339" s="2"/>
       <c r="AF339" s="2"/>
     </row>
-    <row r="340" spans="1:32">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -15803,7 +15838,7 @@
       <c r="AE340" s="2"/>
       <c r="AF340" s="2"/>
     </row>
-    <row r="341" spans="1:32">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -15837,7 +15872,7 @@
       <c r="AE341" s="2"/>
       <c r="AF341" s="2"/>
     </row>
-    <row r="342" spans="1:32">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -15871,7 +15906,7 @@
       <c r="AE342" s="2"/>
       <c r="AF342" s="2"/>
     </row>
-    <row r="343" spans="1:32">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -15905,7 +15940,7 @@
       <c r="AE343" s="2"/>
       <c r="AF343" s="2"/>
     </row>
-    <row r="344" spans="1:32">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -15939,7 +15974,7 @@
       <c r="AE344" s="2"/>
       <c r="AF344" s="2"/>
     </row>
-    <row r="345" spans="1:32">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -15973,7 +16008,7 @@
       <c r="AE345" s="2"/>
       <c r="AF345" s="2"/>
     </row>
-    <row r="346" spans="1:32">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -16007,7 +16042,7 @@
       <c r="AE346" s="2"/>
       <c r="AF346" s="2"/>
     </row>
-    <row r="347" spans="1:32">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -16041,7 +16076,7 @@
       <c r="AE347" s="2"/>
       <c r="AF347" s="2"/>
     </row>
-    <row r="348" spans="1:32">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -16075,7 +16110,7 @@
       <c r="AE348" s="2"/>
       <c r="AF348" s="2"/>
     </row>
-    <row r="349" spans="1:32">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -16109,7 +16144,7 @@
       <c r="AE349" s="2"/>
       <c r="AF349" s="2"/>
     </row>
-    <row r="350" spans="1:32">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -16143,7 +16178,7 @@
       <c r="AE350" s="2"/>
       <c r="AF350" s="2"/>
     </row>
-    <row r="351" spans="1:32">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -16177,7 +16212,7 @@
       <c r="AE351" s="2"/>
       <c r="AF351" s="2"/>
     </row>
-    <row r="352" spans="1:32">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -16211,7 +16246,7 @@
       <c r="AE352" s="2"/>
       <c r="AF352" s="2"/>
     </row>
-    <row r="353" spans="1:32">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -16245,7 +16280,7 @@
       <c r="AE353" s="2"/>
       <c r="AF353" s="2"/>
     </row>
-    <row r="354" spans="1:32">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -16279,7 +16314,7 @@
       <c r="AE354" s="2"/>
       <c r="AF354" s="2"/>
     </row>
-    <row r="355" spans="1:32">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -16313,7 +16348,7 @@
       <c r="AE355" s="2"/>
       <c r="AF355" s="2"/>
     </row>
-    <row r="356" spans="1:32">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -16347,7 +16382,7 @@
       <c r="AE356" s="2"/>
       <c r="AF356" s="2"/>
     </row>
-    <row r="357" spans="1:32">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -16381,7 +16416,7 @@
       <c r="AE357" s="2"/>
       <c r="AF357" s="2"/>
     </row>
-    <row r="358" spans="1:32">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -16415,7 +16450,7 @@
       <c r="AE358" s="2"/>
       <c r="AF358" s="2"/>
     </row>
-    <row r="359" spans="1:32">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -16449,7 +16484,7 @@
       <c r="AE359" s="2"/>
       <c r="AF359" s="2"/>
     </row>
-    <row r="360" spans="1:32">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -16483,7 +16518,7 @@
       <c r="AE360" s="2"/>
       <c r="AF360" s="2"/>
     </row>
-    <row r="361" spans="1:32">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -16517,7 +16552,7 @@
       <c r="AE361" s="2"/>
       <c r="AF361" s="2"/>
     </row>
-    <row r="362" spans="1:32">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -16551,7 +16586,7 @@
       <c r="AE362" s="2"/>
       <c r="AF362" s="2"/>
     </row>
-    <row r="363" spans="1:32">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -16585,7 +16620,7 @@
       <c r="AE363" s="2"/>
       <c r="AF363" s="2"/>
     </row>
-    <row r="364" spans="1:32">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -16619,7 +16654,7 @@
       <c r="AE364" s="2"/>
       <c r="AF364" s="2"/>
     </row>
-    <row r="365" spans="1:32">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -16653,7 +16688,7 @@
       <c r="AE365" s="2"/>
       <c r="AF365" s="2"/>
     </row>
-    <row r="366" spans="1:32">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -16687,7 +16722,7 @@
       <c r="AE366" s="2"/>
       <c r="AF366" s="2"/>
     </row>
-    <row r="367" spans="1:32">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -16721,7 +16756,7 @@
       <c r="AE367" s="2"/>
       <c r="AF367" s="2"/>
     </row>
-    <row r="368" spans="1:32">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -16755,7 +16790,7 @@
       <c r="AE368" s="2"/>
       <c r="AF368" s="2"/>
     </row>
-    <row r="369" spans="1:32">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -16789,7 +16824,7 @@
       <c r="AE369" s="2"/>
       <c r="AF369" s="2"/>
     </row>
-    <row r="370" spans="1:32">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -16823,7 +16858,7 @@
       <c r="AE370" s="2"/>
       <c r="AF370" s="2"/>
     </row>
-    <row r="371" spans="1:32">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -16857,7 +16892,7 @@
       <c r="AE371" s="2"/>
       <c r="AF371" s="2"/>
     </row>
-    <row r="372" spans="1:32">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -16891,7 +16926,7 @@
       <c r="AE372" s="2"/>
       <c r="AF372" s="2"/>
     </row>
-    <row r="373" spans="1:32">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -16925,7 +16960,7 @@
       <c r="AE373" s="2"/>
       <c r="AF373" s="2"/>
     </row>
-    <row r="374" spans="1:32">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -16959,7 +16994,7 @@
       <c r="AE374" s="2"/>
       <c r="AF374" s="2"/>
     </row>
-    <row r="375" spans="1:32">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -16993,7 +17028,7 @@
       <c r="AE375" s="2"/>
       <c r="AF375" s="2"/>
     </row>
-    <row r="376" spans="1:32">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -17027,7 +17062,7 @@
       <c r="AE376" s="2"/>
       <c r="AF376" s="2"/>
     </row>
-    <row r="377" spans="1:32">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -17061,7 +17096,7 @@
       <c r="AE377" s="2"/>
       <c r="AF377" s="2"/>
     </row>
-    <row r="378" spans="1:32">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -17095,7 +17130,7 @@
       <c r="AE378" s="2"/>
       <c r="AF378" s="2"/>
     </row>
-    <row r="379" spans="1:32">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -17129,7 +17164,7 @@
       <c r="AE379" s="2"/>
       <c r="AF379" s="2"/>
     </row>
-    <row r="380" spans="1:32">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="481">
   <si>
     <t>cartella</t>
   </si>
@@ -852,9 +852,6 @@
   </si>
   <si>
     <t>Riabilitazione Muscoloscheletrica</t>
-  </si>
-  <si>
-    <t>Carico parziale</t>
   </si>
   <si>
     <t>Senza carico</t>
@@ -1840,7 +1837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1850,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -1926,7 +1923,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -2993,10 +2990,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
@@ -3081,10 +3078,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -3125,10 +3122,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
@@ -3169,10 +3166,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -3213,10 +3210,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -3257,10 +3254,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -3345,10 +3342,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -4709,10 +4706,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4841,10 +4838,10 @@
         <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4885,10 +4882,10 @@
         <v>67</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -4929,10 +4926,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -4973,10 +4970,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -5017,10 +5014,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -5548,7 +5545,7 @@
         <v>190</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5589,10 +5586,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5633,10 +5630,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5677,10 +5674,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5724,7 +5721,7 @@
         <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5768,7 +5765,7 @@
         <v>192</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5812,7 +5809,7 @@
         <v>193</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5856,7 +5853,7 @@
         <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5900,7 +5897,7 @@
         <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -6029,10 +6026,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -6642,7 +6639,7 @@
         <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>152</v>
@@ -8402,13 +8399,13 @@
         <v>272</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8446,13 +8443,13 @@
         <v>272</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8490,13 +8487,13 @@
         <v>272</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8534,13 +8531,13 @@
         <v>272</v>
       </c>
       <c r="B150" t="s">
+        <v>273</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8578,13 +8575,13 @@
         <v>272</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8622,13 +8619,13 @@
         <v>272</v>
       </c>
       <c r="B152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8666,13 +8663,13 @@
         <v>272</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8710,13 +8707,13 @@
         <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8754,13 +8751,13 @@
         <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8798,13 +8795,13 @@
         <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8842,13 +8839,13 @@
         <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8886,13 +8883,13 @@
         <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8930,13 +8927,13 @@
         <v>272</v>
       </c>
       <c r="B159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -8974,13 +8971,13 @@
         <v>272</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9018,13 +9015,13 @@
         <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -9062,13 +9059,13 @@
         <v>272</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9106,13 +9103,13 @@
         <v>272</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9150,13 +9147,13 @@
         <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -9194,13 +9191,13 @@
         <v>272</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9238,13 +9235,13 @@
         <v>272</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9282,13 +9279,13 @@
         <v>272</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9326,13 +9323,13 @@
         <v>272</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9370,13 +9367,13 @@
         <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9414,13 +9411,13 @@
         <v>272</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9458,13 +9455,13 @@
         <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9502,13 +9499,13 @@
         <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9546,13 +9543,13 @@
         <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9590,13 +9587,13 @@
         <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9634,13 +9631,13 @@
         <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9678,13 +9675,13 @@
         <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9722,13 +9719,13 @@
         <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9766,13 +9763,13 @@
         <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9810,13 +9807,13 @@
         <v>272</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9854,13 +9851,13 @@
         <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9898,13 +9895,13 @@
         <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -9942,13 +9939,13 @@
         <v>272</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -9986,13 +9983,13 @@
         <v>272</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -10030,13 +10027,13 @@
         <v>272</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -10074,13 +10071,13 @@
         <v>272</v>
       </c>
       <c r="B185" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -10118,13 +10115,13 @@
         <v>272</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10162,13 +10159,13 @@
         <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10206,13 +10203,13 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
+        <v>367</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10250,13 +10247,13 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10294,13 +10291,13 @@
         <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>273</v>
+        <v>367</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10338,13 +10335,13 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C191" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10382,13 +10379,13 @@
         <v>272</v>
       </c>
       <c r="B192" t="s">
+        <v>296</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10426,13 +10423,13 @@
         <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10470,13 +10467,13 @@
         <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10514,13 +10511,13 @@
         <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10558,13 +10555,13 @@
         <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10602,13 +10599,13 @@
         <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10646,13 +10643,13 @@
         <v>272</v>
       </c>
       <c r="B198" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10690,13 +10687,13 @@
         <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10734,13 +10731,13 @@
         <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10778,13 +10775,13 @@
         <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10822,13 +10819,13 @@
         <v>272</v>
       </c>
       <c r="B202" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10866,13 +10863,13 @@
         <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10910,13 +10907,13 @@
         <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -10954,13 +10951,13 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -10998,13 +10995,13 @@
         <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11042,13 +11039,13 @@
         <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11086,13 +11083,13 @@
         <v>272</v>
       </c>
       <c r="B208" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11130,13 +11127,13 @@
         <v>272</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11174,13 +11171,13 @@
         <v>272</v>
       </c>
       <c r="B210" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11218,13 +11215,13 @@
         <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11262,13 +11259,13 @@
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11306,13 +11303,13 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11350,13 +11347,13 @@
         <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11394,13 +11391,13 @@
         <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11438,13 +11435,13 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
+        <v>307</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11482,13 +11479,13 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11526,13 +11523,13 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11570,13 +11567,13 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11614,13 +11611,13 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11658,13 +11655,13 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11702,13 +11699,13 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11746,13 +11743,13 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -11793,10 +11790,10 @@
         <v>216</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -11837,10 +11834,10 @@
         <v>216</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -11881,10 +11878,10 @@
         <v>216</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -11925,10 +11922,10 @@
         <v>216</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="503">
   <si>
     <t>cartella</t>
   </si>
@@ -1136,346 +1136,412 @@
     <t>A09.mp4</t>
   </si>
   <si>
+    <t>B01.mp4</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>A11.mp4</t>
+  </si>
+  <si>
+    <t>A14.mp4</t>
+  </si>
+  <si>
+    <t>A18.mp4</t>
+  </si>
+  <si>
+    <t>A22.mp4</t>
+  </si>
+  <si>
+    <t>A24.mp4</t>
+  </si>
+  <si>
+    <t>A25.mp4</t>
+  </si>
+  <si>
+    <t>A28.mp4</t>
+  </si>
+  <si>
+    <t>A30.mp4</t>
+  </si>
+  <si>
+    <t>A33.mp4</t>
+  </si>
+  <si>
+    <t>A35.mp4</t>
+  </si>
+  <si>
+    <t>A41.mp4</t>
+  </si>
+  <si>
+    <t>A44.mp4</t>
+  </si>
+  <si>
+    <t>A46.mp4</t>
+  </si>
+  <si>
+    <t>A47.mp4</t>
+  </si>
+  <si>
+    <t>A49.mp4</t>
+  </si>
+  <si>
+    <t>A52.mp4</t>
+  </si>
+  <si>
+    <t>B07.mp4</t>
+  </si>
+  <si>
+    <t>B15.mp4</t>
+  </si>
+  <si>
+    <t>C02.mp4</t>
+  </si>
+  <si>
+    <t>C03.mp4</t>
+  </si>
+  <si>
+    <t>C05.mp4</t>
+  </si>
+  <si>
+    <t>C08.mp4</t>
+  </si>
+  <si>
+    <t>C10.mp4</t>
+  </si>
+  <si>
+    <t>C12.mp4</t>
+  </si>
+  <si>
+    <t>C14.mp4</t>
+  </si>
+  <si>
+    <t>C17.mp4</t>
+  </si>
+  <si>
+    <t>C22.mp4</t>
+  </si>
+  <si>
+    <t>D01.mp4</t>
+  </si>
+  <si>
+    <t>D02.mp4</t>
+  </si>
+  <si>
+    <t>D03.mp4</t>
+  </si>
+  <si>
+    <t>D04.mp4</t>
+  </si>
+  <si>
+    <t>D05.mp4</t>
+  </si>
+  <si>
+    <t>D06.mp4</t>
+  </si>
+  <si>
+    <t>D07.mp4</t>
+  </si>
+  <si>
+    <t>D08.mp4</t>
+  </si>
+  <si>
+    <t>E02.mp4</t>
+  </si>
+  <si>
+    <t>E03.mp4</t>
+  </si>
+  <si>
+    <t>E04.mp4</t>
+  </si>
+  <si>
+    <t>E05.mp4</t>
+  </si>
+  <si>
+    <t>A01.mp4</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02.mp4</t>
+  </si>
+  <si>
+    <t>A03.mp4</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A05.mp4</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A07.mp4</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A10.mp4</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A13.mp4</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A15.mp4</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A19.mp4</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20.mp4</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A23.mp4</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A26.mp4</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27.mp4</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A31.mp4</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A32.mp4</t>
+  </si>
+  <si>
+    <t>A34.mp4</t>
+  </si>
+  <si>
+    <t>A36.mp4</t>
+  </si>
+  <si>
+    <t>A37.mp4</t>
+  </si>
+  <si>
+    <t>A38.mp4</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39.mp4</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A50.mp4</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>C01.mp4</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C04.mp4</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C06.mp4</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07.mp4</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C11.mp4</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C18.mp4</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19.mp4</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C24.mp4</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25.mp4</t>
+  </si>
+  <si>
+    <t>C27.mp4</t>
+  </si>
+  <si>
+    <t>C29.mp4</t>
+  </si>
+  <si>
+    <t>C30.mp4</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31.mp4</t>
+  </si>
+  <si>
+    <t>C34.mp4</t>
+  </si>
+  <si>
+    <t>C35.mp4</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
     <t>Carico Parziale</t>
   </si>
   <si>
-    <t>B01.mp4</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>A11.mp4</t>
-  </si>
-  <si>
-    <t>A14.mp4</t>
-  </si>
-  <si>
-    <t>A18.mp4</t>
-  </si>
-  <si>
-    <t>A22.mp4</t>
-  </si>
-  <si>
-    <t>A24.mp4</t>
-  </si>
-  <si>
-    <t>A25.mp4</t>
-  </si>
-  <si>
-    <t>A28.mp4</t>
-  </si>
-  <si>
-    <t>A30.mp4</t>
-  </si>
-  <si>
-    <t>A33.mp4</t>
-  </si>
-  <si>
-    <t>A35.mp4</t>
-  </si>
-  <si>
-    <t>A41.mp4</t>
-  </si>
-  <si>
-    <t>A44.mp4</t>
-  </si>
-  <si>
-    <t>A46.mp4</t>
-  </si>
-  <si>
-    <t>A47.mp4</t>
-  </si>
-  <si>
-    <t>A49.mp4</t>
-  </si>
-  <si>
-    <t>A52.mp4</t>
-  </si>
-  <si>
-    <t>B07.mp4</t>
-  </si>
-  <si>
-    <t>B15.mp4</t>
-  </si>
-  <si>
-    <t>C02.mp4</t>
-  </si>
-  <si>
-    <t>C03.mp4</t>
-  </si>
-  <si>
-    <t>C05.mp4</t>
-  </si>
-  <si>
-    <t>C08.mp4</t>
-  </si>
-  <si>
-    <t>C10.mp4</t>
-  </si>
-  <si>
-    <t>C12.mp4</t>
-  </si>
-  <si>
-    <t>C14.mp4</t>
-  </si>
-  <si>
-    <t>C17.mp4</t>
-  </si>
-  <si>
-    <t>C22.mp4</t>
-  </si>
-  <si>
-    <t>D01.mp4</t>
-  </si>
-  <si>
-    <t>D02.mp4</t>
-  </si>
-  <si>
-    <t>D03.mp4</t>
-  </si>
-  <si>
-    <t>D04.mp4</t>
-  </si>
-  <si>
-    <t>D05.mp4</t>
-  </si>
-  <si>
-    <t>D06.mp4</t>
-  </si>
-  <si>
-    <t>D07.mp4</t>
-  </si>
-  <si>
-    <t>D08.mp4</t>
-  </si>
-  <si>
-    <t>E02.mp4</t>
-  </si>
-  <si>
-    <t>E03.mp4</t>
-  </si>
-  <si>
-    <t>E04.mp4</t>
-  </si>
-  <si>
-    <t>E05.mp4</t>
-  </si>
-  <si>
-    <t>A01.mp4</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>A02.mp4</t>
-  </si>
-  <si>
-    <t>A03.mp4</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A05.mp4</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>A07.mp4</t>
-  </si>
-  <si>
-    <t>A07</t>
-  </si>
-  <si>
-    <t>A10.mp4</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A13.mp4</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A15.mp4</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A19.mp4</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20.mp4</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A23.mp4</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A26.mp4</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>A27.mp4</t>
-  </si>
-  <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A31.mp4</t>
-  </si>
-  <si>
-    <t>A31</t>
-  </si>
-  <si>
-    <t>A32</t>
-  </si>
-  <si>
-    <t>A34</t>
-  </si>
-  <si>
-    <t>A32.mp4</t>
-  </si>
-  <si>
-    <t>A34.mp4</t>
-  </si>
-  <si>
-    <t>A36.mp4</t>
-  </si>
-  <si>
-    <t>A37.mp4</t>
-  </si>
-  <si>
-    <t>A38.mp4</t>
-  </si>
-  <si>
-    <t>A36</t>
-  </si>
-  <si>
-    <t>A37</t>
-  </si>
-  <si>
-    <t>A38</t>
-  </si>
-  <si>
-    <t>A39.mp4</t>
-  </si>
-  <si>
-    <t>A39</t>
-  </si>
-  <si>
-    <t>A50.mp4</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
-    <t>C01.mp4</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>C04.mp4</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>C06.mp4</t>
-  </si>
-  <si>
-    <t>C06</t>
-  </si>
-  <si>
-    <t>C07.mp4</t>
-  </si>
-  <si>
-    <t>C07</t>
-  </si>
-  <si>
-    <t>C11.mp4</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C18.mp4</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C19.mp4</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>C24.mp4</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25.mp4</t>
-  </si>
-  <si>
-    <t>C27.mp4</t>
-  </si>
-  <si>
-    <t>C29.mp4</t>
-  </si>
-  <si>
-    <t>C30.mp4</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31.mp4</t>
-  </si>
-  <si>
-    <t>C34.mp4</t>
-  </si>
-  <si>
-    <t>C35.mp4</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
+    <t>B04.mp4</t>
+  </si>
+  <si>
+    <t>B05.mp4</t>
+  </si>
+  <si>
+    <t>B06.mp4</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B16.mp4</t>
+  </si>
+  <si>
+    <t>B17.mp4</t>
+  </si>
+  <si>
+    <t>B18.mp4</t>
+  </si>
+  <si>
+    <t>B19.mp4</t>
+  </si>
+  <si>
+    <t>B22.mp4</t>
+  </si>
+  <si>
+    <t>B23.mp4</t>
+  </si>
+  <si>
+    <t>B24.mp4</t>
+  </si>
+  <si>
+    <t>B25.mp4</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
   </si>
 </sst>
 </file>
@@ -1845,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF380"/>
+  <dimension ref="A1:AF391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="123" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -2256,7 +2322,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="240">
+    <row r="9" spans="1:32" ht="225">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +2422,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="240">
+    <row r="11" spans="1:32" ht="225">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +2722,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="240">
+    <row r="17" spans="1:32" ht="225">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2756,7 +2822,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="240">
+    <row r="19" spans="1:32" ht="225">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8402,10 +8468,10 @@
         <v>273</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8446,10 +8512,10 @@
         <v>273</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8490,10 +8556,10 @@
         <v>273</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8578,10 +8644,10 @@
         <v>273</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8666,10 +8732,10 @@
         <v>273</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8798,10 +8864,10 @@
         <v>273</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8842,7 +8908,7 @@
         <v>273</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>278</v>
@@ -8886,10 +8952,10 @@
         <v>273</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -8930,7 +8996,7 @@
         <v>273</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>279</v>
@@ -8974,10 +9040,10 @@
         <v>273</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9018,7 +9084,7 @@
         <v>273</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>280</v>
@@ -9062,10 +9128,10 @@
         <v>273</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9106,10 +9172,10 @@
         <v>273</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9150,7 +9216,7 @@
         <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>281</v>
@@ -9194,10 +9260,10 @@
         <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9238,7 +9304,7 @@
         <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>282</v>
@@ -9282,7 +9348,7 @@
         <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>283</v>
@@ -9326,10 +9392,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9370,10 +9436,10 @@
         <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9414,7 +9480,7 @@
         <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>284</v>
@@ -9458,7 +9524,7 @@
         <v>273</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>285</v>
@@ -9502,10 +9568,10 @@
         <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9546,10 +9612,10 @@
         <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9590,7 +9656,7 @@
         <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>286</v>
@@ -9634,10 +9700,10 @@
         <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9678,7 +9744,7 @@
         <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>287</v>
@@ -9722,10 +9788,10 @@
         <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9766,10 +9832,10 @@
         <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9810,10 +9876,10 @@
         <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9854,10 +9920,10 @@
         <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9898,7 +9964,7 @@
         <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>288</v>
@@ -9942,7 +10008,7 @@
         <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>289</v>
@@ -9986,7 +10052,7 @@
         <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>290</v>
@@ -10030,7 +10096,7 @@
         <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>291</v>
@@ -10074,7 +10140,7 @@
         <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>292</v>
@@ -10118,10 +10184,10 @@
         <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10162,7 +10228,7 @@
         <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>293</v>
@@ -10203,13 +10269,13 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
+        <v>480</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10247,13 +10313,13 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>367</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>386</v>
+        <v>480</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>294</v>
+        <v>484</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10291,13 +10357,13 @@
         <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>367</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>387</v>
+        <v>480</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>295</v>
+        <v>485</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10335,13 +10401,13 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>296</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>451</v>
+        <v>480</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10379,13 +10445,13 @@
         <v>272</v>
       </c>
       <c r="B192" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10423,13 +10489,13 @@
         <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10467,13 +10533,13 @@
         <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10511,13 +10577,13 @@
         <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>390</v>
+        <v>488</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>299</v>
+        <v>496</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10555,13 +10621,13 @@
         <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10599,13 +10665,13 @@
         <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10643,13 +10709,13 @@
         <v>272</v>
       </c>
       <c r="B198" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>391</v>
+        <v>491</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>300</v>
+        <v>499</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10687,13 +10753,13 @@
         <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>392</v>
+        <v>492</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10731,13 +10797,13 @@
         <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10775,13 +10841,13 @@
         <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>302</v>
+        <v>502</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10822,10 +10888,10 @@
         <v>296</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>362</v>
+        <v>450</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>303</v>
+        <v>451</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10866,10 +10932,10 @@
         <v>296</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10910,10 +10976,10 @@
         <v>296</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -10954,10 +11020,10 @@
         <v>296</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -10998,10 +11064,10 @@
         <v>296</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>464</v>
+        <v>299</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11042,10 +11108,10 @@
         <v>296</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11086,10 +11152,10 @@
         <v>296</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11130,10 +11196,10 @@
         <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>471</v>
+        <v>300</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11174,10 +11240,10 @@
         <v>296</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>468</v>
+        <v>391</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>472</v>
+        <v>301</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11218,10 +11284,10 @@
         <v>296</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11262,10 +11328,10 @@
         <v>296</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>470</v>
+        <v>392</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>474</v>
+        <v>302</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11306,10 +11372,10 @@
         <v>296</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11350,10 +11416,10 @@
         <v>296</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>479</v>
+        <v>304</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11394,10 +11460,10 @@
         <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>480</v>
+        <v>305</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11435,13 +11501,13 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>308</v>
+        <v>461</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11479,13 +11545,13 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>309</v>
+        <v>463</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11523,13 +11589,13 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11567,13 +11633,13 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>311</v>
+        <v>465</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11611,13 +11677,13 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11655,13 +11721,13 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11699,13 +11765,13 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11743,13 +11809,13 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -11787,13 +11853,13 @@
         <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>316</v>
+        <v>477</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -11831,13 +11897,13 @@
         <v>272</v>
       </c>
       <c r="B225" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>317</v>
+        <v>478</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -11875,13 +11941,13 @@
         <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>318</v>
+        <v>479</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -11919,13 +11985,13 @@
         <v>272</v>
       </c>
       <c r="B227" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -11959,11 +12025,21 @@
       <c r="AF227" s="2"/>
     </row>
     <row r="228" spans="1:32">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
+      <c r="A228" t="s">
+        <v>272</v>
+      </c>
+      <c r="B228" t="s">
+        <v>307</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
@@ -11993,11 +12069,21 @@
       <c r="AF228" s="2"/>
     </row>
     <row r="229" spans="1:32">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
+      <c r="A229" t="s">
+        <v>272</v>
+      </c>
+      <c r="B229" t="s">
+        <v>307</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
@@ -12027,11 +12113,21 @@
       <c r="AF229" s="2"/>
     </row>
     <row r="230" spans="1:32">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
+      <c r="A230" t="s">
+        <v>272</v>
+      </c>
+      <c r="B230" t="s">
+        <v>307</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
@@ -12061,11 +12157,21 @@
       <c r="AF230" s="2"/>
     </row>
     <row r="231" spans="1:32">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
+      <c r="A231" t="s">
+        <v>272</v>
+      </c>
+      <c r="B231" t="s">
+        <v>307</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
@@ -12095,11 +12201,21 @@
       <c r="AF231" s="2"/>
     </row>
     <row r="232" spans="1:32">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
+      <c r="A232" t="s">
+        <v>272</v>
+      </c>
+      <c r="B232" t="s">
+        <v>307</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
@@ -12129,11 +12245,21 @@
       <c r="AF232" s="2"/>
     </row>
     <row r="233" spans="1:32">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
+      <c r="A233" t="s">
+        <v>272</v>
+      </c>
+      <c r="B233" t="s">
+        <v>307</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
@@ -12163,11 +12289,21 @@
       <c r="AF233" s="2"/>
     </row>
     <row r="234" spans="1:32">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
+      <c r="A234" t="s">
+        <v>272</v>
+      </c>
+      <c r="B234" t="s">
+        <v>307</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
@@ -12197,11 +12333,21 @@
       <c r="AF234" s="2"/>
     </row>
     <row r="235" spans="1:32">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
+      <c r="A235" t="s">
+        <v>272</v>
+      </c>
+      <c r="B235" t="s">
+        <v>216</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
@@ -12231,11 +12377,21 @@
       <c r="AF235" s="2"/>
     </row>
     <row r="236" spans="1:32">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
+      <c r="A236" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236" t="s">
+        <v>216</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
@@ -12265,11 +12421,21 @@
       <c r="AF236" s="2"/>
     </row>
     <row r="237" spans="1:32">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
+      <c r="A237" t="s">
+        <v>272</v>
+      </c>
+      <c r="B237" t="s">
+        <v>216</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
@@ -12299,11 +12465,21 @@
       <c r="AF237" s="2"/>
     </row>
     <row r="238" spans="1:32">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
+      <c r="A238" t="s">
+        <v>272</v>
+      </c>
+      <c r="B238" t="s">
+        <v>216</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
@@ -17160,6 +17336,380 @@
       <c r="AE380" s="2"/>
       <c r="AF380" s="2"/>
     </row>
+    <row r="381" spans="1:32">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
+      <c r="H381" s="2"/>
+      <c r="I381" s="2"/>
+      <c r="J381" s="2"/>
+      <c r="K381" s="2"/>
+      <c r="L381" s="2"/>
+      <c r="M381" s="2"/>
+      <c r="N381" s="2"/>
+      <c r="O381" s="2"/>
+      <c r="P381" s="2"/>
+      <c r="Q381" s="2"/>
+      <c r="R381" s="2"/>
+      <c r="S381" s="2"/>
+      <c r="T381" s="2"/>
+      <c r="U381" s="2"/>
+      <c r="V381" s="2"/>
+      <c r="W381" s="2"/>
+      <c r="X381" s="2"/>
+      <c r="Y381" s="2"/>
+      <c r="Z381" s="2"/>
+      <c r="AA381" s="2"/>
+      <c r="AB381" s="2"/>
+      <c r="AC381" s="2"/>
+      <c r="AD381" s="2"/>
+      <c r="AE381" s="2"/>
+      <c r="AF381" s="2"/>
+    </row>
+    <row r="382" spans="1:32">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
+      <c r="H382" s="2"/>
+      <c r="I382" s="2"/>
+      <c r="J382" s="2"/>
+      <c r="K382" s="2"/>
+      <c r="L382" s="2"/>
+      <c r="M382" s="2"/>
+      <c r="N382" s="2"/>
+      <c r="O382" s="2"/>
+      <c r="P382" s="2"/>
+      <c r="Q382" s="2"/>
+      <c r="R382" s="2"/>
+      <c r="S382" s="2"/>
+      <c r="T382" s="2"/>
+      <c r="U382" s="2"/>
+      <c r="V382" s="2"/>
+      <c r="W382" s="2"/>
+      <c r="X382" s="2"/>
+      <c r="Y382" s="2"/>
+      <c r="Z382" s="2"/>
+      <c r="AA382" s="2"/>
+      <c r="AB382" s="2"/>
+      <c r="AC382" s="2"/>
+      <c r="AD382" s="2"/>
+      <c r="AE382" s="2"/>
+      <c r="AF382" s="2"/>
+    </row>
+    <row r="383" spans="1:32">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
+      <c r="H383" s="2"/>
+      <c r="I383" s="2"/>
+      <c r="J383" s="2"/>
+      <c r="K383" s="2"/>
+      <c r="L383" s="2"/>
+      <c r="M383" s="2"/>
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+      <c r="P383" s="2"/>
+      <c r="Q383" s="2"/>
+      <c r="R383" s="2"/>
+      <c r="S383" s="2"/>
+      <c r="T383" s="2"/>
+      <c r="U383" s="2"/>
+      <c r="V383" s="2"/>
+      <c r="W383" s="2"/>
+      <c r="X383" s="2"/>
+      <c r="Y383" s="2"/>
+      <c r="Z383" s="2"/>
+      <c r="AA383" s="2"/>
+      <c r="AB383" s="2"/>
+      <c r="AC383" s="2"/>
+      <c r="AD383" s="2"/>
+      <c r="AE383" s="2"/>
+      <c r="AF383" s="2"/>
+    </row>
+    <row r="384" spans="1:32">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
+      <c r="H384" s="2"/>
+      <c r="I384" s="2"/>
+      <c r="J384" s="2"/>
+      <c r="K384" s="2"/>
+      <c r="L384" s="2"/>
+      <c r="M384" s="2"/>
+      <c r="N384" s="2"/>
+      <c r="O384" s="2"/>
+      <c r="P384" s="2"/>
+      <c r="Q384" s="2"/>
+      <c r="R384" s="2"/>
+      <c r="S384" s="2"/>
+      <c r="T384" s="2"/>
+      <c r="U384" s="2"/>
+      <c r="V384" s="2"/>
+      <c r="W384" s="2"/>
+      <c r="X384" s="2"/>
+      <c r="Y384" s="2"/>
+      <c r="Z384" s="2"/>
+      <c r="AA384" s="2"/>
+      <c r="AB384" s="2"/>
+      <c r="AC384" s="2"/>
+      <c r="AD384" s="2"/>
+      <c r="AE384" s="2"/>
+      <c r="AF384" s="2"/>
+    </row>
+    <row r="385" spans="1:32">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
+      <c r="H385" s="2"/>
+      <c r="I385" s="2"/>
+      <c r="J385" s="2"/>
+      <c r="K385" s="2"/>
+      <c r="L385" s="2"/>
+      <c r="M385" s="2"/>
+      <c r="N385" s="2"/>
+      <c r="O385" s="2"/>
+      <c r="P385" s="2"/>
+      <c r="Q385" s="2"/>
+      <c r="R385" s="2"/>
+      <c r="S385" s="2"/>
+      <c r="T385" s="2"/>
+      <c r="U385" s="2"/>
+      <c r="V385" s="2"/>
+      <c r="W385" s="2"/>
+      <c r="X385" s="2"/>
+      <c r="Y385" s="2"/>
+      <c r="Z385" s="2"/>
+      <c r="AA385" s="2"/>
+      <c r="AB385" s="2"/>
+      <c r="AC385" s="2"/>
+      <c r="AD385" s="2"/>
+      <c r="AE385" s="2"/>
+      <c r="AF385" s="2"/>
+    </row>
+    <row r="386" spans="1:32">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
+      <c r="H386" s="2"/>
+      <c r="I386" s="2"/>
+      <c r="J386" s="2"/>
+      <c r="K386" s="2"/>
+      <c r="L386" s="2"/>
+      <c r="M386" s="2"/>
+      <c r="N386" s="2"/>
+      <c r="O386" s="2"/>
+      <c r="P386" s="2"/>
+      <c r="Q386" s="2"/>
+      <c r="R386" s="2"/>
+      <c r="S386" s="2"/>
+      <c r="T386" s="2"/>
+      <c r="U386" s="2"/>
+      <c r="V386" s="2"/>
+      <c r="W386" s="2"/>
+      <c r="X386" s="2"/>
+      <c r="Y386" s="2"/>
+      <c r="Z386" s="2"/>
+      <c r="AA386" s="2"/>
+      <c r="AB386" s="2"/>
+      <c r="AC386" s="2"/>
+      <c r="AD386" s="2"/>
+      <c r="AE386" s="2"/>
+      <c r="AF386" s="2"/>
+    </row>
+    <row r="387" spans="1:32">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
+      <c r="H387" s="2"/>
+      <c r="I387" s="2"/>
+      <c r="J387" s="2"/>
+      <c r="K387" s="2"/>
+      <c r="L387" s="2"/>
+      <c r="M387" s="2"/>
+      <c r="N387" s="2"/>
+      <c r="O387" s="2"/>
+      <c r="P387" s="2"/>
+      <c r="Q387" s="2"/>
+      <c r="R387" s="2"/>
+      <c r="S387" s="2"/>
+      <c r="T387" s="2"/>
+      <c r="U387" s="2"/>
+      <c r="V387" s="2"/>
+      <c r="W387" s="2"/>
+      <c r="X387" s="2"/>
+      <c r="Y387" s="2"/>
+      <c r="Z387" s="2"/>
+      <c r="AA387" s="2"/>
+      <c r="AB387" s="2"/>
+      <c r="AC387" s="2"/>
+      <c r="AD387" s="2"/>
+      <c r="AE387" s="2"/>
+      <c r="AF387" s="2"/>
+    </row>
+    <row r="388" spans="1:32">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
+      <c r="H388" s="2"/>
+      <c r="I388" s="2"/>
+      <c r="J388" s="2"/>
+      <c r="K388" s="2"/>
+      <c r="L388" s="2"/>
+      <c r="M388" s="2"/>
+      <c r="N388" s="2"/>
+      <c r="O388" s="2"/>
+      <c r="P388" s="2"/>
+      <c r="Q388" s="2"/>
+      <c r="R388" s="2"/>
+      <c r="S388" s="2"/>
+      <c r="T388" s="2"/>
+      <c r="U388" s="2"/>
+      <c r="V388" s="2"/>
+      <c r="W388" s="2"/>
+      <c r="X388" s="2"/>
+      <c r="Y388" s="2"/>
+      <c r="Z388" s="2"/>
+      <c r="AA388" s="2"/>
+      <c r="AB388" s="2"/>
+      <c r="AC388" s="2"/>
+      <c r="AD388" s="2"/>
+      <c r="AE388" s="2"/>
+      <c r="AF388" s="2"/>
+    </row>
+    <row r="389" spans="1:32">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
+      <c r="H389" s="2"/>
+      <c r="I389" s="2"/>
+      <c r="J389" s="2"/>
+      <c r="K389" s="2"/>
+      <c r="L389" s="2"/>
+      <c r="M389" s="2"/>
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
+      <c r="P389" s="2"/>
+      <c r="Q389" s="2"/>
+      <c r="R389" s="2"/>
+      <c r="S389" s="2"/>
+      <c r="T389" s="2"/>
+      <c r="U389" s="2"/>
+      <c r="V389" s="2"/>
+      <c r="W389" s="2"/>
+      <c r="X389" s="2"/>
+      <c r="Y389" s="2"/>
+      <c r="Z389" s="2"/>
+      <c r="AA389" s="2"/>
+      <c r="AB389" s="2"/>
+      <c r="AC389" s="2"/>
+      <c r="AD389" s="2"/>
+      <c r="AE389" s="2"/>
+      <c r="AF389" s="2"/>
+    </row>
+    <row r="390" spans="1:32">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+      <c r="H390" s="2"/>
+      <c r="I390" s="2"/>
+      <c r="J390" s="2"/>
+      <c r="K390" s="2"/>
+      <c r="L390" s="2"/>
+      <c r="M390" s="2"/>
+      <c r="N390" s="2"/>
+      <c r="O390" s="2"/>
+      <c r="P390" s="2"/>
+      <c r="Q390" s="2"/>
+      <c r="R390" s="2"/>
+      <c r="S390" s="2"/>
+      <c r="T390" s="2"/>
+      <c r="U390" s="2"/>
+      <c r="V390" s="2"/>
+      <c r="W390" s="2"/>
+      <c r="X390" s="2"/>
+      <c r="Y390" s="2"/>
+      <c r="Z390" s="2"/>
+      <c r="AA390" s="2"/>
+      <c r="AB390" s="2"/>
+      <c r="AC390" s="2"/>
+      <c r="AD390" s="2"/>
+      <c r="AE390" s="2"/>
+      <c r="AF390" s="2"/>
+    </row>
+    <row r="391" spans="1:32">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
+      <c r="H391" s="2"/>
+      <c r="I391" s="2"/>
+      <c r="J391" s="2"/>
+      <c r="K391" s="2"/>
+      <c r="L391" s="2"/>
+      <c r="M391" s="2"/>
+      <c r="N391" s="2"/>
+      <c r="O391" s="2"/>
+      <c r="P391" s="2"/>
+      <c r="Q391" s="2"/>
+      <c r="R391" s="2"/>
+      <c r="S391" s="2"/>
+      <c r="T391" s="2"/>
+      <c r="U391" s="2"/>
+      <c r="V391" s="2"/>
+      <c r="W391" s="2"/>
+      <c r="X391" s="2"/>
+      <c r="Y391" s="2"/>
+      <c r="Z391" s="2"/>
+      <c r="AA391" s="2"/>
+      <c r="AB391" s="2"/>
+      <c r="AC391" s="2"/>
+      <c r="AD391" s="2"/>
+      <c r="AE391" s="2"/>
+      <c r="AF391" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="511">
   <si>
     <t>cartella</t>
   </si>
@@ -1542,6 +1542,30 @@
   </si>
   <si>
     <t>B25</t>
+  </si>
+  <si>
+    <t>B08.mp4</t>
+  </si>
+  <si>
+    <t>B09.mp4</t>
+  </si>
+  <si>
+    <t>B11.mp4</t>
+  </si>
+  <si>
+    <t>B13.mp4</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B13</t>
   </si>
 </sst>
 </file>
@@ -1911,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF391"/>
+  <dimension ref="A1:AF395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -2322,7 +2346,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="225">
+    <row r="9" spans="1:32" ht="240">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2446,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="225">
+    <row r="11" spans="1:32" ht="240">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2722,7 +2746,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="225">
+    <row r="17" spans="1:32" ht="240">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2822,7 +2846,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="225">
+    <row r="19" spans="1:32" ht="240">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -10492,10 +10516,10 @@
         <v>480</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>386</v>
+        <v>503</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>295</v>
+        <v>507</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10536,10 +10560,10 @@
         <v>480</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10580,10 +10604,10 @@
         <v>480</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10624,10 +10648,10 @@
         <v>480</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10668,10 +10692,10 @@
         <v>480</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10712,10 +10736,10 @@
         <v>480</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10756,10 +10780,10 @@
         <v>480</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10800,10 +10824,10 @@
         <v>480</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10844,10 +10868,10 @@
         <v>480</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10885,13 +10909,13 @@
         <v>272</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10929,13 +10953,13 @@
         <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>297</v>
+        <v>500</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10973,13 +10997,13 @@
         <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>298</v>
+        <v>501</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11017,13 +11041,13 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11064,10 +11088,10 @@
         <v>296</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>299</v>
+        <v>451</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11108,10 +11132,10 @@
         <v>296</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>455</v>
+        <v>297</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11152,10 +11176,10 @@
         <v>296</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>457</v>
+        <v>298</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11196,10 +11220,10 @@
         <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>300</v>
+        <v>453</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11240,10 +11264,10 @@
         <v>296</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11284,10 +11308,10 @@
         <v>296</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11328,10 +11352,10 @@
         <v>296</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>302</v>
+        <v>457</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11372,10 +11396,10 @@
         <v>296</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11416,10 +11440,10 @@
         <v>296</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11460,10 +11484,10 @@
         <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>305</v>
+        <v>459</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11504,10 +11528,10 @@
         <v>296</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>461</v>
+        <v>302</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11548,10 +11572,10 @@
         <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11592,10 +11616,10 @@
         <v>296</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11636,10 +11660,10 @@
         <v>296</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11680,10 +11704,10 @@
         <v>296</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11724,10 +11748,10 @@
         <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11768,10 +11792,10 @@
         <v>296</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>472</v>
+        <v>306</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11812,10 +11836,10 @@
         <v>296</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -11856,10 +11880,10 @@
         <v>296</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -11900,10 +11924,10 @@
         <v>296</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -11944,10 +11968,10 @@
         <v>296</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -11985,13 +12009,13 @@
         <v>272</v>
       </c>
       <c r="B227" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>308</v>
+        <v>473</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12029,13 +12053,13 @@
         <v>272</v>
       </c>
       <c r="B228" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12073,13 +12097,13 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>310</v>
+        <v>478</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12117,13 +12141,13 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>311</v>
+        <v>479</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12164,10 +12188,10 @@
         <v>307</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12208,10 +12232,10 @@
         <v>307</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12252,10 +12276,10 @@
         <v>307</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12296,10 +12320,10 @@
         <v>307</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12337,13 +12361,13 @@
         <v>272</v>
       </c>
       <c r="B235" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12381,13 +12405,13 @@
         <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12425,13 +12449,13 @@
         <v>272</v>
       </c>
       <c r="B237" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12469,13 +12493,13 @@
         <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12509,11 +12533,21 @@
       <c r="AF238" s="2"/>
     </row>
     <row r="239" spans="1:32">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
+      <c r="A239" t="s">
+        <v>272</v>
+      </c>
+      <c r="B239" t="s">
+        <v>216</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
@@ -12543,11 +12577,21 @@
       <c r="AF239" s="2"/>
     </row>
     <row r="240" spans="1:32">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
+      <c r="A240" t="s">
+        <v>272</v>
+      </c>
+      <c r="B240" t="s">
+        <v>216</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
@@ -12577,11 +12621,21 @@
       <c r="AF240" s="2"/>
     </row>
     <row r="241" spans="1:32">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
+      <c r="A241" t="s">
+        <v>272</v>
+      </c>
+      <c r="B241" t="s">
+        <v>216</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
@@ -12611,11 +12665,21 @@
       <c r="AF241" s="2"/>
     </row>
     <row r="242" spans="1:32">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
+      <c r="A242" t="s">
+        <v>272</v>
+      </c>
+      <c r="B242" t="s">
+        <v>216</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
@@ -17710,6 +17774,142 @@
       <c r="AE391" s="2"/>
       <c r="AF391" s="2"/>
     </row>
+    <row r="392" spans="1:32">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
+      <c r="H392" s="2"/>
+      <c r="I392" s="2"/>
+      <c r="J392" s="2"/>
+      <c r="K392" s="2"/>
+      <c r="L392" s="2"/>
+      <c r="M392" s="2"/>
+      <c r="N392" s="2"/>
+      <c r="O392" s="2"/>
+      <c r="P392" s="2"/>
+      <c r="Q392" s="2"/>
+      <c r="R392" s="2"/>
+      <c r="S392" s="2"/>
+      <c r="T392" s="2"/>
+      <c r="U392" s="2"/>
+      <c r="V392" s="2"/>
+      <c r="W392" s="2"/>
+      <c r="X392" s="2"/>
+      <c r="Y392" s="2"/>
+      <c r="Z392" s="2"/>
+      <c r="AA392" s="2"/>
+      <c r="AB392" s="2"/>
+      <c r="AC392" s="2"/>
+      <c r="AD392" s="2"/>
+      <c r="AE392" s="2"/>
+      <c r="AF392" s="2"/>
+    </row>
+    <row r="393" spans="1:32">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
+      <c r="H393" s="2"/>
+      <c r="I393" s="2"/>
+      <c r="J393" s="2"/>
+      <c r="K393" s="2"/>
+      <c r="L393" s="2"/>
+      <c r="M393" s="2"/>
+      <c r="N393" s="2"/>
+      <c r="O393" s="2"/>
+      <c r="P393" s="2"/>
+      <c r="Q393" s="2"/>
+      <c r="R393" s="2"/>
+      <c r="S393" s="2"/>
+      <c r="T393" s="2"/>
+      <c r="U393" s="2"/>
+      <c r="V393" s="2"/>
+      <c r="W393" s="2"/>
+      <c r="X393" s="2"/>
+      <c r="Y393" s="2"/>
+      <c r="Z393" s="2"/>
+      <c r="AA393" s="2"/>
+      <c r="AB393" s="2"/>
+      <c r="AC393" s="2"/>
+      <c r="AD393" s="2"/>
+      <c r="AE393" s="2"/>
+      <c r="AF393" s="2"/>
+    </row>
+    <row r="394" spans="1:32">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+      <c r="H394" s="2"/>
+      <c r="I394" s="2"/>
+      <c r="J394" s="2"/>
+      <c r="K394" s="2"/>
+      <c r="L394" s="2"/>
+      <c r="M394" s="2"/>
+      <c r="N394" s="2"/>
+      <c r="O394" s="2"/>
+      <c r="P394" s="2"/>
+      <c r="Q394" s="2"/>
+      <c r="R394" s="2"/>
+      <c r="S394" s="2"/>
+      <c r="T394" s="2"/>
+      <c r="U394" s="2"/>
+      <c r="V394" s="2"/>
+      <c r="W394" s="2"/>
+      <c r="X394" s="2"/>
+      <c r="Y394" s="2"/>
+      <c r="Z394" s="2"/>
+      <c r="AA394" s="2"/>
+      <c r="AB394" s="2"/>
+      <c r="AC394" s="2"/>
+      <c r="AD394" s="2"/>
+      <c r="AE394" s="2"/>
+      <c r="AF394" s="2"/>
+    </row>
+    <row r="395" spans="1:32">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+      <c r="H395" s="2"/>
+      <c r="I395" s="2"/>
+      <c r="J395" s="2"/>
+      <c r="K395" s="2"/>
+      <c r="L395" s="2"/>
+      <c r="M395" s="2"/>
+      <c r="N395" s="2"/>
+      <c r="O395" s="2"/>
+      <c r="P395" s="2"/>
+      <c r="Q395" s="2"/>
+      <c r="R395" s="2"/>
+      <c r="S395" s="2"/>
+      <c r="T395" s="2"/>
+      <c r="U395" s="2"/>
+      <c r="V395" s="2"/>
+      <c r="W395" s="2"/>
+      <c r="X395" s="2"/>
+      <c r="Y395" s="2"/>
+      <c r="Z395" s="2"/>
+      <c r="AA395" s="2"/>
+      <c r="AB395" s="2"/>
+      <c r="AC395" s="2"/>
+      <c r="AD395" s="2"/>
+      <c r="AE395" s="2"/>
+      <c r="AF395" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="507">
   <si>
     <t>cartella</t>
   </si>
@@ -1136,12 +1136,6 @@
     <t>A09.mp4</t>
   </si>
   <si>
-    <t>B01.mp4</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
     <t>A11.mp4</t>
   </si>
   <si>
@@ -1478,16 +1472,10 @@
     <t>Carico Parziale</t>
   </si>
   <si>
-    <t>B04.mp4</t>
-  </si>
-  <si>
     <t>B05.mp4</t>
   </si>
   <si>
     <t>B06.mp4</t>
-  </si>
-  <si>
-    <t>B04</t>
   </si>
   <si>
     <t>B05</t>
@@ -1927,7 +1915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1935,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF395"/>
+  <dimension ref="A1:AF393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="A188" sqref="A188:XFD188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -8492,10 +8480,10 @@
         <v>273</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8536,10 +8524,10 @@
         <v>273</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8580,10 +8568,10 @@
         <v>273</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8668,10 +8656,10 @@
         <v>273</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8756,10 +8744,10 @@
         <v>273</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8888,10 +8876,10 @@
         <v>273</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8932,7 +8920,7 @@
         <v>273</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>278</v>
@@ -8976,10 +8964,10 @@
         <v>273</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -9020,7 +9008,7 @@
         <v>273</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>279</v>
@@ -9064,10 +9052,10 @@
         <v>273</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9108,7 +9096,7 @@
         <v>273</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>280</v>
@@ -9152,10 +9140,10 @@
         <v>273</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9196,10 +9184,10 @@
         <v>273</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9240,7 +9228,7 @@
         <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>281</v>
@@ -9284,10 +9272,10 @@
         <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9328,7 +9316,7 @@
         <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>282</v>
@@ -9372,7 +9360,7 @@
         <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>283</v>
@@ -9416,10 +9404,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9460,10 +9448,10 @@
         <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9504,7 +9492,7 @@
         <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>284</v>
@@ -9548,7 +9536,7 @@
         <v>273</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>285</v>
@@ -9592,10 +9580,10 @@
         <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9636,10 +9624,10 @@
         <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9680,7 +9668,7 @@
         <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>286</v>
@@ -9724,10 +9712,10 @@
         <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9768,7 +9756,7 @@
         <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>287</v>
@@ -9812,10 +9800,10 @@
         <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9856,10 +9844,10 @@
         <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9900,10 +9888,10 @@
         <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9944,10 +9932,10 @@
         <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9988,7 +9976,7 @@
         <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>288</v>
@@ -10032,7 +10020,7 @@
         <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>289</v>
@@ -10076,7 +10064,7 @@
         <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>290</v>
@@ -10120,7 +10108,7 @@
         <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>291</v>
@@ -10164,7 +10152,7 @@
         <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>292</v>
@@ -10208,10 +10196,10 @@
         <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10252,7 +10240,7 @@
         <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>293</v>
@@ -10293,13 +10281,13 @@
         <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>368</v>
+        <v>481</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10337,13 +10325,13 @@
         <v>272</v>
       </c>
       <c r="B189" t="s">
+        <v>478</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="D189" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10381,13 +10369,13 @@
         <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>480</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>485</v>
+        <v>294</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10425,13 +10413,13 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>480</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10469,13 +10457,13 @@
         <v>272</v>
       </c>
       <c r="B192" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>385</v>
+        <v>500</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10513,13 +10501,13 @@
         <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10557,13 +10545,13 @@
         <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10601,13 +10589,13 @@
         <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>509</v>
+        <v>295</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10645,13 +10633,13 @@
         <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10689,13 +10677,13 @@
         <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>386</v>
+        <v>484</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>295</v>
+        <v>492</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10733,13 +10721,13 @@
         <v>272</v>
       </c>
       <c r="B198" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10777,13 +10765,13 @@
         <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10821,13 +10809,13 @@
         <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10865,13 +10853,13 @@
         <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10909,13 +10897,13 @@
         <v>272</v>
       </c>
       <c r="B202" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10953,13 +10941,13 @@
         <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10997,13 +10985,13 @@
         <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>480</v>
+        <v>296</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11041,13 +11029,13 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>480</v>
+        <v>296</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>502</v>
+        <v>297</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11088,10 +11076,10 @@
         <v>296</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>451</v>
+        <v>298</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11132,10 +11120,10 @@
         <v>296</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>297</v>
+        <v>451</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11176,10 +11164,10 @@
         <v>296</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11264,10 +11252,10 @@
         <v>296</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11308,10 +11296,10 @@
         <v>296</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>455</v>
+        <v>300</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11352,10 +11340,10 @@
         <v>296</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11396,10 +11384,10 @@
         <v>296</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>300</v>
+        <v>457</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11440,10 +11428,10 @@
         <v>296</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11484,10 +11472,10 @@
         <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>459</v>
+        <v>303</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11528,10 +11516,10 @@
         <v>296</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11572,10 +11560,10 @@
         <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11616,10 +11604,10 @@
         <v>296</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11660,10 +11648,10 @@
         <v>296</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>305</v>
+        <v>461</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11704,10 +11692,10 @@
         <v>296</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>461</v>
+        <v>306</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11792,10 +11780,10 @@
         <v>296</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>306</v>
+        <v>468</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11836,10 +11824,10 @@
         <v>296</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -11968,10 +11956,10 @@
         <v>296</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12012,10 +12000,10 @@
         <v>296</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12097,13 +12085,13 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>478</v>
+        <v>308</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12141,13 +12129,13 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>476</v>
+        <v>395</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>479</v>
+        <v>309</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12191,7 +12179,7 @@
         <v>396</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12235,7 +12223,7 @@
         <v>397</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12279,7 +12267,7 @@
         <v>398</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12323,7 +12311,7 @@
         <v>399</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12367,7 +12355,7 @@
         <v>400</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12411,7 +12399,7 @@
         <v>401</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12449,13 +12437,13 @@
         <v>272</v>
       </c>
       <c r="B237" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12493,13 +12481,13 @@
         <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12543,7 +12531,7 @@
         <v>404</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12587,7 +12575,7 @@
         <v>405</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12621,21 +12609,11 @@
       <c r="AF240" s="2"/>
     </row>
     <row r="241" spans="1:32">
-      <c r="A241" t="s">
-        <v>272</v>
-      </c>
-      <c r="B241" t="s">
-        <v>216</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
@@ -12665,21 +12643,11 @@
       <c r="AF241" s="2"/>
     </row>
     <row r="242" spans="1:32">
-      <c r="A242" t="s">
-        <v>272</v>
-      </c>
-      <c r="B242" t="s">
-        <v>216</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
@@ -17842,74 +17810,6 @@
       <c r="AE393" s="2"/>
       <c r="AF393" s="2"/>
     </row>
-    <row r="394" spans="1:32">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="H394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2"/>
-      <c r="K394" s="2"/>
-      <c r="L394" s="2"/>
-      <c r="M394" s="2"/>
-      <c r="N394" s="2"/>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="S394" s="2"/>
-      <c r="T394" s="2"/>
-      <c r="U394" s="2"/>
-      <c r="V394" s="2"/>
-      <c r="W394" s="2"/>
-      <c r="X394" s="2"/>
-      <c r="Y394" s="2"/>
-      <c r="Z394" s="2"/>
-      <c r="AA394" s="2"/>
-      <c r="AB394" s="2"/>
-      <c r="AC394" s="2"/>
-      <c r="AD394" s="2"/>
-      <c r="AE394" s="2"/>
-      <c r="AF394" s="2"/>
-    </row>
-    <row r="395" spans="1:32">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
-      <c r="I395" s="2"/>
-      <c r="J395" s="2"/>
-      <c r="K395" s="2"/>
-      <c r="L395" s="2"/>
-      <c r="M395" s="2"/>
-      <c r="N395" s="2"/>
-      <c r="O395" s="2"/>
-      <c r="P395" s="2"/>
-      <c r="Q395" s="2"/>
-      <c r="R395" s="2"/>
-      <c r="S395" s="2"/>
-      <c r="T395" s="2"/>
-      <c r="U395" s="2"/>
-      <c r="V395" s="2"/>
-      <c r="W395" s="2"/>
-      <c r="X395" s="2"/>
-      <c r="Y395" s="2"/>
-      <c r="Z395" s="2"/>
-      <c r="AA395" s="2"/>
-      <c r="AB395" s="2"/>
-      <c r="AC395" s="2"/>
-      <c r="AD395" s="2"/>
-      <c r="AE395" s="2"/>
-      <c r="AF395" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="511">
   <si>
     <t>cartella</t>
   </si>
@@ -1554,6 +1554,18 @@
   </si>
   <si>
     <t>B13</t>
+  </si>
+  <si>
+    <t>B01.mp4</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B04.mp4</t>
+  </si>
+  <si>
+    <t>B04</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1923,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF393"/>
+  <dimension ref="A1:AF395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A182" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:XFD188"/>
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
@@ -10284,10 +10296,10 @@
         <v>478</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10328,10 +10340,10 @@
         <v>478</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10371,11 +10383,11 @@
       <c r="B190" t="s">
         <v>478</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>383</v>
+      <c r="C190" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>294</v>
+        <v>481</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10415,11 +10427,11 @@
       <c r="B191" t="s">
         <v>478</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>499</v>
+      <c r="C191" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10460,10 +10472,10 @@
         <v>478</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>500</v>
+        <v>383</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10504,10 +10516,10 @@
         <v>478</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10548,10 +10560,10 @@
         <v>478</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10592,10 +10604,10 @@
         <v>478</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>384</v>
+        <v>501</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>295</v>
+        <v>505</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10636,10 +10648,10 @@
         <v>478</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10680,10 +10692,10 @@
         <v>478</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>492</v>
+        <v>295</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10724,10 +10736,10 @@
         <v>478</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10768,10 +10780,10 @@
         <v>478</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10812,10 +10824,10 @@
         <v>478</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10856,10 +10868,10 @@
         <v>478</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10900,10 +10912,10 @@
         <v>478</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10944,10 +10956,10 @@
         <v>478</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10985,13 +10997,13 @@
         <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11029,13 +11041,13 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11076,10 +11088,10 @@
         <v>296</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>298</v>
+        <v>449</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11120,10 +11132,10 @@
         <v>296</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>451</v>
+        <v>297</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11164,10 +11176,10 @@
         <v>296</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11208,10 +11220,10 @@
         <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11252,10 +11264,10 @@
         <v>296</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11296,10 +11308,10 @@
         <v>296</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>300</v>
+        <v>453</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11340,10 +11352,10 @@
         <v>296</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>301</v>
+        <v>455</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11384,10 +11396,10 @@
         <v>296</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>457</v>
+        <v>300</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11428,10 +11440,10 @@
         <v>296</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11472,10 +11484,10 @@
         <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>303</v>
+        <v>457</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11516,10 +11528,10 @@
         <v>296</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11560,10 +11572,10 @@
         <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11604,10 +11616,10 @@
         <v>296</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>459</v>
+        <v>304</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11648,10 +11660,10 @@
         <v>296</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11692,10 +11704,10 @@
         <v>296</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11736,10 +11748,10 @@
         <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11780,10 +11792,10 @@
         <v>296</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11824,10 +11836,10 @@
         <v>296</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -11868,10 +11880,10 @@
         <v>296</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -11912,10 +11924,10 @@
         <v>296</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -11956,10 +11968,10 @@
         <v>296</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12000,10 +12012,10 @@
         <v>296</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12044,10 +12056,10 @@
         <v>296</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12085,13 +12097,13 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>308</v>
+        <v>476</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12129,13 +12141,13 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>309</v>
+        <v>477</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12176,10 +12188,10 @@
         <v>307</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12220,10 +12232,10 @@
         <v>307</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12264,10 +12276,10 @@
         <v>307</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12308,10 +12320,10 @@
         <v>307</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12352,10 +12364,10 @@
         <v>307</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12396,10 +12408,10 @@
         <v>307</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12437,13 +12449,13 @@
         <v>272</v>
       </c>
       <c r="B237" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12481,13 +12493,13 @@
         <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12528,10 +12540,10 @@
         <v>216</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12572,10 +12584,10 @@
         <v>216</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12609,11 +12621,21 @@
       <c r="AF240" s="2"/>
     </row>
     <row r="241" spans="1:32">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
+      <c r="A241" t="s">
+        <v>272</v>
+      </c>
+      <c r="B241" t="s">
+        <v>216</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
@@ -12643,11 +12665,21 @@
       <c r="AF241" s="2"/>
     </row>
     <row r="242" spans="1:32">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
+      <c r="A242" t="s">
+        <v>272</v>
+      </c>
+      <c r="B242" t="s">
+        <v>216</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
@@ -17810,6 +17842,74 @@
       <c r="AE393" s="2"/>
       <c r="AF393" s="2"/>
     </row>
+    <row r="394" spans="1:32">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+      <c r="H394" s="2"/>
+      <c r="I394" s="2"/>
+      <c r="J394" s="2"/>
+      <c r="K394" s="2"/>
+      <c r="L394" s="2"/>
+      <c r="M394" s="2"/>
+      <c r="N394" s="2"/>
+      <c r="O394" s="2"/>
+      <c r="P394" s="2"/>
+      <c r="Q394" s="2"/>
+      <c r="R394" s="2"/>
+      <c r="S394" s="2"/>
+      <c r="T394" s="2"/>
+      <c r="U394" s="2"/>
+      <c r="V394" s="2"/>
+      <c r="W394" s="2"/>
+      <c r="X394" s="2"/>
+      <c r="Y394" s="2"/>
+      <c r="Z394" s="2"/>
+      <c r="AA394" s="2"/>
+      <c r="AB394" s="2"/>
+      <c r="AC394" s="2"/>
+      <c r="AD394" s="2"/>
+      <c r="AE394" s="2"/>
+      <c r="AF394" s="2"/>
+    </row>
+    <row r="395" spans="1:32">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
+      <c r="H395" s="2"/>
+      <c r="I395" s="2"/>
+      <c r="J395" s="2"/>
+      <c r="K395" s="2"/>
+      <c r="L395" s="2"/>
+      <c r="M395" s="2"/>
+      <c r="N395" s="2"/>
+      <c r="O395" s="2"/>
+      <c r="P395" s="2"/>
+      <c r="Q395" s="2"/>
+      <c r="R395" s="2"/>
+      <c r="S395" s="2"/>
+      <c r="T395" s="2"/>
+      <c r="U395" s="2"/>
+      <c r="V395" s="2"/>
+      <c r="W395" s="2"/>
+      <c r="X395" s="2"/>
+      <c r="Y395" s="2"/>
+      <c r="Z395" s="2"/>
+      <c r="AA395" s="2"/>
+      <c r="AB395" s="2"/>
+      <c r="AC395" s="2"/>
+      <c r="AD395" s="2"/>
+      <c r="AE395" s="2"/>
+      <c r="AF395" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DA75B-EB73-4088-A1CE-A5C5B942AA40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="530">
   <si>
     <t>cartella</t>
   </si>
@@ -1566,13 +1566,77 @@
   </si>
   <si>
     <t>B04</t>
+  </si>
+  <si>
+    <t>Capo Equilibrista</t>
+  </si>
+  <si>
+    <t>Un giocatore viene nominato “capo equilibrista” e tutto ciò che lui fa dovranno farlo anche gli altri giocatori. Il capo equilibrista però metterà a dura prova i suoi amici chiedendo di mantenere l’equilibrio in posizioni sempre più difficili!
+Infatti potrà ordinare di stare su un piede solo per alcuni secondi, poi di stare sulle punte dei piedi a occhi chiusi, poi potrà chiedere di stare su un piede solo in punta di piedi e cantando una canzone….insomma il capo turno inventerà prove di equilibrio sempre più difficili da fare!
+Gli altri giocatori dovranno cercare di non cadere durante le difficili prove, vediamo chi resiste di più!</t>
+  </si>
+  <si>
+    <t>La Cesta di Stelle</t>
+  </si>
+  <si>
+    <t>Materiale: una cesta/un contenitore
+Numero giocatori: potete giocare da soli o in compagnia.</t>
+  </si>
+  <si>
+    <t>Correte a prendere una cesta vuota perché sopra di voi (immaginate) c’è un cielo stellato pieno di stelle da raccogliere! Prendete quelle che vi piacciono di più e mettetele nella cesta, ricordatevi che per prenderle dovete salire sulle punte dei piedi perché le stelle sono molto in alto! Le stelle più grandi e più pesanti prendetele con due mani così siete sicuri di non perderle!</t>
+  </si>
+  <si>
+    <t>EQUI_CapoEquilibrista.pdf</t>
+  </si>
+  <si>
+    <t>EQUI_LaCestaDiStelle.pdf</t>
+  </si>
+  <si>
+    <t>Mosca Cieca</t>
+  </si>
+  <si>
+    <t>Materiale: una benda
+Numero giocatori: 1 mosca bendata e almeno un’altra mosca non bendata</t>
+  </si>
+  <si>
+    <t>La mosca bendata viene fatta ruotare su se stessa fino a perdere l’orientamento, una volta fermata deve cercare di prendere i compagni di gioco. Gli altri giocatori (le altre mosche) le gireranno intorno, cercando di non farsi prendere. Quando uno dei giocatori viene afferrato dalla “mosca”, questa dovrà identificarlo, riconoscendo la sua faccia al tatto. Se la mosca bendata indovina chi ha preso i due giocatori si scambieranno di ruolo! Provate a fare questo gioco anche muovendovi con passettini piccolissimi o passi giganteschi!</t>
+  </si>
+  <si>
+    <t>L'Orologio Svizzero</t>
+  </si>
+  <si>
+    <t>Materiale: 1 corda
+Numero giocatori: almeno 2 giocatori</t>
+  </si>
+  <si>
+    <t>Un giocatore farà l’orologiaio facendo girare la lancetta (la corda) in tondo (girando su se stesso) tenendola bene appoggiata al terreno. I compagni saranno le ore e dovranno disporsi in cerchio attorno all’orologiaio e saltare la corda quando arriva nel punto della loro ora.
+Se siete in tanti giocatori gli orologiai possono essere due, attenzione perché ci saranno due lancette da saltare!
+Potete saltare la corda a piedi uniti, su un solo piede, a piedi alternati…ecc. Provate a saltarla in più modi!</t>
+  </si>
+  <si>
+    <t>RINF_IlGranchio.pdf</t>
+  </si>
+  <si>
+    <t>Il Granchio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero giocatori: almeno in 2 giocatori, provate a sfidare un componente della vostra famiglia! </t>
+  </si>
+  <si>
+    <t>Mettetevi schiena contro schiena e provate a tenere le schiene attaccate ma a spostare i piedi più avanti fino ad arrivare in posizione quasi seduta. Adesso siete diventati un granchio! Provate a spostarvi lateralmente come i granchi tenendo le schiene attaccate e la posizione seduta, vince la coppia che riesce a percorrere il tatto più lungo!</t>
+  </si>
+  <si>
+    <t>EQUI_MoscaCieca.pdf</t>
+  </si>
+  <si>
+    <t>AER_LOrologioSvizzero.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,7 +1745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1733,7 +1797,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1927,26 +1991,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF395"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="123" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="32.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2060,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="165">
+    <row r="2" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2110,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="225">
+    <row r="3" spans="1:32" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +2160,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="195">
+    <row r="4" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2210,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="285">
+    <row r="5" spans="1:32" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2196,7 +2260,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="120">
+    <row r="6" spans="1:32" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2246,7 +2310,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="195">
+    <row r="7" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2296,7 +2360,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="180">
+    <row r="8" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2346,7 +2410,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="240">
+    <row r="9" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2460,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="330">
+    <row r="10" spans="1:32" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2446,7 +2510,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="240">
+    <row r="11" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2496,7 +2560,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="195">
+    <row r="12" spans="1:32" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2546,7 +2610,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="180">
+    <row r="13" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2660,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="165">
+    <row r="14" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2710,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="225">
+    <row r="15" spans="1:32" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -2696,7 +2760,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="180">
+    <row r="16" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2746,7 +2810,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="240">
+    <row r="17" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2860,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="330">
+    <row r="18" spans="1:32" ht="330" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2910,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="240">
+    <row r="19" spans="1:32" ht="240" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2896,24 +2960,28 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" ht="300" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>516</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2940,24 +3008,28 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>517</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>513</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2984,24 +3056,28 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" ht="255" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>528</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3028,24 +3104,28 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" ht="255" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>529</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>521</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3072,24 +3152,28 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>324</v>
+        <v>513</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>515</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3116,24 +3200,28 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>524</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>525</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3160,24 +3248,28 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>326</v>
+        <v>529</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>331</v>
+        <v>521</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3204,24 +3296,28 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" ht="255" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3248,7 +3344,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -3256,10 +3352,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
@@ -3292,7 +3388,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
@@ -3300,10 +3396,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>329</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
@@ -3336,7 +3432,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
@@ -3344,10 +3440,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
@@ -3380,7 +3476,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
@@ -3388,10 +3484,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>8</v>
@@ -3424,7 +3520,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
@@ -3432,10 +3528,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -3468,18 +3564,18 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
@@ -3512,18 +3608,18 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>98</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -3556,18 +3652,18 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -3600,18 +3696,18 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -3644,18 +3740,18 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>329</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -3688,18 +3784,18 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -3732,18 +3828,18 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -3776,18 +3872,18 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -3820,7 +3916,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
@@ -3828,10 +3924,10 @@
         <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
@@ -3864,7 +3960,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
@@ -3872,10 +3968,10 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
@@ -3908,7 +4004,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -3916,10 +4012,10 @@
         <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>8</v>
@@ -3952,7 +4048,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -3960,10 +4056,10 @@
         <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
@@ -3996,7 +4092,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
@@ -4004,10 +4100,10 @@
         <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -4040,7 +4136,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>142</v>
       </c>
@@ -4048,10 +4144,10 @@
         <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -4084,7 +4180,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -4092,10 +4188,10 @@
         <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>8</v>
@@ -4128,7 +4224,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -4136,10 +4232,10 @@
         <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
@@ -4172,7 +4268,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -4180,10 +4276,10 @@
         <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
@@ -4216,7 +4312,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -4224,10 +4320,10 @@
         <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
@@ -4260,7 +4356,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -4268,10 +4364,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>8</v>
@@ -4304,7 +4400,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
@@ -4312,10 +4408,10 @@
         <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
@@ -4348,7 +4444,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -4356,10 +4452,10 @@
         <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -4392,7 +4488,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -4400,10 +4496,10 @@
         <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
@@ -4436,7 +4532,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4444,10 +4540,10 @@
         <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
@@ -4480,7 +4576,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -4488,10 +4584,10 @@
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -4524,7 +4620,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -4532,10 +4628,10 @@
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -4568,7 +4664,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>142</v>
       </c>
@@ -4576,10 +4672,10 @@
         <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -4612,7 +4708,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>142</v>
       </c>
@@ -4620,10 +4716,10 @@
         <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
@@ -4656,7 +4752,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
@@ -4664,10 +4760,10 @@
         <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -4700,18 +4796,18 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -4744,18 +4840,18 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>8</v>
@@ -4788,18 +4884,18 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>323</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -4832,18 +4928,18 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -4876,18 +4972,18 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -4920,18 +5016,18 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -4964,18 +5060,18 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>355</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -5008,18 +5104,18 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>356</v>
+        <v>96</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>357</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
@@ -5052,7 +5148,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>142</v>
       </c>
@@ -5060,10 +5156,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>360</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>8</v>
@@ -5096,7 +5192,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -5104,10 +5200,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>358</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>359</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
@@ -5140,7 +5236,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -5148,10 +5244,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -5184,7 +5280,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -5192,10 +5288,10 @@
         <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
@@ -5228,7 +5324,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -5236,10 +5332,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -5272,7 +5368,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -5280,10 +5376,10 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -5316,7 +5412,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -5324,10 +5420,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>355</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -5360,7 +5456,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>142</v>
       </c>
@@ -5368,10 +5464,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>357</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -5404,7 +5500,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>142</v>
       </c>
@@ -5412,10 +5508,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>137</v>
+        <v>361</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>360</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5448,7 +5544,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -5456,10 +5552,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -5492,7 +5588,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -5500,10 +5596,10 @@
         <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>8</v>
@@ -5536,7 +5632,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
@@ -5544,10 +5640,10 @@
         <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
@@ -5580,7 +5676,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -5588,10 +5684,10 @@
         <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -5624,7 +5720,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -5632,10 +5728,10 @@
         <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
@@ -5668,7 +5764,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -5676,10 +5772,10 @@
         <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>352</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>8</v>
@@ -5712,7 +5808,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -5720,10 +5816,10 @@
         <v>67</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
@@ -5756,7 +5852,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>142</v>
       </c>
@@ -5764,10 +5860,10 @@
         <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>8</v>
@@ -5800,7 +5896,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>142</v>
       </c>
@@ -5808,10 +5904,10 @@
         <v>67</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
@@ -5844,7 +5940,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>142</v>
       </c>
@@ -5852,10 +5948,10 @@
         <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>8</v>
@@ -5888,7 +5984,7 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>142</v>
       </c>
@@ -5896,10 +5992,10 @@
         <v>67</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>341</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
@@ -5932,7 +6028,7 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>142</v>
       </c>
@@ -5940,10 +6036,10 @@
         <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>8</v>
@@ -5976,7 +6072,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>142</v>
       </c>
@@ -5984,10 +6080,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -6020,7 +6116,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>142</v>
       </c>
@@ -6028,10 +6124,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -6064,7 +6160,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>142</v>
       </c>
@@ -6072,10 +6168,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -6108,7 +6204,7 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>142</v>
       </c>
@@ -6116,10 +6212,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -6152,7 +6248,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>142</v>
       </c>
@@ -6160,10 +6256,10 @@
         <v>67</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -6196,7 +6292,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>142</v>
       </c>
@@ -6204,10 +6300,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -6240,7 +6336,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>142</v>
       </c>
@@ -6248,10 +6344,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -6284,7 +6380,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>142</v>
       </c>
@@ -6292,10 +6388,10 @@
         <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -6328,7 +6424,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>142</v>
       </c>
@@ -6336,10 +6432,10 @@
         <v>67</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -6372,7 +6468,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>142</v>
       </c>
@@ -6380,10 +6476,10 @@
         <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>8</v>
@@ -6416,7 +6512,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>142</v>
       </c>
@@ -6424,10 +6520,10 @@
         <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
@@ -6460,7 +6556,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
@@ -6468,10 +6564,10 @@
         <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -6504,18 +6600,18 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32">
-      <c r="A102" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" t="s">
-        <v>61</v>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
@@ -6548,18 +6644,18 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32">
-      <c r="A103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B103" t="s">
-        <v>61</v>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>8</v>
@@ -6592,18 +6688,18 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32">
-      <c r="A104" t="s">
-        <v>143</v>
-      </c>
-      <c r="B104" t="s">
-        <v>61</v>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
@@ -6636,18 +6732,18 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32">
-      <c r="A105" t="s">
-        <v>143</v>
-      </c>
-      <c r="B105" t="s">
-        <v>61</v>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>8</v>
@@ -6680,18 +6776,18 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32">
-      <c r="A106" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" t="s">
-        <v>61</v>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
@@ -6724,18 +6820,18 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32">
-      <c r="A107" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" t="s">
-        <v>320</v>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>8</v>
@@ -6768,18 +6864,18 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32">
-      <c r="A108" t="s">
-        <v>143</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
@@ -6812,18 +6908,18 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32">
-      <c r="A109" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>8</v>
@@ -6856,18 +6952,18 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -6900,18 +6996,18 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32">
-      <c r="A111" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>4</v>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -6944,18 +7040,18 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32">
-      <c r="A112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>4</v>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -6988,18 +7084,18 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32">
-      <c r="A113" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>4</v>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -7032,18 +7128,18 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32">
-      <c r="A114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>4</v>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -7076,18 +7172,18 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32">
-      <c r="A115" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>216</v>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" t="s">
+        <v>320</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -7120,18 +7216,18 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32">
-      <c r="A116" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>216</v>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -7164,18 +7260,18 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32">
-      <c r="A117" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>216</v>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" t="s">
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -7208,18 +7304,18 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32">
-      <c r="A118" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>216</v>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -7252,18 +7348,18 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -7296,18 +7392,18 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -7340,18 +7436,18 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7384,18 +7480,18 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7428,7 +7524,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>142</v>
       </c>
@@ -7436,10 +7532,10 @@
         <v>216</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7472,7 +7568,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>142</v>
       </c>
@@ -7480,10 +7576,10 @@
         <v>216</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7516,18 +7612,18 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7560,18 +7656,18 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7604,18 +7700,18 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7648,18 +7744,18 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7692,18 +7788,18 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7736,18 +7832,18 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7780,18 +7876,18 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7824,18 +7920,18 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7868,18 +7964,18 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>67</v>
+      <c r="B133" t="s">
+        <v>237</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -7912,18 +8008,18 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>259</v>
+      <c r="B134" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -7956,18 +8052,18 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -8000,18 +8096,18 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -8044,18 +8140,18 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -8088,18 +8184,18 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>263</v>
+        <v>67</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -8132,18 +8228,18 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>264</v>
+        <v>67</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -8176,18 +8272,18 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>265</v>
+        <v>67</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -8220,18 +8316,18 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>266</v>
+        <v>67</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -8264,7 +8360,7 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -8272,10 +8368,10 @@
         <v>61</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -8308,7 +8404,7 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -8316,10 +8412,10 @@
         <v>61</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -8352,7 +8448,7 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -8360,10 +8456,10 @@
         <v>61</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -8396,7 +8492,7 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -8404,10 +8500,10 @@
         <v>61</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8440,7 +8536,7 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -8448,10 +8544,10 @@
         <v>61</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8484,18 +8580,18 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>406</v>
+        <v>264</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>407</v>
+        <v>255</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8528,18 +8624,18 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>410</v>
+        <v>256</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8572,18 +8668,18 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>409</v>
+        <v>266</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>411</v>
+        <v>257</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8616,18 +8712,18 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32">
-      <c r="A150" t="s">
-        <v>272</v>
-      </c>
-      <c r="B150" t="s">
-        <v>273</v>
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>363</v>
+        <v>267</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8660,18 +8756,18 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>412</v>
+        <v>268</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8704,18 +8800,18 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32">
-      <c r="A152" t="s">
-        <v>272</v>
-      </c>
-      <c r="B152" t="s">
-        <v>273</v>
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8748,18 +8844,18 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8792,18 +8888,18 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32">
-      <c r="A154" t="s">
-        <v>272</v>
-      </c>
-      <c r="B154" t="s">
-        <v>273</v>
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8836,18 +8932,18 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32">
-      <c r="A155" t="s">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>277</v>
+        <v>407</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -8880,18 +8976,18 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32">
-      <c r="A156" t="s">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -8924,18 +9020,18 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32">
-      <c r="A157" t="s">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>278</v>
+        <v>411</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -8968,7 +9064,7 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -8976,10 +9072,10 @@
         <v>273</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -9012,18 +9108,18 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32">
-      <c r="A159" t="s">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>279</v>
+        <v>413</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -9056,7 +9152,7 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>272</v>
       </c>
@@ -9064,10 +9160,10 @@
         <v>273</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>421</v>
+        <v>275</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9100,18 +9196,18 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32">
-      <c r="A161" t="s">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>280</v>
+        <v>415</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -9144,7 +9240,7 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>272</v>
       </c>
@@ -9152,10 +9248,10 @@
         <v>273</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>423</v>
+        <v>276</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9188,7 +9284,7 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>272</v>
       </c>
@@ -9196,10 +9292,10 @@
         <v>273</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>425</v>
+        <v>277</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9232,7 +9328,7 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>272</v>
       </c>
@@ -9240,10 +9336,10 @@
         <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>281</v>
+        <v>417</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -9276,7 +9372,7 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>272</v>
       </c>
@@ -9284,10 +9380,10 @@
         <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>427</v>
+        <v>278</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9320,7 +9416,7 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>272</v>
       </c>
@@ -9328,10 +9424,10 @@
         <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>282</v>
+        <v>419</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9364,7 +9460,7 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>272</v>
       </c>
@@ -9372,10 +9468,10 @@
         <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9408,7 +9504,7 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>272</v>
       </c>
@@ -9416,10 +9512,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9452,7 +9548,7 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>272</v>
       </c>
@@ -9460,10 +9556,10 @@
         <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>431</v>
+        <v>280</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9496,7 +9592,7 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>272</v>
       </c>
@@ -9504,10 +9600,10 @@
         <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>284</v>
+        <v>423</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9540,7 +9636,7 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>272</v>
       </c>
@@ -9548,10 +9644,10 @@
         <v>273</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>285</v>
+        <v>425</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9584,7 +9680,7 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>272</v>
       </c>
@@ -9592,10 +9688,10 @@
         <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>433</v>
+        <v>281</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9628,7 +9724,7 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>272</v>
       </c>
@@ -9636,10 +9732,10 @@
         <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9672,7 +9768,7 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>272</v>
       </c>
@@ -9680,10 +9776,10 @@
         <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9716,7 +9812,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>272</v>
       </c>
@@ -9724,10 +9820,10 @@
         <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>435</v>
+        <v>283</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9760,7 +9856,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>272</v>
       </c>
@@ -9768,10 +9864,10 @@
         <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>287</v>
+        <v>429</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9804,7 +9900,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>272</v>
       </c>
@@ -9812,10 +9908,10 @@
         <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9848,7 +9944,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>272</v>
       </c>
@@ -9856,10 +9952,10 @@
         <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>442</v>
+        <v>284</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -9892,7 +9988,7 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -9900,10 +9996,10 @@
         <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>443</v>
+        <v>285</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -9936,7 +10032,7 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>272</v>
       </c>
@@ -9944,10 +10040,10 @@
         <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -9980,7 +10076,7 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>272</v>
       </c>
@@ -9988,10 +10084,10 @@
         <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>288</v>
+        <v>434</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -10024,7 +10120,7 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -10032,10 +10128,10 @@
         <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -10068,7 +10164,7 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -10076,10 +10172,10 @@
         <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -10112,7 +10208,7 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -10120,10 +10216,10 @@
         <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -10156,7 +10252,7 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -10164,10 +10260,10 @@
         <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -10200,7 +10296,7 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -10208,10 +10304,10 @@
         <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10244,7 +10340,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>272</v>
       </c>
@@ -10252,10 +10348,10 @@
         <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>293</v>
+        <v>443</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10288,18 +10384,18 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>272</v>
       </c>
       <c r="B188" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10332,18 +10428,18 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>272</v>
       </c>
       <c r="B189" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>509</v>
+        <v>377</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>510</v>
+        <v>288</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10376,18 +10472,18 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>479</v>
+        <v>378</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>481</v>
+        <v>289</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10420,18 +10516,18 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>480</v>
+        <v>379</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>482</v>
+        <v>290</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10464,18 +10560,18 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>272</v>
       </c>
       <c r="B192" t="s">
-        <v>478</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>383</v>
+        <v>273</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10508,18 +10604,18 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>478</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>499</v>
+        <v>273</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>503</v>
+        <v>292</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10552,18 +10648,18 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>478</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>500</v>
+        <v>273</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10596,18 +10692,18 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>478</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>501</v>
+        <v>273</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>505</v>
+        <v>293</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10640,18 +10736,18 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>272</v>
       </c>
       <c r="B196" t="s">
         <v>478</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>502</v>
+      <c r="C196" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10684,18 +10780,18 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>272</v>
       </c>
       <c r="B197" t="s">
         <v>478</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>384</v>
+      <c r="C197" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>295</v>
+        <v>510</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10728,18 +10824,18 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>272</v>
       </c>
       <c r="B198" t="s">
         <v>478</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>483</v>
+      <c r="C198" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10772,18 +10868,18 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>272</v>
       </c>
       <c r="B199" t="s">
         <v>478</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>484</v>
+      <c r="C199" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10816,7 +10912,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>272</v>
       </c>
@@ -10824,10 +10920,10 @@
         <v>478</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>493</v>
+        <v>294</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10860,7 +10956,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>272</v>
       </c>
@@ -10868,10 +10964,10 @@
         <v>478</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -10904,7 +11000,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>272</v>
       </c>
@@ -10912,10 +11008,10 @@
         <v>478</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -10948,7 +11044,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>272</v>
       </c>
@@ -10956,10 +11052,10 @@
         <v>478</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -10992,7 +11088,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>272</v>
       </c>
@@ -11000,10 +11096,10 @@
         <v>478</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11036,7 +11132,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>272</v>
       </c>
@@ -11044,10 +11140,10 @@
         <v>478</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>490</v>
+        <v>384</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11080,18 +11176,18 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11124,18 +11220,18 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>385</v>
+        <v>484</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>297</v>
+        <v>492</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11168,18 +11264,18 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>272</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11212,18 +11308,18 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>272</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11256,18 +11352,18 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>272</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>299</v>
+        <v>495</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11300,18 +11396,18 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11344,18 +11440,18 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11388,18 +11484,18 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11432,7 +11528,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>272</v>
       </c>
@@ -11440,10 +11536,10 @@
         <v>296</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>301</v>
+        <v>449</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11476,7 +11572,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>272</v>
       </c>
@@ -11484,10 +11580,10 @@
         <v>296</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>457</v>
+        <v>297</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11520,7 +11616,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>272</v>
       </c>
@@ -11528,10 +11624,10 @@
         <v>296</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11564,7 +11660,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>272</v>
       </c>
@@ -11572,10 +11668,10 @@
         <v>296</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>362</v>
+        <v>450</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>303</v>
+        <v>451</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11608,7 +11704,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -11616,10 +11712,10 @@
         <v>296</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11652,7 +11748,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>272</v>
       </c>
@@ -11660,10 +11756,10 @@
         <v>296</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>305</v>
+        <v>453</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11696,7 +11792,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>272</v>
       </c>
@@ -11704,10 +11800,10 @@
         <v>296</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11740,7 +11836,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>272</v>
       </c>
@@ -11748,10 +11844,10 @@
         <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>461</v>
+        <v>300</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11784,7 +11880,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>272</v>
       </c>
@@ -11792,10 +11888,10 @@
         <v>296</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11828,7 +11924,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>272</v>
       </c>
@@ -11836,10 +11932,10 @@
         <v>296</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -11872,7 +11968,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>272</v>
       </c>
@@ -11880,10 +11976,10 @@
         <v>296</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>468</v>
+        <v>302</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -11916,7 +12012,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>272</v>
       </c>
@@ -11924,10 +12020,10 @@
         <v>296</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>465</v>
+        <v>362</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>469</v>
+        <v>303</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -11960,7 +12056,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>272</v>
       </c>
@@ -11968,10 +12064,10 @@
         <v>296</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>470</v>
+        <v>304</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12004,7 +12100,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>272</v>
       </c>
@@ -12012,10 +12108,10 @@
         <v>296</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>471</v>
+        <v>305</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12048,7 +12144,7 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>272</v>
       </c>
@@ -12056,10 +12152,10 @@
         <v>296</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12092,7 +12188,7 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>272</v>
       </c>
@@ -12100,10 +12196,10 @@
         <v>296</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12136,7 +12232,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>272</v>
       </c>
@@ -12144,10 +12240,10 @@
         <v>296</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>477</v>
+        <v>306</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12180,18 +12276,18 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>272</v>
       </c>
       <c r="B231" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>308</v>
+        <v>463</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12224,18 +12320,18 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>272</v>
       </c>
       <c r="B232" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>309</v>
+        <v>468</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12268,18 +12364,18 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>272</v>
       </c>
       <c r="B233" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>310</v>
+        <v>469</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12312,18 +12408,18 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>272</v>
       </c>
       <c r="B234" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>311</v>
+        <v>470</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12356,18 +12452,18 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>272</v>
       </c>
       <c r="B235" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>312</v>
+        <v>471</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12400,18 +12496,18 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>313</v>
+        <v>475</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12444,18 +12540,18 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>272</v>
       </c>
       <c r="B237" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>314</v>
+        <v>476</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12488,18 +12584,18 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12532,18 +12628,18 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12576,18 +12672,18 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12620,18 +12716,18 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>8</v>
@@ -12664,18 +12760,18 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>272</v>
       </c>
       <c r="B242" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
@@ -12708,12 +12804,22 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
+    <row r="243" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>272</v>
+      </c>
+      <c r="B243" t="s">
+        <v>307</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
@@ -12742,12 +12848,22 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>272</v>
+      </c>
+      <c r="B244" t="s">
+        <v>307</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
@@ -12776,12 +12892,22 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>272</v>
+      </c>
+      <c r="B245" t="s">
+        <v>307</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
@@ -12810,12 +12936,22 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>272</v>
+      </c>
+      <c r="B246" t="s">
+        <v>307</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
@@ -12844,12 +12980,22 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>272</v>
+      </c>
+      <c r="B247" t="s">
+        <v>216</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
@@ -12878,12 +13024,22 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>272</v>
+      </c>
+      <c r="B248" t="s">
+        <v>216</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
@@ -12912,12 +13068,22 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>272</v>
+      </c>
+      <c r="B249" t="s">
+        <v>216</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
@@ -12946,12 +13112,22 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>272</v>
+      </c>
+      <c r="B250" t="s">
+        <v>216</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
@@ -12980,7 +13156,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13014,7 +13190,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13048,7 +13224,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13082,7 +13258,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13116,7 +13292,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13150,7 +13326,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13184,7 +13360,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13218,7 +13394,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13252,7 +13428,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -13286,7 +13462,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13320,7 +13496,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13354,7 +13530,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13388,7 +13564,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13422,7 +13598,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13456,7 +13632,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13490,7 +13666,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13524,7 +13700,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13558,7 +13734,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13592,7 +13768,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13626,7 +13802,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13660,7 +13836,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13694,7 +13870,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13728,7 +13904,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13762,7 +13938,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13796,7 +13972,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13830,7 +14006,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13864,7 +14040,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13898,7 +14074,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13932,7 +14108,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13966,7 +14142,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -14000,7 +14176,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -14034,7 +14210,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14068,7 +14244,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14102,7 +14278,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14136,7 +14312,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14170,7 +14346,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14204,7 +14380,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14238,7 +14414,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14272,7 +14448,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14306,7 +14482,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14340,7 +14516,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14374,7 +14550,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14408,7 +14584,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14442,7 +14618,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14476,7 +14652,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14510,7 +14686,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14544,7 +14720,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14578,7 +14754,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14612,7 +14788,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14646,7 +14822,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14680,7 +14856,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14714,7 +14890,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -14748,7 +14924,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -14782,7 +14958,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -14816,7 +14992,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -14850,7 +15026,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -14884,7 +15060,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -14918,7 +15094,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -14952,7 +15128,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -14986,7 +15162,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -15020,7 +15196,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -15054,7 +15230,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -15088,7 +15264,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -15122,7 +15298,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -15156,7 +15332,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -15190,7 +15366,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -15224,7 +15400,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15258,7 +15434,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -15292,7 +15468,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -15326,7 +15502,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -15360,7 +15536,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -15394,7 +15570,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -15428,7 +15604,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -15462,7 +15638,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -15496,7 +15672,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -15530,7 +15706,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -15564,7 +15740,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -15598,7 +15774,7 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
     </row>
-    <row r="328" spans="1:32">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -15632,7 +15808,7 @@
       <c r="AE328" s="2"/>
       <c r="AF328" s="2"/>
     </row>
-    <row r="329" spans="1:32">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -15666,7 +15842,7 @@
       <c r="AE329" s="2"/>
       <c r="AF329" s="2"/>
     </row>
-    <row r="330" spans="1:32">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -15700,7 +15876,7 @@
       <c r="AE330" s="2"/>
       <c r="AF330" s="2"/>
     </row>
-    <row r="331" spans="1:32">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -15734,7 +15910,7 @@
       <c r="AE331" s="2"/>
       <c r="AF331" s="2"/>
     </row>
-    <row r="332" spans="1:32">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -15768,7 +15944,7 @@
       <c r="AE332" s="2"/>
       <c r="AF332" s="2"/>
     </row>
-    <row r="333" spans="1:32">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -15802,7 +15978,7 @@
       <c r="AE333" s="2"/>
       <c r="AF333" s="2"/>
     </row>
-    <row r="334" spans="1:32">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -15836,7 +16012,7 @@
       <c r="AE334" s="2"/>
       <c r="AF334" s="2"/>
     </row>
-    <row r="335" spans="1:32">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -15870,7 +16046,7 @@
       <c r="AE335" s="2"/>
       <c r="AF335" s="2"/>
     </row>
-    <row r="336" spans="1:32">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -15904,7 +16080,7 @@
       <c r="AE336" s="2"/>
       <c r="AF336" s="2"/>
     </row>
-    <row r="337" spans="1:32">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -15938,7 +16114,7 @@
       <c r="AE337" s="2"/>
       <c r="AF337" s="2"/>
     </row>
-    <row r="338" spans="1:32">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -15972,7 +16148,7 @@
       <c r="AE338" s="2"/>
       <c r="AF338" s="2"/>
     </row>
-    <row r="339" spans="1:32">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -16006,7 +16182,7 @@
       <c r="AE339" s="2"/>
       <c r="AF339" s="2"/>
     </row>
-    <row r="340" spans="1:32">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -16040,7 +16216,7 @@
       <c r="AE340" s="2"/>
       <c r="AF340" s="2"/>
     </row>
-    <row r="341" spans="1:32">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -16074,7 +16250,7 @@
       <c r="AE341" s="2"/>
       <c r="AF341" s="2"/>
     </row>
-    <row r="342" spans="1:32">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -16108,7 +16284,7 @@
       <c r="AE342" s="2"/>
       <c r="AF342" s="2"/>
     </row>
-    <row r="343" spans="1:32">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -16142,7 +16318,7 @@
       <c r="AE343" s="2"/>
       <c r="AF343" s="2"/>
     </row>
-    <row r="344" spans="1:32">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -16176,7 +16352,7 @@
       <c r="AE344" s="2"/>
       <c r="AF344" s="2"/>
     </row>
-    <row r="345" spans="1:32">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -16210,7 +16386,7 @@
       <c r="AE345" s="2"/>
       <c r="AF345" s="2"/>
     </row>
-    <row r="346" spans="1:32">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -16244,7 +16420,7 @@
       <c r="AE346" s="2"/>
       <c r="AF346" s="2"/>
     </row>
-    <row r="347" spans="1:32">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -16278,7 +16454,7 @@
       <c r="AE347" s="2"/>
       <c r="AF347" s="2"/>
     </row>
-    <row r="348" spans="1:32">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -16312,7 +16488,7 @@
       <c r="AE348" s="2"/>
       <c r="AF348" s="2"/>
     </row>
-    <row r="349" spans="1:32">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -16346,7 +16522,7 @@
       <c r="AE349" s="2"/>
       <c r="AF349" s="2"/>
     </row>
-    <row r="350" spans="1:32">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -16380,7 +16556,7 @@
       <c r="AE350" s="2"/>
       <c r="AF350" s="2"/>
     </row>
-    <row r="351" spans="1:32">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -16414,7 +16590,7 @@
       <c r="AE351" s="2"/>
       <c r="AF351" s="2"/>
     </row>
-    <row r="352" spans="1:32">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -16448,7 +16624,7 @@
       <c r="AE352" s="2"/>
       <c r="AF352" s="2"/>
     </row>
-    <row r="353" spans="1:32">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -16482,7 +16658,7 @@
       <c r="AE353" s="2"/>
       <c r="AF353" s="2"/>
     </row>
-    <row r="354" spans="1:32">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -16516,7 +16692,7 @@
       <c r="AE354" s="2"/>
       <c r="AF354" s="2"/>
     </row>
-    <row r="355" spans="1:32">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -16550,7 +16726,7 @@
       <c r="AE355" s="2"/>
       <c r="AF355" s="2"/>
     </row>
-    <row r="356" spans="1:32">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -16584,7 +16760,7 @@
       <c r="AE356" s="2"/>
       <c r="AF356" s="2"/>
     </row>
-    <row r="357" spans="1:32">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -16618,7 +16794,7 @@
       <c r="AE357" s="2"/>
       <c r="AF357" s="2"/>
     </row>
-    <row r="358" spans="1:32">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -16652,7 +16828,7 @@
       <c r="AE358" s="2"/>
       <c r="AF358" s="2"/>
     </row>
-    <row r="359" spans="1:32">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -16686,7 +16862,7 @@
       <c r="AE359" s="2"/>
       <c r="AF359" s="2"/>
     </row>
-    <row r="360" spans="1:32">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -16720,7 +16896,7 @@
       <c r="AE360" s="2"/>
       <c r="AF360" s="2"/>
     </row>
-    <row r="361" spans="1:32">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -16754,7 +16930,7 @@
       <c r="AE361" s="2"/>
       <c r="AF361" s="2"/>
     </row>
-    <row r="362" spans="1:32">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -16788,7 +16964,7 @@
       <c r="AE362" s="2"/>
       <c r="AF362" s="2"/>
     </row>
-    <row r="363" spans="1:32">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -16822,7 +16998,7 @@
       <c r="AE363" s="2"/>
       <c r="AF363" s="2"/>
     </row>
-    <row r="364" spans="1:32">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -16856,7 +17032,7 @@
       <c r="AE364" s="2"/>
       <c r="AF364" s="2"/>
     </row>
-    <row r="365" spans="1:32">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -16890,7 +17066,7 @@
       <c r="AE365" s="2"/>
       <c r="AF365" s="2"/>
     </row>
-    <row r="366" spans="1:32">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -16924,7 +17100,7 @@
       <c r="AE366" s="2"/>
       <c r="AF366" s="2"/>
     </row>
-    <row r="367" spans="1:32">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -16958,7 +17134,7 @@
       <c r="AE367" s="2"/>
       <c r="AF367" s="2"/>
     </row>
-    <row r="368" spans="1:32">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -16992,7 +17168,7 @@
       <c r="AE368" s="2"/>
       <c r="AF368" s="2"/>
     </row>
-    <row r="369" spans="1:32">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -17026,7 +17202,7 @@
       <c r="AE369" s="2"/>
       <c r="AF369" s="2"/>
     </row>
-    <row r="370" spans="1:32">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -17060,7 +17236,7 @@
       <c r="AE370" s="2"/>
       <c r="AF370" s="2"/>
     </row>
-    <row r="371" spans="1:32">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -17094,7 +17270,7 @@
       <c r="AE371" s="2"/>
       <c r="AF371" s="2"/>
     </row>
-    <row r="372" spans="1:32">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -17128,7 +17304,7 @@
       <c r="AE372" s="2"/>
       <c r="AF372" s="2"/>
     </row>
-    <row r="373" spans="1:32">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -17162,7 +17338,7 @@
       <c r="AE373" s="2"/>
       <c r="AF373" s="2"/>
     </row>
-    <row r="374" spans="1:32">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -17196,7 +17372,7 @@
       <c r="AE374" s="2"/>
       <c r="AF374" s="2"/>
     </row>
-    <row r="375" spans="1:32">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -17230,7 +17406,7 @@
       <c r="AE375" s="2"/>
       <c r="AF375" s="2"/>
     </row>
-    <row r="376" spans="1:32">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -17264,7 +17440,7 @@
       <c r="AE376" s="2"/>
       <c r="AF376" s="2"/>
     </row>
-    <row r="377" spans="1:32">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -17298,7 +17474,7 @@
       <c r="AE377" s="2"/>
       <c r="AF377" s="2"/>
     </row>
-    <row r="378" spans="1:32">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -17332,7 +17508,7 @@
       <c r="AE378" s="2"/>
       <c r="AF378" s="2"/>
     </row>
-    <row r="379" spans="1:32">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -17366,7 +17542,7 @@
       <c r="AE379" s="2"/>
       <c r="AF379" s="2"/>
     </row>
-    <row r="380" spans="1:32">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -17400,7 +17576,7 @@
       <c r="AE380" s="2"/>
       <c r="AF380" s="2"/>
     </row>
-    <row r="381" spans="1:32">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -17434,7 +17610,7 @@
       <c r="AE381" s="2"/>
       <c r="AF381" s="2"/>
     </row>
-    <row r="382" spans="1:32">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -17468,7 +17644,7 @@
       <c r="AE382" s="2"/>
       <c r="AF382" s="2"/>
     </row>
-    <row r="383" spans="1:32">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -17502,7 +17678,7 @@
       <c r="AE383" s="2"/>
       <c r="AF383" s="2"/>
     </row>
-    <row r="384" spans="1:32">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -17536,7 +17712,7 @@
       <c r="AE384" s="2"/>
       <c r="AF384" s="2"/>
     </row>
-    <row r="385" spans="1:32">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -17570,7 +17746,7 @@
       <c r="AE385" s="2"/>
       <c r="AF385" s="2"/>
     </row>
-    <row r="386" spans="1:32">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -17604,7 +17780,7 @@
       <c r="AE386" s="2"/>
       <c r="AF386" s="2"/>
     </row>
-    <row r="387" spans="1:32">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -17638,7 +17814,7 @@
       <c r="AE387" s="2"/>
       <c r="AF387" s="2"/>
     </row>
-    <row r="388" spans="1:32">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -17672,7 +17848,7 @@
       <c r="AE388" s="2"/>
       <c r="AF388" s="2"/>
     </row>
-    <row r="389" spans="1:32">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -17706,7 +17882,7 @@
       <c r="AE389" s="2"/>
       <c r="AF389" s="2"/>
     </row>
-    <row r="390" spans="1:32">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -17740,7 +17916,7 @@
       <c r="AE390" s="2"/>
       <c r="AF390" s="2"/>
     </row>
-    <row r="391" spans="1:32">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -17774,7 +17950,7 @@
       <c r="AE391" s="2"/>
       <c r="AF391" s="2"/>
     </row>
-    <row r="392" spans="1:32">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -17808,7 +17984,7 @@
       <c r="AE392" s="2"/>
       <c r="AF392" s="2"/>
     </row>
-    <row r="393" spans="1:32">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -17842,7 +18018,7 @@
       <c r="AE393" s="2"/>
       <c r="AF393" s="2"/>
     </row>
-    <row r="394" spans="1:32">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -17876,7 +18052,7 @@
       <c r="AE394" s="2"/>
       <c r="AF394" s="2"/>
     </row>
-    <row r="395" spans="1:32">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -17910,6 +18086,278 @@
       <c r="AE395" s="2"/>
       <c r="AF395" s="2"/>
     </row>
+    <row r="396" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" s="2"/>
+      <c r="F396" s="2"/>
+      <c r="G396" s="2"/>
+      <c r="H396" s="2"/>
+      <c r="I396" s="2"/>
+      <c r="J396" s="2"/>
+      <c r="K396" s="2"/>
+      <c r="L396" s="2"/>
+      <c r="M396" s="2"/>
+      <c r="N396" s="2"/>
+      <c r="O396" s="2"/>
+      <c r="P396" s="2"/>
+      <c r="Q396" s="2"/>
+      <c r="R396" s="2"/>
+      <c r="S396" s="2"/>
+      <c r="T396" s="2"/>
+      <c r="U396" s="2"/>
+      <c r="V396" s="2"/>
+      <c r="W396" s="2"/>
+      <c r="X396" s="2"/>
+      <c r="Y396" s="2"/>
+      <c r="Z396" s="2"/>
+      <c r="AA396" s="2"/>
+      <c r="AB396" s="2"/>
+      <c r="AC396" s="2"/>
+      <c r="AD396" s="2"/>
+      <c r="AE396" s="2"/>
+      <c r="AF396" s="2"/>
+    </row>
+    <row r="397" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
+      <c r="G397" s="2"/>
+      <c r="H397" s="2"/>
+      <c r="I397" s="2"/>
+      <c r="J397" s="2"/>
+      <c r="K397" s="2"/>
+      <c r="L397" s="2"/>
+      <c r="M397" s="2"/>
+      <c r="N397" s="2"/>
+      <c r="O397" s="2"/>
+      <c r="P397" s="2"/>
+      <c r="Q397" s="2"/>
+      <c r="R397" s="2"/>
+      <c r="S397" s="2"/>
+      <c r="T397" s="2"/>
+      <c r="U397" s="2"/>
+      <c r="V397" s="2"/>
+      <c r="W397" s="2"/>
+      <c r="X397" s="2"/>
+      <c r="Y397" s="2"/>
+      <c r="Z397" s="2"/>
+      <c r="AA397" s="2"/>
+      <c r="AB397" s="2"/>
+      <c r="AC397" s="2"/>
+      <c r="AD397" s="2"/>
+      <c r="AE397" s="2"/>
+      <c r="AF397" s="2"/>
+    </row>
+    <row r="398" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
+      <c r="H398" s="2"/>
+      <c r="I398" s="2"/>
+      <c r="J398" s="2"/>
+      <c r="K398" s="2"/>
+      <c r="L398" s="2"/>
+      <c r="M398" s="2"/>
+      <c r="N398" s="2"/>
+      <c r="O398" s="2"/>
+      <c r="P398" s="2"/>
+      <c r="Q398" s="2"/>
+      <c r="R398" s="2"/>
+      <c r="S398" s="2"/>
+      <c r="T398" s="2"/>
+      <c r="U398" s="2"/>
+      <c r="V398" s="2"/>
+      <c r="W398" s="2"/>
+      <c r="X398" s="2"/>
+      <c r="Y398" s="2"/>
+      <c r="Z398" s="2"/>
+      <c r="AA398" s="2"/>
+      <c r="AB398" s="2"/>
+      <c r="AC398" s="2"/>
+      <c r="AD398" s="2"/>
+      <c r="AE398" s="2"/>
+      <c r="AF398" s="2"/>
+    </row>
+    <row r="399" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
+      <c r="H399" s="2"/>
+      <c r="I399" s="2"/>
+      <c r="J399" s="2"/>
+      <c r="K399" s="2"/>
+      <c r="L399" s="2"/>
+      <c r="M399" s="2"/>
+      <c r="N399" s="2"/>
+      <c r="O399" s="2"/>
+      <c r="P399" s="2"/>
+      <c r="Q399" s="2"/>
+      <c r="R399" s="2"/>
+      <c r="S399" s="2"/>
+      <c r="T399" s="2"/>
+      <c r="U399" s="2"/>
+      <c r="V399" s="2"/>
+      <c r="W399" s="2"/>
+      <c r="X399" s="2"/>
+      <c r="Y399" s="2"/>
+      <c r="Z399" s="2"/>
+      <c r="AA399" s="2"/>
+      <c r="AB399" s="2"/>
+      <c r="AC399" s="2"/>
+      <c r="AD399" s="2"/>
+      <c r="AE399" s="2"/>
+      <c r="AF399" s="2"/>
+    </row>
+    <row r="400" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
+      <c r="H400" s="2"/>
+      <c r="I400" s="2"/>
+      <c r="J400" s="2"/>
+      <c r="K400" s="2"/>
+      <c r="L400" s="2"/>
+      <c r="M400" s="2"/>
+      <c r="N400" s="2"/>
+      <c r="O400" s="2"/>
+      <c r="P400" s="2"/>
+      <c r="Q400" s="2"/>
+      <c r="R400" s="2"/>
+      <c r="S400" s="2"/>
+      <c r="T400" s="2"/>
+      <c r="U400" s="2"/>
+      <c r="V400" s="2"/>
+      <c r="W400" s="2"/>
+      <c r="X400" s="2"/>
+      <c r="Y400" s="2"/>
+      <c r="Z400" s="2"/>
+      <c r="AA400" s="2"/>
+      <c r="AB400" s="2"/>
+      <c r="AC400" s="2"/>
+      <c r="AD400" s="2"/>
+      <c r="AE400" s="2"/>
+      <c r="AF400" s="2"/>
+    </row>
+    <row r="401" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
+      <c r="G401" s="2"/>
+      <c r="H401" s="2"/>
+      <c r="I401" s="2"/>
+      <c r="J401" s="2"/>
+      <c r="K401" s="2"/>
+      <c r="L401" s="2"/>
+      <c r="M401" s="2"/>
+      <c r="N401" s="2"/>
+      <c r="O401" s="2"/>
+      <c r="P401" s="2"/>
+      <c r="Q401" s="2"/>
+      <c r="R401" s="2"/>
+      <c r="S401" s="2"/>
+      <c r="T401" s="2"/>
+      <c r="U401" s="2"/>
+      <c r="V401" s="2"/>
+      <c r="W401" s="2"/>
+      <c r="X401" s="2"/>
+      <c r="Y401" s="2"/>
+      <c r="Z401" s="2"/>
+      <c r="AA401" s="2"/>
+      <c r="AB401" s="2"/>
+      <c r="AC401" s="2"/>
+      <c r="AD401" s="2"/>
+      <c r="AE401" s="2"/>
+      <c r="AF401" s="2"/>
+    </row>
+    <row r="402" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
+      <c r="G402" s="2"/>
+      <c r="H402" s="2"/>
+      <c r="I402" s="2"/>
+      <c r="J402" s="2"/>
+      <c r="K402" s="2"/>
+      <c r="L402" s="2"/>
+      <c r="M402" s="2"/>
+      <c r="N402" s="2"/>
+      <c r="O402" s="2"/>
+      <c r="P402" s="2"/>
+      <c r="Q402" s="2"/>
+      <c r="R402" s="2"/>
+      <c r="S402" s="2"/>
+      <c r="T402" s="2"/>
+      <c r="U402" s="2"/>
+      <c r="V402" s="2"/>
+      <c r="W402" s="2"/>
+      <c r="X402" s="2"/>
+      <c r="Y402" s="2"/>
+      <c r="Z402" s="2"/>
+      <c r="AA402" s="2"/>
+      <c r="AB402" s="2"/>
+      <c r="AC402" s="2"/>
+      <c r="AD402" s="2"/>
+      <c r="AE402" s="2"/>
+      <c r="AF402" s="2"/>
+    </row>
+    <row r="403" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
+      <c r="H403" s="2"/>
+      <c r="I403" s="2"/>
+      <c r="J403" s="2"/>
+      <c r="K403" s="2"/>
+      <c r="L403" s="2"/>
+      <c r="M403" s="2"/>
+      <c r="N403" s="2"/>
+      <c r="O403" s="2"/>
+      <c r="P403" s="2"/>
+      <c r="Q403" s="2"/>
+      <c r="R403" s="2"/>
+      <c r="S403" s="2"/>
+      <c r="T403" s="2"/>
+      <c r="U403" s="2"/>
+      <c r="V403" s="2"/>
+      <c r="W403" s="2"/>
+      <c r="X403" s="2"/>
+      <c r="Y403" s="2"/>
+      <c r="Z403" s="2"/>
+      <c r="AA403" s="2"/>
+      <c r="AB403" s="2"/>
+      <c r="AC403" s="2"/>
+      <c r="AD403" s="2"/>
+      <c r="AE403" s="2"/>
+      <c r="AF403" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DA75B-EB73-4088-A1CE-A5C5B942AA40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EE791-E846-4297-B36E-E7C5EBE6194A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="535">
   <si>
     <t>cartella</t>
   </si>
@@ -1630,6 +1630,21 @@
   </si>
   <si>
     <t>AER_LOrologioSvizzero.pdf</t>
+  </si>
+  <si>
+    <t>equilibrista.png</t>
+  </si>
+  <si>
+    <t>cestastelle.png</t>
+  </si>
+  <si>
+    <t>moscacieca.png</t>
+  </si>
+  <si>
+    <t>orologiosvizzero.png</t>
+  </si>
+  <si>
+    <t>granchio.png</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="123" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="123" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,7 +2997,9 @@
       <c r="G20" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3030,7 +3047,9 @@
       <c r="G21" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3078,7 +3097,9 @@
       <c r="G22" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3126,7 +3147,9 @@
       <c r="G23" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3174,7 +3197,9 @@
       <c r="G24" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>531</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3222,7 +3247,9 @@
       <c r="G25" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>534</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3270,7 +3297,9 @@
       <c r="G26" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3318,7 +3347,9 @@
       <c r="G27" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>533</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EE791-E846-4297-B36E-E7C5EBE6194A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C104848-8E8A-467F-B142-1CBDC24BC9B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="543">
   <si>
     <t>cartella</t>
   </si>
@@ -1645,6 +1645,30 @@
   </si>
   <si>
     <t>granchio.png</t>
+  </si>
+  <si>
+    <t>eqpie07.mp4</t>
+  </si>
+  <si>
+    <t>eqpie07</t>
+  </si>
+  <si>
+    <t>03rinin02.mp4</t>
+  </si>
+  <si>
+    <t>35stresu01.mp4</t>
+  </si>
+  <si>
+    <t>35rinse03.mp4</t>
+  </si>
+  <si>
+    <t>35eqpie07.mp4</t>
+  </si>
+  <si>
+    <t>35conse03.mp4</t>
+  </si>
+  <si>
+    <t>conse03</t>
   </si>
 </sst>
 </file>
@@ -2014,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF403"/>
+  <dimension ref="A1:AF413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="123" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B137" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,13 +7276,13 @@
         <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>157</v>
+        <v>537</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -7296,13 +7320,13 @@
         <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>158</v>
+        <v>535</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -7343,10 +7367,10 @@
         <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -7380,17 +7404,17 @@
       <c r="AF118" s="2"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>4</v>
+      <c r="A119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" t="s">
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -7424,17 +7448,17 @@
       <c r="AF119" s="2"/>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>4</v>
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -7468,17 +7492,17 @@
       <c r="AF120" s="2"/>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>4</v>
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
+        <v>216</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>166</v>
+        <v>538</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7512,17 +7536,17 @@
       <c r="AF121" s="2"/>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>4</v>
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>167</v>
+        <v>537</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7556,17 +7580,17 @@
       <c r="AF122" s="2"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>216</v>
+      <c r="A123" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" t="s">
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>225</v>
+        <v>540</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>217</v>
+        <v>536</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7604,13 +7628,13 @@
         <v>142</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7648,13 +7672,13 @@
         <v>142</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7692,13 +7716,13 @@
         <v>142</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7736,13 +7760,13 @@
         <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7783,10 +7807,10 @@
         <v>216</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7827,10 +7851,10 @@
         <v>216</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7871,10 +7895,10 @@
         <v>216</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7915,10 +7939,10 @@
         <v>216</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7959,10 +7983,10 @@
         <v>216</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -7997,16 +8021,16 @@
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -8041,16 +8065,16 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -8085,16 +8109,16 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -8129,16 +8153,16 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -8173,16 +8197,16 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -8219,14 +8243,14 @@
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>67</v>
+      <c r="B138" t="s">
+        <v>237</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -8263,14 +8287,14 @@
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>67</v>
+      <c r="B139" t="s">
+        <v>237</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -8307,14 +8331,14 @@
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>67</v>
+      <c r="B140" t="s">
+        <v>237</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>247</v>
+        <v>541</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>542</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -8355,10 +8379,10 @@
         <v>67</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -8396,13 +8420,13 @@
         <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>251</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -8440,13 +8464,13 @@
         <v>3</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -8484,13 +8508,13 @@
         <v>3</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -8528,13 +8552,13 @@
         <v>3</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8572,13 +8596,13 @@
         <v>3</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>263</v>
+        <v>67</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8616,13 +8640,13 @@
         <v>3</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>264</v>
+        <v>67</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8663,10 +8687,10 @@
         <v>61</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8707,10 +8731,10 @@
         <v>61</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8751,10 +8775,10 @@
         <v>61</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8795,10 +8819,10 @@
         <v>61</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8839,10 +8863,10 @@
         <v>61</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8883,10 +8907,10 @@
         <v>61</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8927,10 +8951,10 @@
         <v>61</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8965,16 +8989,16 @@
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -9009,16 +9033,16 @@
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>408</v>
+        <v>267</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>410</v>
+        <v>258</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -9053,16 +9077,16 @@
     </row>
     <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>411</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -9096,17 +9120,17 @@
       <c r="AF157" s="2"/>
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>272</v>
-      </c>
-      <c r="B158" t="s">
-        <v>273</v>
+      <c r="A158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -9141,16 +9165,16 @@
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>412</v>
+        <v>270</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>413</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -9184,17 +9208,17 @@
       <c r="AF159" s="2"/>
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>272</v>
-      </c>
-      <c r="B160" t="s">
-        <v>273</v>
+      <c r="A160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9229,16 +9253,16 @@
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>414</v>
+        <v>538</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -9272,17 +9296,17 @@
       <c r="AF161" s="2"/>
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>272</v>
-      </c>
-      <c r="B162" t="s">
-        <v>273</v>
+      <c r="A162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>365</v>
+        <v>537</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9316,17 +9340,17 @@
       <c r="AF162" s="2"/>
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" t="s">
-        <v>273</v>
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>366</v>
+        <v>539</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9360,17 +9384,17 @@
       <c r="AF163" s="2"/>
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>272</v>
-      </c>
-      <c r="B164" t="s">
-        <v>273</v>
+      <c r="A164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>416</v>
+        <v>540</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>417</v>
+        <v>536</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -9404,17 +9428,17 @@
       <c r="AF164" s="2"/>
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>278</v>
+        <v>407</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9448,17 +9472,17 @@
       <c r="AF165" s="2"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9492,17 +9516,17 @@
       <c r="AF166" s="2"/>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9543,10 +9567,10 @@
         <v>273</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>421</v>
+        <v>274</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9580,17 +9604,17 @@
       <c r="AF168" s="2"/>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9631,10 +9655,10 @@
         <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9668,17 +9692,17 @@
       <c r="AF170" s="2"/>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9719,10 +9743,10 @@
         <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9763,10 +9787,10 @@
         <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>427</v>
+        <v>277</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9807,10 +9831,10 @@
         <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9851,10 +9875,10 @@
         <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9895,10 +9919,10 @@
         <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9939,10 +9963,10 @@
         <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>431</v>
+        <v>279</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -9983,10 +10007,10 @@
         <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -10027,10 +10051,10 @@
         <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -10071,10 +10095,10 @@
         <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -10115,10 +10139,10 @@
         <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -10159,10 +10183,10 @@
         <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -10203,10 +10227,10 @@
         <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -10247,10 +10271,10 @@
         <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -10291,10 +10315,10 @@
         <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>441</v>
+        <v>283</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -10335,10 +10359,10 @@
         <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10379,10 +10403,10 @@
         <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10423,10 +10447,10 @@
         <v>273</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>444</v>
+        <v>373</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10467,10 +10491,10 @@
         <v>273</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10511,10 +10535,10 @@
         <v>273</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10555,10 +10579,10 @@
         <v>273</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>290</v>
+        <v>434</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10599,10 +10623,10 @@
         <v>273</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10643,10 +10667,10 @@
         <v>273</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10687,10 +10711,10 @@
         <v>273</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10731,10 +10755,10 @@
         <v>273</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>293</v>
+        <v>441</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10772,13 +10796,13 @@
         <v>272</v>
       </c>
       <c r="B196" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10816,13 +10840,13 @@
         <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10860,13 +10884,13 @@
         <v>272</v>
       </c>
       <c r="B198" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10904,13 +10928,13 @@
         <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>482</v>
+        <v>288</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10948,13 +10972,13 @@
         <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>478</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>383</v>
+        <v>273</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -10992,13 +11016,13 @@
         <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>478</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>499</v>
+        <v>273</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>503</v>
+        <v>290</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -11036,13 +11060,13 @@
         <v>272</v>
       </c>
       <c r="B202" t="s">
-        <v>478</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>500</v>
+        <v>273</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>504</v>
+        <v>291</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -11080,13 +11104,13 @@
         <v>272</v>
       </c>
       <c r="B203" t="s">
-        <v>478</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>501</v>
+        <v>273</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>505</v>
+        <v>292</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -11124,13 +11148,13 @@
         <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>478</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>502</v>
+        <v>273</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11168,13 +11192,13 @@
         <v>272</v>
       </c>
       <c r="B205" t="s">
-        <v>478</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>384</v>
+        <v>273</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11214,11 +11238,11 @@
       <c r="B206" t="s">
         <v>478</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>483</v>
+      <c r="C206" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11258,11 +11282,11 @@
       <c r="B207" t="s">
         <v>478</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>484</v>
+      <c r="C207" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11302,11 +11326,11 @@
       <c r="B208" t="s">
         <v>478</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>485</v>
+      <c r="C208" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11346,11 +11370,11 @@
       <c r="B209" t="s">
         <v>478</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>486</v>
+      <c r="C209" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11391,10 +11415,10 @@
         <v>478</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>495</v>
+        <v>294</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11435,10 +11459,10 @@
         <v>478</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11479,10 +11503,10 @@
         <v>478</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11523,10 +11547,10 @@
         <v>478</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11564,13 +11588,13 @@
         <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11608,13 +11632,13 @@
         <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11652,13 +11676,13 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>298</v>
+        <v>491</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11696,13 +11720,13 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11740,13 +11764,13 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>299</v>
+        <v>493</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11784,13 +11808,13 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11828,13 +11852,13 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11872,13 +11896,13 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>388</v>
+        <v>488</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>300</v>
+        <v>496</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11916,13 +11940,13 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>301</v>
+        <v>497</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11960,13 +11984,13 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -12007,10 +12031,10 @@
         <v>296</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>302</v>
+        <v>449</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -12051,10 +12075,10 @@
         <v>296</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -12095,10 +12119,10 @@
         <v>296</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12139,10 +12163,10 @@
         <v>296</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12183,10 +12207,10 @@
         <v>296</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>458</v>
+        <v>387</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12227,10 +12251,10 @@
         <v>296</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12271,10 +12295,10 @@
         <v>296</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12315,10 +12339,10 @@
         <v>296</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>463</v>
+        <v>300</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12359,10 +12383,10 @@
         <v>296</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>468</v>
+        <v>301</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12403,10 +12427,10 @@
         <v>296</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12447,10 +12471,10 @@
         <v>296</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>470</v>
+        <v>302</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12491,10 +12515,10 @@
         <v>296</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>467</v>
+        <v>362</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>471</v>
+        <v>303</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12535,10 +12559,10 @@
         <v>296</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12579,10 +12603,10 @@
         <v>296</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>476</v>
+        <v>305</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12623,10 +12647,10 @@
         <v>296</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12664,13 +12688,13 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>308</v>
+        <v>461</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12708,13 +12732,13 @@
         <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12752,13 +12776,13 @@
         <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>310</v>
+        <v>463</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>8</v>
@@ -12796,13 +12820,13 @@
         <v>272</v>
       </c>
       <c r="B242" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>311</v>
+        <v>468</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
@@ -12840,13 +12864,13 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>312</v>
+        <v>469</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>8</v>
@@ -12884,13 +12908,13 @@
         <v>272</v>
       </c>
       <c r="B244" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>313</v>
+        <v>470</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>8</v>
@@ -12928,13 +12952,13 @@
         <v>272</v>
       </c>
       <c r="B245" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>314</v>
+        <v>471</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>8</v>
@@ -12972,13 +12996,13 @@
         <v>272</v>
       </c>
       <c r="B246" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>401</v>
+        <v>472</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>315</v>
+        <v>475</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>8</v>
@@ -13016,13 +13040,13 @@
         <v>272</v>
       </c>
       <c r="B247" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>402</v>
+        <v>473</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>316</v>
+        <v>476</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>8</v>
@@ -13060,13 +13084,13 @@
         <v>272</v>
       </c>
       <c r="B248" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>317</v>
+        <v>477</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>8</v>
@@ -13104,13 +13128,13 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>8</v>
@@ -13148,13 +13172,13 @@
         <v>272</v>
       </c>
       <c r="B250" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>8</v>
@@ -13188,11 +13212,21 @@
       <c r="AF250" s="2"/>
     </row>
     <row r="251" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
+      <c r="A251" t="s">
+        <v>272</v>
+      </c>
+      <c r="B251" t="s">
+        <v>307</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
@@ -13222,11 +13256,21 @@
       <c r="AF251" s="2"/>
     </row>
     <row r="252" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
+      <c r="A252" t="s">
+        <v>272</v>
+      </c>
+      <c r="B252" t="s">
+        <v>307</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
@@ -13256,11 +13300,21 @@
       <c r="AF252" s="2"/>
     </row>
     <row r="253" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
+      <c r="A253" t="s">
+        <v>272</v>
+      </c>
+      <c r="B253" t="s">
+        <v>307</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
@@ -13290,11 +13344,21 @@
       <c r="AF253" s="2"/>
     </row>
     <row r="254" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
+      <c r="A254" t="s">
+        <v>272</v>
+      </c>
+      <c r="B254" t="s">
+        <v>307</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
@@ -13324,11 +13388,21 @@
       <c r="AF254" s="2"/>
     </row>
     <row r="255" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
+      <c r="A255" t="s">
+        <v>272</v>
+      </c>
+      <c r="B255" t="s">
+        <v>307</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
@@ -13358,11 +13432,21 @@
       <c r="AF255" s="2"/>
     </row>
     <row r="256" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
+      <c r="A256" t="s">
+        <v>272</v>
+      </c>
+      <c r="B256" t="s">
+        <v>307</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
@@ -13392,11 +13476,21 @@
       <c r="AF256" s="2"/>
     </row>
     <row r="257" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
+      <c r="A257" t="s">
+        <v>272</v>
+      </c>
+      <c r="B257" t="s">
+        <v>216</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
@@ -13426,11 +13520,21 @@
       <c r="AF257" s="2"/>
     </row>
     <row r="258" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
+      <c r="A258" t="s">
+        <v>272</v>
+      </c>
+      <c r="B258" t="s">
+        <v>216</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
@@ -13460,11 +13564,21 @@
       <c r="AF258" s="2"/>
     </row>
     <row r="259" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
+      <c r="A259" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259" t="s">
+        <v>216</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
@@ -13494,11 +13608,21 @@
       <c r="AF259" s="2"/>
     </row>
     <row r="260" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
+      <c r="A260" t="s">
+        <v>272</v>
+      </c>
+      <c r="B260" t="s">
+        <v>216</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
@@ -18389,6 +18513,346 @@
       <c r="AE403" s="2"/>
       <c r="AF403" s="2"/>
     </row>
+    <row r="404" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
+      <c r="H404" s="2"/>
+      <c r="I404" s="2"/>
+      <c r="J404" s="2"/>
+      <c r="K404" s="2"/>
+      <c r="L404" s="2"/>
+      <c r="M404" s="2"/>
+      <c r="N404" s="2"/>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
+      <c r="Q404" s="2"/>
+      <c r="R404" s="2"/>
+      <c r="S404" s="2"/>
+      <c r="T404" s="2"/>
+      <c r="U404" s="2"/>
+      <c r="V404" s="2"/>
+      <c r="W404" s="2"/>
+      <c r="X404" s="2"/>
+      <c r="Y404" s="2"/>
+      <c r="Z404" s="2"/>
+      <c r="AA404" s="2"/>
+      <c r="AB404" s="2"/>
+      <c r="AC404" s="2"/>
+      <c r="AD404" s="2"/>
+      <c r="AE404" s="2"/>
+      <c r="AF404" s="2"/>
+    </row>
+    <row r="405" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
+      <c r="H405" s="2"/>
+      <c r="I405" s="2"/>
+      <c r="J405" s="2"/>
+      <c r="K405" s="2"/>
+      <c r="L405" s="2"/>
+      <c r="M405" s="2"/>
+      <c r="N405" s="2"/>
+      <c r="O405" s="2"/>
+      <c r="P405" s="2"/>
+      <c r="Q405" s="2"/>
+      <c r="R405" s="2"/>
+      <c r="S405" s="2"/>
+      <c r="T405" s="2"/>
+      <c r="U405" s="2"/>
+      <c r="V405" s="2"/>
+      <c r="W405" s="2"/>
+      <c r="X405" s="2"/>
+      <c r="Y405" s="2"/>
+      <c r="Z405" s="2"/>
+      <c r="AA405" s="2"/>
+      <c r="AB405" s="2"/>
+      <c r="AC405" s="2"/>
+      <c r="AD405" s="2"/>
+      <c r="AE405" s="2"/>
+      <c r="AF405" s="2"/>
+    </row>
+    <row r="406" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
+      <c r="H406" s="2"/>
+      <c r="I406" s="2"/>
+      <c r="J406" s="2"/>
+      <c r="K406" s="2"/>
+      <c r="L406" s="2"/>
+      <c r="M406" s="2"/>
+      <c r="N406" s="2"/>
+      <c r="O406" s="2"/>
+      <c r="P406" s="2"/>
+      <c r="Q406" s="2"/>
+      <c r="R406" s="2"/>
+      <c r="S406" s="2"/>
+      <c r="T406" s="2"/>
+      <c r="U406" s="2"/>
+      <c r="V406" s="2"/>
+      <c r="W406" s="2"/>
+      <c r="X406" s="2"/>
+      <c r="Y406" s="2"/>
+      <c r="Z406" s="2"/>
+      <c r="AA406" s="2"/>
+      <c r="AB406" s="2"/>
+      <c r="AC406" s="2"/>
+      <c r="AD406" s="2"/>
+      <c r="AE406" s="2"/>
+      <c r="AF406" s="2"/>
+    </row>
+    <row r="407" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
+      <c r="H407" s="2"/>
+      <c r="I407" s="2"/>
+      <c r="J407" s="2"/>
+      <c r="K407" s="2"/>
+      <c r="L407" s="2"/>
+      <c r="M407" s="2"/>
+      <c r="N407" s="2"/>
+      <c r="O407" s="2"/>
+      <c r="P407" s="2"/>
+      <c r="Q407" s="2"/>
+      <c r="R407" s="2"/>
+      <c r="S407" s="2"/>
+      <c r="T407" s="2"/>
+      <c r="U407" s="2"/>
+      <c r="V407" s="2"/>
+      <c r="W407" s="2"/>
+      <c r="X407" s="2"/>
+      <c r="Y407" s="2"/>
+      <c r="Z407" s="2"/>
+      <c r="AA407" s="2"/>
+      <c r="AB407" s="2"/>
+      <c r="AC407" s="2"/>
+      <c r="AD407" s="2"/>
+      <c r="AE407" s="2"/>
+      <c r="AF407" s="2"/>
+    </row>
+    <row r="408" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="2"/>
+      <c r="G408" s="2"/>
+      <c r="H408" s="2"/>
+      <c r="I408" s="2"/>
+      <c r="J408" s="2"/>
+      <c r="K408" s="2"/>
+      <c r="L408" s="2"/>
+      <c r="M408" s="2"/>
+      <c r="N408" s="2"/>
+      <c r="O408" s="2"/>
+      <c r="P408" s="2"/>
+      <c r="Q408" s="2"/>
+      <c r="R408" s="2"/>
+      <c r="S408" s="2"/>
+      <c r="T408" s="2"/>
+      <c r="U408" s="2"/>
+      <c r="V408" s="2"/>
+      <c r="W408" s="2"/>
+      <c r="X408" s="2"/>
+      <c r="Y408" s="2"/>
+      <c r="Z408" s="2"/>
+      <c r="AA408" s="2"/>
+      <c r="AB408" s="2"/>
+      <c r="AC408" s="2"/>
+      <c r="AD408" s="2"/>
+      <c r="AE408" s="2"/>
+      <c r="AF408" s="2"/>
+    </row>
+    <row r="409" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="2"/>
+      <c r="G409" s="2"/>
+      <c r="H409" s="2"/>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+      <c r="K409" s="2"/>
+      <c r="L409" s="2"/>
+      <c r="M409" s="2"/>
+      <c r="N409" s="2"/>
+      <c r="O409" s="2"/>
+      <c r="P409" s="2"/>
+      <c r="Q409" s="2"/>
+      <c r="R409" s="2"/>
+      <c r="S409" s="2"/>
+      <c r="T409" s="2"/>
+      <c r="U409" s="2"/>
+      <c r="V409" s="2"/>
+      <c r="W409" s="2"/>
+      <c r="X409" s="2"/>
+      <c r="Y409" s="2"/>
+      <c r="Z409" s="2"/>
+      <c r="AA409" s="2"/>
+      <c r="AB409" s="2"/>
+      <c r="AC409" s="2"/>
+      <c r="AD409" s="2"/>
+      <c r="AE409" s="2"/>
+      <c r="AF409" s="2"/>
+    </row>
+    <row r="410" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+      <c r="K410" s="2"/>
+      <c r="L410" s="2"/>
+      <c r="M410" s="2"/>
+      <c r="N410" s="2"/>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" s="2"/>
+      <c r="R410" s="2"/>
+      <c r="S410" s="2"/>
+      <c r="T410" s="2"/>
+      <c r="U410" s="2"/>
+      <c r="V410" s="2"/>
+      <c r="W410" s="2"/>
+      <c r="X410" s="2"/>
+      <c r="Y410" s="2"/>
+      <c r="Z410" s="2"/>
+      <c r="AA410" s="2"/>
+      <c r="AB410" s="2"/>
+      <c r="AC410" s="2"/>
+      <c r="AD410" s="2"/>
+      <c r="AE410" s="2"/>
+      <c r="AF410" s="2"/>
+    </row>
+    <row r="411" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
+      <c r="H411" s="2"/>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+      <c r="K411" s="2"/>
+      <c r="L411" s="2"/>
+      <c r="M411" s="2"/>
+      <c r="N411" s="2"/>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
+      <c r="Q411" s="2"/>
+      <c r="R411" s="2"/>
+      <c r="S411" s="2"/>
+      <c r="T411" s="2"/>
+      <c r="U411" s="2"/>
+      <c r="V411" s="2"/>
+      <c r="W411" s="2"/>
+      <c r="X411" s="2"/>
+      <c r="Y411" s="2"/>
+      <c r="Z411" s="2"/>
+      <c r="AA411" s="2"/>
+      <c r="AB411" s="2"/>
+      <c r="AC411" s="2"/>
+      <c r="AD411" s="2"/>
+      <c r="AE411" s="2"/>
+      <c r="AF411" s="2"/>
+    </row>
+    <row r="412" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+      <c r="H412" s="2"/>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+      <c r="K412" s="2"/>
+      <c r="L412" s="2"/>
+      <c r="M412" s="2"/>
+      <c r="N412" s="2"/>
+      <c r="O412" s="2"/>
+      <c r="P412" s="2"/>
+      <c r="Q412" s="2"/>
+      <c r="R412" s="2"/>
+      <c r="S412" s="2"/>
+      <c r="T412" s="2"/>
+      <c r="U412" s="2"/>
+      <c r="V412" s="2"/>
+      <c r="W412" s="2"/>
+      <c r="X412" s="2"/>
+      <c r="Y412" s="2"/>
+      <c r="Z412" s="2"/>
+      <c r="AA412" s="2"/>
+      <c r="AB412" s="2"/>
+      <c r="AC412" s="2"/>
+      <c r="AD412" s="2"/>
+      <c r="AE412" s="2"/>
+      <c r="AF412" s="2"/>
+    </row>
+    <row r="413" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
+      <c r="H413" s="2"/>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+      <c r="K413" s="2"/>
+      <c r="L413" s="2"/>
+      <c r="M413" s="2"/>
+      <c r="N413" s="2"/>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
+      <c r="Q413" s="2"/>
+      <c r="R413" s="2"/>
+      <c r="S413" s="2"/>
+      <c r="T413" s="2"/>
+      <c r="U413" s="2"/>
+      <c r="V413" s="2"/>
+      <c r="W413" s="2"/>
+      <c r="X413" s="2"/>
+      <c r="Y413" s="2"/>
+      <c r="Z413" s="2"/>
+      <c r="AA413" s="2"/>
+      <c r="AB413" s="2"/>
+      <c r="AC413" s="2"/>
+      <c r="AD413" s="2"/>
+      <c r="AE413" s="2"/>
+      <c r="AF413" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C104848-8E8A-467F-B142-1CBDC24BC9B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7070995-3CF8-4095-8DC6-48F0946354D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,6 @@
     <t>C35</t>
   </si>
   <si>
-    <t>Carico Parziale</t>
-  </si>
-  <si>
     <t>B05.mp4</t>
   </si>
   <si>
@@ -1669,6 +1666,9 @@
   </si>
   <si>
     <t>conse03</t>
+  </si>
+  <si>
+    <t>Carico parziale</t>
   </si>
 </sst>
 </file>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B137" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,10 +3007,10 @@
         <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -3019,10 +3019,10 @@
         <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3057,22 +3057,22 @@
         <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -3107,22 +3107,22 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3157,22 +3157,22 @@
         <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3207,22 +3207,22 @@
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3257,22 +3257,22 @@
         <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3307,22 +3307,22 @@
         <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3357,22 +3357,22 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -7279,7 +7279,7 @@
         <v>320</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>200</v>
@@ -7323,10 +7323,10 @@
         <v>320</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -7499,7 +7499,7 @@
         <v>216</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>218</v>
@@ -7543,7 +7543,7 @@
         <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>200</v>
@@ -7587,10 +7587,10 @@
         <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -8335,10 +8335,10 @@
         <v>237</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -9259,7 +9259,7 @@
         <v>216</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>218</v>
@@ -9303,7 +9303,7 @@
         <v>67</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>200</v>
@@ -9347,7 +9347,7 @@
         <v>67</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>323</v>
@@ -9391,10 +9391,10 @@
         <v>61</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -11236,13 +11236,13 @@
         <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11280,13 +11280,13 @@
         <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C207" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11324,13 +11324,13 @@
         <v>272</v>
       </c>
       <c r="B208" t="s">
+        <v>542</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="D208" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11368,13 +11368,13 @@
         <v>272</v>
       </c>
       <c r="B209" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11412,7 +11412,7 @@
         <v>272</v>
       </c>
       <c r="B210" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>383</v>
@@ -11456,13 +11456,13 @@
         <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11500,13 +11500,13 @@
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11544,13 +11544,13 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11588,13 +11588,13 @@
         <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11632,7 +11632,7 @@
         <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>384</v>
@@ -11676,13 +11676,13 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11720,13 +11720,13 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11764,13 +11764,13 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11852,13 +11852,13 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11896,13 +11896,13 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11940,13 +11940,13 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11984,13 +11984,13 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C104848-8E8A-467F-B142-1CBDC24BC9B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7473F-181A-42A5-BE45-C2A763B1E3FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="552">
   <si>
     <t>cartella</t>
   </si>
@@ -1669,6 +1669,33 @@
   </si>
   <si>
     <t>conse03</t>
+  </si>
+  <si>
+    <t>stresu08</t>
+  </si>
+  <si>
+    <t>stresu08.mp4</t>
+  </si>
+  <si>
+    <t>rinse08.mp4</t>
+  </si>
+  <si>
+    <t>rinse08</t>
+  </si>
+  <si>
+    <t>Mobilizzazione</t>
+  </si>
+  <si>
+    <t>mosu01.mp4</t>
+  </si>
+  <si>
+    <t>mosu01</t>
+  </si>
+  <si>
+    <t>moqua01.mp4</t>
+  </si>
+  <si>
+    <t>moqua01</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF413"/>
+  <dimension ref="A1:AF416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B137" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="B255" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7008,17 +7035,17 @@
       <c r="AF109" s="2"/>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" t="s">
-        <v>61</v>
+      <c r="A110" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>152</v>
+        <v>545</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>546</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -7052,17 +7079,17 @@
       <c r="AF110" s="2"/>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" t="s">
-        <v>61</v>
+      <c r="A111" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>153</v>
+        <v>361</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>360</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -7103,10 +7130,10 @@
         <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -7147,10 +7174,10 @@
         <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -7191,10 +7218,10 @@
         <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -7232,13 +7259,13 @@
         <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -7276,13 +7303,13 @@
         <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>537</v>
+        <v>156</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -7323,10 +7350,10 @@
         <v>320</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>535</v>
+        <v>152</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>536</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -7364,13 +7391,13 @@
         <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>157</v>
+        <v>537</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -7408,13 +7435,13 @@
         <v>143</v>
       </c>
       <c r="B119" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>158</v>
+        <v>535</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -7455,10 +7482,10 @@
         <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -7496,13 +7523,13 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>538</v>
+        <v>158</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7543,10 +7570,10 @@
         <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>537</v>
+        <v>159</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7584,13 +7611,13 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>536</v>
+        <v>218</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7624,17 +7651,17 @@
       <c r="AF123" s="2"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>4</v>
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>164</v>
+        <v>537</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7668,17 +7695,17 @@
       <c r="AF124" s="2"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>4</v>
+      <c r="A125" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" t="s">
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>165</v>
+        <v>540</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>536</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7719,10 +7746,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7763,10 +7790,10 @@
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7804,13 +7831,13 @@
         <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7848,13 +7875,13 @@
         <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7895,10 +7922,10 @@
         <v>216</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7939,10 +7966,10 @@
         <v>216</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -7983,10 +8010,10 @@
         <v>216</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -8027,10 +8054,10 @@
         <v>216</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -8071,10 +8098,10 @@
         <v>216</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -8115,10 +8142,10 @@
         <v>216</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -8159,10 +8186,10 @@
         <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -8203,10 +8230,10 @@
         <v>216</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -8241,16 +8268,16 @@
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -8285,16 +8312,16 @@
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -8329,16 +8356,16 @@
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -8375,14 +8402,14 @@
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>67</v>
+      <c r="B141" t="s">
+        <v>237</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -8419,14 +8446,14 @@
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>67</v>
+      <c r="B142" t="s">
+        <v>237</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -8463,14 +8490,14 @@
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>67</v>
+      <c r="B143" t="s">
+        <v>237</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>245</v>
+        <v>541</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>249</v>
+        <v>542</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -8511,10 +8538,10 @@
         <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -8555,10 +8582,10 @@
         <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8599,10 +8626,10 @@
         <v>67</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8643,10 +8670,10 @@
         <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8684,13 +8711,13 @@
         <v>3</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8728,13 +8755,13 @@
         <v>3</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8772,13 +8799,13 @@
         <v>3</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8819,10 +8846,10 @@
         <v>61</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8863,10 +8890,10 @@
         <v>61</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8907,10 +8934,10 @@
         <v>61</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8951,10 +8978,10 @@
         <v>61</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -8995,10 +9022,10 @@
         <v>61</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -9039,10 +9066,10 @@
         <v>61</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -9083,10 +9110,10 @@
         <v>61</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -9127,10 +9154,10 @@
         <v>61</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -9171,10 +9198,10 @@
         <v>61</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -9215,10 +9242,10 @@
         <v>61</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9256,13 +9283,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>538</v>
+        <v>269</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -9300,13 +9327,13 @@
         <v>3</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>537</v>
+        <v>270</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9344,13 +9371,13 @@
         <v>3</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>539</v>
+        <v>271</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>323</v>
+        <v>148</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9388,13 +9415,13 @@
         <v>3</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>536</v>
+        <v>218</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -9429,16 +9456,16 @@
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>407</v>
+        <v>200</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9473,16 +9500,16 @@
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9517,16 +9544,16 @@
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>409</v>
+        <v>540</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>411</v>
+        <v>536</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9560,17 +9587,17 @@
       <c r="AF167" s="2"/>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>274</v>
+        <v>407</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9611,10 +9638,10 @@
         <v>273</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9648,17 +9675,17 @@
       <c r="AF169" s="2"/>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9692,17 +9719,17 @@
       <c r="AF170" s="2"/>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>272</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
         <v>273</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9736,17 +9763,17 @@
       <c r="AF171" s="2"/>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9787,10 +9814,10 @@
         <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9824,17 +9851,17 @@
       <c r="AF173" s="2"/>
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9875,10 +9902,10 @@
         <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9919,10 +9946,10 @@
         <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>419</v>
+        <v>277</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9963,10 +9990,10 @@
         <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>279</v>
+        <v>417</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -10007,10 +10034,10 @@
         <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>421</v>
+        <v>278</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -10051,10 +10078,10 @@
         <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -10095,10 +10122,10 @@
         <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>423</v>
+        <v>279</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -10139,10 +10166,10 @@
         <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -10183,10 +10210,10 @@
         <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -10227,10 +10254,10 @@
         <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -10271,10 +10298,10 @@
         <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>282</v>
+        <v>425</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -10315,10 +10342,10 @@
         <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -10359,10 +10386,10 @@
         <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10403,10 +10430,10 @@
         <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10447,10 +10474,10 @@
         <v>273</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10491,10 +10518,10 @@
         <v>273</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>285</v>
+        <v>429</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10535,10 +10562,10 @@
         <v>273</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10579,10 +10606,10 @@
         <v>273</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>436</v>
+        <v>373</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10623,10 +10650,10 @@
         <v>273</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10667,10 +10694,10 @@
         <v>273</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10711,10 +10738,10 @@
         <v>273</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>287</v>
+        <v>434</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10755,10 +10782,10 @@
         <v>273</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10799,10 +10826,10 @@
         <v>273</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10843,10 +10870,10 @@
         <v>273</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10887,10 +10914,10 @@
         <v>273</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10931,10 +10958,10 @@
         <v>273</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>288</v>
+        <v>442</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -10975,10 +11002,10 @@
         <v>273</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -11019,10 +11046,10 @@
         <v>273</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>290</v>
+        <v>445</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -11063,10 +11090,10 @@
         <v>273</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -11107,10 +11134,10 @@
         <v>273</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -11151,10 +11178,10 @@
         <v>273</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11195,10 +11222,10 @@
         <v>273</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11236,13 +11263,13 @@
         <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>508</v>
+        <v>292</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11280,13 +11307,13 @@
         <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11324,13 +11351,13 @@
         <v>272</v>
       </c>
       <c r="B208" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>479</v>
+        <v>382</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>481</v>
+        <v>293</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11371,10 +11398,10 @@
         <v>478</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11414,11 +11441,11 @@
       <c r="B210" t="s">
         <v>478</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>383</v>
+      <c r="C210" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>294</v>
+        <v>510</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11458,11 +11485,11 @@
       <c r="B211" t="s">
         <v>478</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>499</v>
+      <c r="C211" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11502,11 +11529,11 @@
       <c r="B212" t="s">
         <v>478</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>500</v>
+      <c r="C212" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11547,10 +11574,10 @@
         <v>478</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>505</v>
+        <v>294</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11591,10 +11618,10 @@
         <v>478</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11635,10 +11662,10 @@
         <v>478</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>384</v>
+        <v>500</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>295</v>
+        <v>504</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11679,10 +11706,10 @@
         <v>478</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11723,10 +11750,10 @@
         <v>478</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11767,10 +11794,10 @@
         <v>478</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>493</v>
+        <v>295</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11811,10 +11838,10 @@
         <v>478</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11855,10 +11882,10 @@
         <v>478</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11899,10 +11926,10 @@
         <v>478</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11943,10 +11970,10 @@
         <v>478</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -11987,10 +12014,10 @@
         <v>478</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -12028,13 +12055,13 @@
         <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -12072,13 +12099,13 @@
         <v>272</v>
       </c>
       <c r="B225" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>385</v>
+        <v>489</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>297</v>
+        <v>497</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -12116,13 +12143,13 @@
         <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12163,10 +12190,10 @@
         <v>296</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12207,10 +12234,10 @@
         <v>296</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12251,10 +12278,10 @@
         <v>296</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>453</v>
+        <v>298</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12295,10 +12322,10 @@
         <v>296</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12339,10 +12366,10 @@
         <v>296</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12383,10 +12410,10 @@
         <v>296</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>301</v>
+        <v>453</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12427,10 +12454,10 @@
         <v>296</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12471,10 +12498,10 @@
         <v>296</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12515,10 +12542,10 @@
         <v>296</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12559,10 +12586,10 @@
         <v>296</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>304</v>
+        <v>457</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12603,10 +12630,10 @@
         <v>296</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12647,10 +12674,10 @@
         <v>296</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>459</v>
+        <v>303</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12691,10 +12718,10 @@
         <v>296</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>461</v>
+        <v>304</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12735,10 +12762,10 @@
         <v>296</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12779,10 +12806,10 @@
         <v>296</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>8</v>
@@ -12823,10 +12850,10 @@
         <v>296</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
@@ -12867,10 +12894,10 @@
         <v>296</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>469</v>
+        <v>306</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>8</v>
@@ -12911,10 +12938,10 @@
         <v>296</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>8</v>
@@ -12955,10 +12982,10 @@
         <v>296</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>8</v>
@@ -12999,10 +13026,10 @@
         <v>296</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>8</v>
@@ -13043,10 +13070,10 @@
         <v>296</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>8</v>
@@ -13087,10 +13114,10 @@
         <v>296</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>8</v>
@@ -13128,13 +13155,13 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>394</v>
+        <v>472</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>8</v>
@@ -13172,13 +13199,13 @@
         <v>272</v>
       </c>
       <c r="B250" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>395</v>
+        <v>473</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>8</v>
@@ -13216,13 +13243,13 @@
         <v>272</v>
       </c>
       <c r="B251" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>8</v>
@@ -13263,10 +13290,10 @@
         <v>307</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>8</v>
@@ -13307,10 +13334,10 @@
         <v>307</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>8</v>
@@ -13351,10 +13378,10 @@
         <v>307</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>8</v>
@@ -13395,10 +13422,10 @@
         <v>307</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>8</v>
@@ -13439,10 +13466,10 @@
         <v>307</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>8</v>
@@ -13480,13 +13507,13 @@
         <v>272</v>
       </c>
       <c r="B257" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>8</v>
@@ -13524,13 +13551,13 @@
         <v>272</v>
       </c>
       <c r="B258" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>8</v>
@@ -13568,13 +13595,13 @@
         <v>272</v>
       </c>
       <c r="B259" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>8</v>
@@ -13615,10 +13642,10 @@
         <v>216</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>8</v>
@@ -13652,11 +13679,21 @@
       <c r="AF260" s="2"/>
     </row>
     <row r="261" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
+      <c r="A261" t="s">
+        <v>272</v>
+      </c>
+      <c r="B261" t="s">
+        <v>216</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
@@ -13686,11 +13723,21 @@
       <c r="AF261" s="2"/>
     </row>
     <row r="262" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
+      <c r="A262" t="s">
+        <v>272</v>
+      </c>
+      <c r="B262" t="s">
+        <v>216</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
@@ -13720,11 +13767,21 @@
       <c r="AF262" s="2"/>
     </row>
     <row r="263" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
+      <c r="A263" t="s">
+        <v>272</v>
+      </c>
+      <c r="B263" t="s">
+        <v>216</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
@@ -13754,11 +13811,21 @@
       <c r="AF263" s="2"/>
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
+      <c r="A264" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
@@ -13788,11 +13855,21 @@
       <c r="AF264" s="2"/>
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
+      <c r="A265" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
@@ -18853,6 +18930,108 @@
       <c r="AE413" s="2"/>
       <c r="AF413" s="2"/>
     </row>
+    <row r="414" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
+      <c r="H414" s="2"/>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="2"/>
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+      <c r="P414" s="2"/>
+      <c r="Q414" s="2"/>
+      <c r="R414" s="2"/>
+      <c r="S414" s="2"/>
+      <c r="T414" s="2"/>
+      <c r="U414" s="2"/>
+      <c r="V414" s="2"/>
+      <c r="W414" s="2"/>
+      <c r="X414" s="2"/>
+      <c r="Y414" s="2"/>
+      <c r="Z414" s="2"/>
+      <c r="AA414" s="2"/>
+      <c r="AB414" s="2"/>
+      <c r="AC414" s="2"/>
+      <c r="AD414" s="2"/>
+      <c r="AE414" s="2"/>
+      <c r="AF414" s="2"/>
+    </row>
+    <row r="415" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="2"/>
+      <c r="N415" s="2"/>
+      <c r="O415" s="2"/>
+      <c r="P415" s="2"/>
+      <c r="Q415" s="2"/>
+      <c r="R415" s="2"/>
+      <c r="S415" s="2"/>
+      <c r="T415" s="2"/>
+      <c r="U415" s="2"/>
+      <c r="V415" s="2"/>
+      <c r="W415" s="2"/>
+      <c r="X415" s="2"/>
+      <c r="Y415" s="2"/>
+      <c r="Z415" s="2"/>
+      <c r="AA415" s="2"/>
+      <c r="AB415" s="2"/>
+      <c r="AC415" s="2"/>
+      <c r="AD415" s="2"/>
+      <c r="AE415" s="2"/>
+      <c r="AF415" s="2"/>
+    </row>
+    <row r="416" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
+      <c r="H416" s="2"/>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+      <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="2"/>
+      <c r="N416" s="2"/>
+      <c r="O416" s="2"/>
+      <c r="P416" s="2"/>
+      <c r="Q416" s="2"/>
+      <c r="R416" s="2"/>
+      <c r="S416" s="2"/>
+      <c r="T416" s="2"/>
+      <c r="U416" s="2"/>
+      <c r="V416" s="2"/>
+      <c r="W416" s="2"/>
+      <c r="X416" s="2"/>
+      <c r="Y416" s="2"/>
+      <c r="Z416" s="2"/>
+      <c r="AA416" s="2"/>
+      <c r="AB416" s="2"/>
+      <c r="AC416" s="2"/>
+      <c r="AD416" s="2"/>
+      <c r="AE416" s="2"/>
+      <c r="AF416" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7473F-181A-42A5-BE45-C2A763B1E3FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87745299-3D9B-468E-BB3E-81271A144542}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="560">
   <si>
     <t>cartella</t>
   </si>
@@ -1696,6 +1696,30 @@
   </si>
   <si>
     <t>moqua01</t>
+  </si>
+  <si>
+    <t>rinse16.mp4</t>
+  </si>
+  <si>
+    <t>rinse17.mp4</t>
+  </si>
+  <si>
+    <t>rinse16</t>
+  </si>
+  <si>
+    <t>rinse17</t>
+  </si>
+  <si>
+    <t>conas02.mp4</t>
+  </si>
+  <si>
+    <t>conas03.mp4</t>
+  </si>
+  <si>
+    <t>conas02</t>
+  </si>
+  <si>
+    <t>conas03</t>
   </si>
 </sst>
 </file>
@@ -2065,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF416"/>
+  <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B255" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7123,17 +7147,17 @@
       <c r="AF111" s="2"/>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" t="s">
-        <v>61</v>
+      <c r="A112" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>152</v>
+        <v>552</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>554</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -7167,17 +7191,17 @@
       <c r="AF112" s="2"/>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" t="s">
-        <v>61</v>
+      <c r="A113" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>153</v>
+        <v>553</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>555</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -7218,10 +7242,10 @@
         <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
@@ -7262,10 +7286,10 @@
         <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
@@ -7306,10 +7330,10 @@
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
@@ -7347,13 +7371,13 @@
         <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>8</v>
@@ -7391,13 +7415,13 @@
         <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>537</v>
+        <v>156</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
@@ -7438,10 +7462,10 @@
         <v>320</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>535</v>
+        <v>152</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>536</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>8</v>
@@ -7479,13 +7503,13 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>157</v>
+        <v>537</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
@@ -7523,13 +7547,13 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>320</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>158</v>
+        <v>535</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7570,10 +7594,10 @@
         <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
@@ -7611,13 +7635,13 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>538</v>
+        <v>158</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>8</v>
@@ -7658,10 +7682,10 @@
         <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>537</v>
+        <v>159</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
@@ -7699,13 +7723,13 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>536</v>
+        <v>218</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>8</v>
@@ -7739,17 +7763,17 @@
       <c r="AF125" s="2"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>4</v>
+      <c r="A126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>164</v>
+        <v>537</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
@@ -7783,17 +7807,17 @@
       <c r="AF126" s="2"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>4</v>
+      <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>165</v>
+        <v>540</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>536</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -7834,10 +7858,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
@@ -7878,10 +7902,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>8</v>
@@ -7919,13 +7943,13 @@
         <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
@@ -7963,13 +7987,13 @@
         <v>142</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>8</v>
@@ -8010,10 +8034,10 @@
         <v>216</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
@@ -8054,10 +8078,10 @@
         <v>216</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>8</v>
@@ -8098,10 +8122,10 @@
         <v>216</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
@@ -8142,10 +8166,10 @@
         <v>216</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>8</v>
@@ -8186,10 +8210,10 @@
         <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
@@ -8230,10 +8254,10 @@
         <v>216</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>8</v>
@@ -8274,10 +8298,10 @@
         <v>216</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
@@ -8318,10 +8342,10 @@
         <v>216</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>8</v>
@@ -8362,10 +8386,10 @@
         <v>216</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>544</v>
+        <v>231</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>543</v>
+        <v>223</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
@@ -8400,16 +8424,16 @@
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>8</v>
@@ -8444,16 +8468,16 @@
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" t="s">
-        <v>237</v>
+        <v>142</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>242</v>
+        <v>544</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>239</v>
+        <v>543</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -8494,10 +8518,10 @@
         <v>237</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>541</v>
+        <v>241</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>542</v>
+        <v>238</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>8</v>
@@ -8534,14 +8558,14 @@
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>67</v>
+      <c r="B144" t="s">
+        <v>237</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
@@ -8578,14 +8602,14 @@
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>67</v>
+      <c r="B145" t="s">
+        <v>237</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>244</v>
+        <v>541</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>149</v>
+        <v>542</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8622,14 +8646,14 @@
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>67</v>
+      <c r="B146" t="s">
+        <v>237</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>245</v>
+        <v>556</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>249</v>
+        <v>558</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8666,14 +8690,14 @@
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>67</v>
+      <c r="B147" t="s">
+        <v>237</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>246</v>
+        <v>557</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>559</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -8714,10 +8738,10 @@
         <v>67</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
@@ -8758,10 +8782,10 @@
         <v>67</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>8</v>
@@ -8802,10 +8826,10 @@
         <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
@@ -8843,13 +8867,13 @@
         <v>3</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>259</v>
+        <v>67</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>8</v>
@@ -8887,13 +8911,13 @@
         <v>3</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>260</v>
+        <v>67</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
@@ -8931,13 +8955,13 @@
         <v>3</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>261</v>
+        <v>67</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>8</v>
@@ -8975,13 +8999,13 @@
         <v>3</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>262</v>
+        <v>67</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
@@ -9022,10 +9046,10 @@
         <v>61</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>8</v>
@@ -9066,10 +9090,10 @@
         <v>61</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
@@ -9110,10 +9134,10 @@
         <v>61</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>8</v>
@@ -9154,10 +9178,10 @@
         <v>61</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
@@ -9198,10 +9222,10 @@
         <v>61</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>8</v>
@@ -9242,10 +9266,10 @@
         <v>61</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
@@ -9286,10 +9310,10 @@
         <v>61</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>8</v>
@@ -9330,10 +9354,10 @@
         <v>61</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
@@ -9374,10 +9398,10 @@
         <v>61</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>8</v>
@@ -9415,13 +9439,13 @@
         <v>3</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>538</v>
+        <v>268</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
@@ -9459,13 +9483,13 @@
         <v>3</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>537</v>
+        <v>269</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>8</v>
@@ -9503,13 +9527,13 @@
         <v>3</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>539</v>
+        <v>270</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
@@ -9550,10 +9574,10 @@
         <v>61</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>540</v>
+        <v>271</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>536</v>
+        <v>148</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>8</v>
@@ -9588,16 +9612,16 @@
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
@@ -9632,16 +9656,16 @@
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>8</v>
@@ -9676,16 +9700,16 @@
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9719,17 +9743,17 @@
       <c r="AF170" s="2"/>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>272</v>
-      </c>
-      <c r="B171" t="s">
-        <v>273</v>
+      <c r="A171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>363</v>
+        <v>540</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>274</v>
+        <v>536</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9770,10 +9794,10 @@
         <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9807,17 +9831,17 @@
       <c r="AF172" s="2"/>
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9858,10 +9882,10 @@
         <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9902,10 +9926,10 @@
         <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9939,17 +9963,17 @@
       <c r="AF175" s="2"/>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -9990,10 +10014,10 @@
         <v>273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>417</v>
+        <v>275</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -10027,17 +10051,17 @@
       <c r="AF177" s="2"/>
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>278</v>
+        <v>415</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -10078,10 +10102,10 @@
         <v>273</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>419</v>
+        <v>276</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -10122,10 +10146,10 @@
         <v>273</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -10166,10 +10190,10 @@
         <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -10210,10 +10234,10 @@
         <v>273</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -10254,10 +10278,10 @@
         <v>273</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -10298,10 +10322,10 @@
         <v>273</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>425</v>
+        <v>279</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -10342,10 +10366,10 @@
         <v>273</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>281</v>
+        <v>421</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -10386,10 +10410,10 @@
         <v>273</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>427</v>
+        <v>280</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10430,10 +10454,10 @@
         <v>273</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>282</v>
+        <v>423</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10474,10 +10498,10 @@
         <v>273</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10518,10 +10542,10 @@
         <v>273</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>429</v>
+        <v>281</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10562,10 +10586,10 @@
         <v>273</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10606,10 +10630,10 @@
         <v>273</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10650,10 +10674,10 @@
         <v>273</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10694,10 +10718,10 @@
         <v>273</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10738,10 +10762,10 @@
         <v>273</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10782,10 +10806,10 @@
         <v>273</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10826,10 +10850,10 @@
         <v>273</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>435</v>
+        <v>285</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10870,10 +10894,10 @@
         <v>273</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10914,10 +10938,10 @@
         <v>273</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10958,10 +10982,10 @@
         <v>273</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -11002,10 +11026,10 @@
         <v>273</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -11046,10 +11070,10 @@
         <v>273</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -11090,10 +11114,10 @@
         <v>273</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>288</v>
+        <v>441</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -11134,10 +11158,10 @@
         <v>273</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>289</v>
+        <v>442</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -11178,10 +11202,10 @@
         <v>273</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>290</v>
+        <v>443</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11222,10 +11246,10 @@
         <v>273</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>380</v>
+        <v>444</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>291</v>
+        <v>445</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11266,10 +11290,10 @@
         <v>273</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11310,10 +11334,10 @@
         <v>273</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11354,10 +11378,10 @@
         <v>273</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11395,13 +11419,13 @@
         <v>272</v>
       </c>
       <c r="B209" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>507</v>
+        <v>380</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>508</v>
+        <v>291</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11439,13 +11463,13 @@
         <v>272</v>
       </c>
       <c r="B210" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>509</v>
+        <v>381</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>510</v>
+        <v>292</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11483,13 +11507,13 @@
         <v>272</v>
       </c>
       <c r="B211" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11527,13 +11551,13 @@
         <v>272</v>
       </c>
       <c r="B212" t="s">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>480</v>
+        <v>382</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>482</v>
+        <v>293</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11573,11 +11597,11 @@
       <c r="B213" t="s">
         <v>478</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>383</v>
+      <c r="C213" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>294</v>
+        <v>508</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11617,11 +11641,11 @@
       <c r="B214" t="s">
         <v>478</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>499</v>
+      <c r="C214" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11661,11 +11685,11 @@
       <c r="B215" t="s">
         <v>478</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>500</v>
+      <c r="C215" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11705,11 +11729,11 @@
       <c r="B216" t="s">
         <v>478</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>501</v>
+      <c r="C216" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11750,10 +11774,10 @@
         <v>478</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>502</v>
+        <v>383</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>506</v>
+        <v>294</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11794,10 +11818,10 @@
         <v>478</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>384</v>
+        <v>499</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11838,10 +11862,10 @@
         <v>478</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11882,10 +11906,10 @@
         <v>478</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11926,10 +11950,10 @@
         <v>478</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11970,10 +11994,10 @@
         <v>478</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>494</v>
+        <v>295</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -12014,10 +12038,10 @@
         <v>478</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -12058,10 +12082,10 @@
         <v>478</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -12102,10 +12126,10 @@
         <v>478</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -12146,10 +12170,10 @@
         <v>478</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12187,13 +12211,13 @@
         <v>272</v>
       </c>
       <c r="B227" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>448</v>
+        <v>487</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12231,13 +12255,13 @@
         <v>272</v>
       </c>
       <c r="B228" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>297</v>
+        <v>496</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12275,13 +12299,13 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>298</v>
+        <v>497</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12319,13 +12343,13 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>478</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12366,10 +12390,10 @@
         <v>296</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12410,10 +12434,10 @@
         <v>296</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12454,10 +12478,10 @@
         <v>296</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>455</v>
+        <v>298</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12498,10 +12522,10 @@
         <v>296</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12542,10 +12566,10 @@
         <v>296</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12586,10 +12610,10 @@
         <v>296</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12630,10 +12654,10 @@
         <v>296</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>302</v>
+        <v>455</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12674,10 +12698,10 @@
         <v>296</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12718,10 +12742,10 @@
         <v>296</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12762,10 +12786,10 @@
         <v>296</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>305</v>
+        <v>457</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12806,10 +12830,10 @@
         <v>296</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>459</v>
+        <v>302</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>8</v>
@@ -12850,10 +12874,10 @@
         <v>296</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>461</v>
+        <v>303</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
@@ -12894,10 +12918,10 @@
         <v>296</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>8</v>
@@ -12938,10 +12962,10 @@
         <v>296</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>463</v>
+        <v>305</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>8</v>
@@ -12982,10 +13006,10 @@
         <v>296</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>8</v>
@@ -13026,10 +13050,10 @@
         <v>296</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>8</v>
@@ -13070,10 +13094,10 @@
         <v>296</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>466</v>
+        <v>393</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>470</v>
+        <v>306</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>8</v>
@@ -13114,10 +13138,10 @@
         <v>296</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>8</v>
@@ -13158,10 +13182,10 @@
         <v>296</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>8</v>
@@ -13202,10 +13226,10 @@
         <v>296</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>8</v>
@@ -13246,10 +13270,10 @@
         <v>296</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>8</v>
@@ -13287,13 +13311,13 @@
         <v>272</v>
       </c>
       <c r="B252" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>308</v>
+        <v>471</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>8</v>
@@ -13331,13 +13355,13 @@
         <v>272</v>
       </c>
       <c r="B253" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>309</v>
+        <v>475</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>8</v>
@@ -13375,13 +13399,13 @@
         <v>272</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>310</v>
+        <v>476</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>8</v>
@@ -13419,13 +13443,13 @@
         <v>272</v>
       </c>
       <c r="B255" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>311</v>
+        <v>477</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>8</v>
@@ -13466,10 +13490,10 @@
         <v>307</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>8</v>
@@ -13510,10 +13534,10 @@
         <v>307</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>8</v>
@@ -13554,10 +13578,10 @@
         <v>307</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>8</v>
@@ -13598,10 +13622,10 @@
         <v>307</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>8</v>
@@ -13639,13 +13663,13 @@
         <v>272</v>
       </c>
       <c r="B260" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>8</v>
@@ -13683,13 +13707,13 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>8</v>
@@ -13727,13 +13751,13 @@
         <v>272</v>
       </c>
       <c r="B262" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>8</v>
@@ -13771,13 +13795,13 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>8</v>
@@ -13811,17 +13835,17 @@
       <c r="AF263" s="2"/>
     </row>
     <row r="264" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>547</v>
+      <c r="A264" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264" t="s">
+        <v>216</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>548</v>
+        <v>402</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>549</v>
+        <v>316</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>8</v>
@@ -13855,17 +13879,17 @@
       <c r="AF264" s="2"/>
     </row>
     <row r="265" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>547</v>
+      <c r="A265" t="s">
+        <v>272</v>
+      </c>
+      <c r="B265" t="s">
+        <v>216</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>550</v>
+        <v>403</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>551</v>
+        <v>317</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>8</v>
@@ -13899,11 +13923,21 @@
       <c r="AF265" s="2"/>
     </row>
     <row r="266" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
+      <c r="A266" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266" t="s">
+        <v>216</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
@@ -13933,11 +13967,21 @@
       <c r="AF266" s="2"/>
     </row>
     <row r="267" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" t="s">
+        <v>216</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
@@ -13967,11 +14011,21 @@
       <c r="AF267" s="2"/>
     </row>
     <row r="268" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
+      <c r="A268" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
@@ -14001,11 +14055,21 @@
       <c r="AF268" s="2"/>
     </row>
     <row r="269" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
+      <c r="A269" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
@@ -19032,6 +19096,142 @@
       <c r="AE416" s="2"/>
       <c r="AF416" s="2"/>
     </row>
+    <row r="417" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+      <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="2"/>
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
+      <c r="P417" s="2"/>
+      <c r="Q417" s="2"/>
+      <c r="R417" s="2"/>
+      <c r="S417" s="2"/>
+      <c r="T417" s="2"/>
+      <c r="U417" s="2"/>
+      <c r="V417" s="2"/>
+      <c r="W417" s="2"/>
+      <c r="X417" s="2"/>
+      <c r="Y417" s="2"/>
+      <c r="Z417" s="2"/>
+      <c r="AA417" s="2"/>
+      <c r="AB417" s="2"/>
+      <c r="AC417" s="2"/>
+      <c r="AD417" s="2"/>
+      <c r="AE417" s="2"/>
+      <c r="AF417" s="2"/>
+    </row>
+    <row r="418" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
+      <c r="H418" s="2"/>
+      <c r="I418" s="2"/>
+      <c r="J418" s="2"/>
+      <c r="K418" s="2"/>
+      <c r="L418" s="2"/>
+      <c r="M418" s="2"/>
+      <c r="N418" s="2"/>
+      <c r="O418" s="2"/>
+      <c r="P418" s="2"/>
+      <c r="Q418" s="2"/>
+      <c r="R418" s="2"/>
+      <c r="S418" s="2"/>
+      <c r="T418" s="2"/>
+      <c r="U418" s="2"/>
+      <c r="V418" s="2"/>
+      <c r="W418" s="2"/>
+      <c r="X418" s="2"/>
+      <c r="Y418" s="2"/>
+      <c r="Z418" s="2"/>
+      <c r="AA418" s="2"/>
+      <c r="AB418" s="2"/>
+      <c r="AC418" s="2"/>
+      <c r="AD418" s="2"/>
+      <c r="AE418" s="2"/>
+      <c r="AF418" s="2"/>
+    </row>
+    <row r="419" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
+      <c r="K419" s="2"/>
+      <c r="L419" s="2"/>
+      <c r="M419" s="2"/>
+      <c r="N419" s="2"/>
+      <c r="O419" s="2"/>
+      <c r="P419" s="2"/>
+      <c r="Q419" s="2"/>
+      <c r="R419" s="2"/>
+      <c r="S419" s="2"/>
+      <c r="T419" s="2"/>
+      <c r="U419" s="2"/>
+      <c r="V419" s="2"/>
+      <c r="W419" s="2"/>
+      <c r="X419" s="2"/>
+      <c r="Y419" s="2"/>
+      <c r="Z419" s="2"/>
+      <c r="AA419" s="2"/>
+      <c r="AB419" s="2"/>
+      <c r="AC419" s="2"/>
+      <c r="AD419" s="2"/>
+      <c r="AE419" s="2"/>
+      <c r="AF419" s="2"/>
+    </row>
+    <row r="420" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
+      <c r="H420" s="2"/>
+      <c r="I420" s="2"/>
+      <c r="J420" s="2"/>
+      <c r="K420" s="2"/>
+      <c r="L420" s="2"/>
+      <c r="M420" s="2"/>
+      <c r="N420" s="2"/>
+      <c r="O420" s="2"/>
+      <c r="P420" s="2"/>
+      <c r="Q420" s="2"/>
+      <c r="R420" s="2"/>
+      <c r="S420" s="2"/>
+      <c r="T420" s="2"/>
+      <c r="U420" s="2"/>
+      <c r="V420" s="2"/>
+      <c r="W420" s="2"/>
+      <c r="X420" s="2"/>
+      <c r="Y420" s="2"/>
+      <c r="Z420" s="2"/>
+      <c r="AA420" s="2"/>
+      <c r="AB420" s="2"/>
+      <c r="AC420" s="2"/>
+      <c r="AD420" s="2"/>
+      <c r="AE420" s="2"/>
+      <c r="AF420" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87745299-3D9B-468E-BB3E-81271A144542}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28046043-975B-48E3-8650-CC5B410CCDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="561">
   <si>
     <t>cartella</t>
   </si>
@@ -1720,6 +1720,9 @@
   </si>
   <si>
     <t>conas03</t>
+  </si>
+  <si>
+    <t>E - Stretching</t>
   </si>
 </sst>
 </file>
@@ -2091,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264:B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13839,7 +13842,7 @@
         <v>272</v>
       </c>
       <c r="B264" t="s">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>402</v>
@@ -13883,7 +13886,7 @@
         <v>272</v>
       </c>
       <c r="B265" t="s">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>403</v>
@@ -13927,7 +13930,7 @@
         <v>272</v>
       </c>
       <c r="B266" t="s">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>404</v>
@@ -13971,7 +13974,7 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>405</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28046043-975B-48E3-8650-CC5B410CCDC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEED4A3-F9F3-4C78-9710-766FF3B5089E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,9 +854,6 @@
     <t>Riabilitazione Muscoloscheletrica</t>
   </si>
   <si>
-    <t>Senza carico</t>
-  </si>
-  <si>
     <t>A04</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>B15</t>
   </si>
   <si>
-    <t>Carico totale</t>
-  </si>
-  <si>
     <t>C02</t>
   </si>
   <si>
@@ -956,9 +950,6 @@
     <t>C22</t>
   </si>
   <si>
-    <t>Core Stability</t>
-  </si>
-  <si>
     <t>D01</t>
   </si>
   <si>
@@ -1467,9 +1458,6 @@
   </si>
   <si>
     <t>C35</t>
-  </si>
-  <si>
-    <t>Carico Parziale</t>
   </si>
   <si>
     <t>B05.mp4</t>
@@ -1723,6 +1711,18 @@
   </si>
   <si>
     <t>E - Stretching</t>
+  </si>
+  <si>
+    <t>A - Senza carico</t>
+  </si>
+  <si>
+    <t>B - Carico Parziale</t>
+  </si>
+  <si>
+    <t>C - Carico totale</t>
+  </si>
+  <si>
+    <t>D - Core Stability</t>
   </si>
 </sst>
 </file>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264:B267"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256:B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -3061,10 +3061,10 @@
         <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -3073,10 +3073,10 @@
         <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3111,22 +3111,22 @@
         <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -3161,22 +3161,22 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3211,22 +3211,22 @@
         <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3261,22 +3261,22 @@
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3311,22 +3311,22 @@
         <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3361,22 +3361,22 @@
         <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3411,22 +3411,22 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3637,10 +3637,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
@@ -3725,10 +3725,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -3769,10 +3769,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>8</v>
@@ -3813,10 +3813,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -3857,10 +3857,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -3901,10 +3901,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -3989,10 +3989,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
@@ -5353,10 +5353,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>8</v>
@@ -5485,10 +5485,10 @@
         <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -5529,10 +5529,10 @@
         <v>67</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -5573,10 +5573,10 @@
         <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -5617,10 +5617,10 @@
         <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>8</v>
@@ -5661,10 +5661,10 @@
         <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -6192,7 +6192,7 @@
         <v>190</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
@@ -6233,10 +6233,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>8</v>
@@ -6277,10 +6277,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
@@ -6321,10 +6321,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>8</v>
@@ -6368,7 +6368,7 @@
         <v>191</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
@@ -6412,7 +6412,7 @@
         <v>192</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>8</v>
@@ -6456,7 +6456,7 @@
         <v>193</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
@@ -6500,7 +6500,7 @@
         <v>194</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>8</v>
@@ -6544,7 +6544,7 @@
         <v>195</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
@@ -6673,10 +6673,10 @@
         <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>8</v>
@@ -7069,10 +7069,10 @@
         <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -7113,10 +7113,10 @@
         <v>67</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>8</v>
@@ -7157,10 +7157,10 @@
         <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -7201,10 +7201,10 @@
         <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -7462,7 +7462,7 @@
         <v>143</v>
       </c>
       <c r="B119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>152</v>
@@ -7506,10 +7506,10 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>200</v>
@@ -7550,13 +7550,13 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7729,7 +7729,7 @@
         <v>216</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>218</v>
@@ -7773,7 +7773,7 @@
         <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>200</v>
@@ -7817,10 +7817,10 @@
         <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -8477,10 +8477,10 @@
         <v>216</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -8609,10 +8609,10 @@
         <v>237</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8653,10 +8653,10 @@
         <v>237</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8697,10 +8697,10 @@
         <v>237</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         <v>216</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>218</v>
@@ -9665,7 +9665,7 @@
         <v>67</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>200</v>
@@ -9709,10 +9709,10 @@
         <v>67</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
@@ -9753,10 +9753,10 @@
         <v>61</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -9794,13 +9794,13 @@
         <v>272</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
@@ -9838,13 +9838,13 @@
         <v>272</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>8</v>
@@ -9882,13 +9882,13 @@
         <v>272</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
@@ -9925,14 +9925,14 @@
       <c r="A175" t="s">
         <v>272</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>8</v>
@@ -9970,13 +9970,13 @@
         <v>272</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
@@ -10013,14 +10013,14 @@
       <c r="A177" t="s">
         <v>272</v>
       </c>
-      <c r="B177" t="s">
-        <v>273</v>
+      <c r="B177" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>8</v>
@@ -10058,13 +10058,13 @@
         <v>272</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>273</v>
+        <v>557</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
@@ -10101,14 +10101,14 @@
       <c r="A179" t="s">
         <v>272</v>
       </c>
-      <c r="B179" t="s">
-        <v>273</v>
+      <c r="B179" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>8</v>
@@ -10145,14 +10145,14 @@
       <c r="A180" t="s">
         <v>272</v>
       </c>
-      <c r="B180" t="s">
-        <v>273</v>
+      <c r="B180" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
@@ -10189,14 +10189,14 @@
       <c r="A181" t="s">
         <v>272</v>
       </c>
-      <c r="B181" t="s">
-        <v>273</v>
+      <c r="B181" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>8</v>
@@ -10233,14 +10233,14 @@
       <c r="A182" t="s">
         <v>272</v>
       </c>
-      <c r="B182" t="s">
-        <v>273</v>
+      <c r="B182" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
@@ -10277,14 +10277,14 @@
       <c r="A183" t="s">
         <v>272</v>
       </c>
-      <c r="B183" t="s">
-        <v>273</v>
+      <c r="B183" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>8</v>
@@ -10321,14 +10321,14 @@
       <c r="A184" t="s">
         <v>272</v>
       </c>
-      <c r="B184" t="s">
-        <v>273</v>
+      <c r="B184" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
@@ -10365,14 +10365,14 @@
       <c r="A185" t="s">
         <v>272</v>
       </c>
-      <c r="B185" t="s">
-        <v>273</v>
+      <c r="B185" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>8</v>
@@ -10409,14 +10409,14 @@
       <c r="A186" t="s">
         <v>272</v>
       </c>
-      <c r="B186" t="s">
-        <v>273</v>
+      <c r="B186" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
@@ -10453,14 +10453,14 @@
       <c r="A187" t="s">
         <v>272</v>
       </c>
-      <c r="B187" t="s">
-        <v>273</v>
+      <c r="B187" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>8</v>
@@ -10497,14 +10497,14 @@
       <c r="A188" t="s">
         <v>272</v>
       </c>
-      <c r="B188" t="s">
-        <v>273</v>
+      <c r="B188" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
@@ -10541,14 +10541,14 @@
       <c r="A189" t="s">
         <v>272</v>
       </c>
-      <c r="B189" t="s">
-        <v>273</v>
+      <c r="B189" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>8</v>
@@ -10585,14 +10585,14 @@
       <c r="A190" t="s">
         <v>272</v>
       </c>
-      <c r="B190" t="s">
-        <v>273</v>
+      <c r="B190" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
@@ -10629,14 +10629,14 @@
       <c r="A191" t="s">
         <v>272</v>
       </c>
-      <c r="B191" t="s">
-        <v>273</v>
+      <c r="B191" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>8</v>
@@ -10673,14 +10673,14 @@
       <c r="A192" t="s">
         <v>272</v>
       </c>
-      <c r="B192" t="s">
-        <v>273</v>
+      <c r="B192" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
@@ -10717,14 +10717,14 @@
       <c r="A193" t="s">
         <v>272</v>
       </c>
-      <c r="B193" t="s">
-        <v>273</v>
+      <c r="B193" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>8</v>
@@ -10761,14 +10761,14 @@
       <c r="A194" t="s">
         <v>272</v>
       </c>
-      <c r="B194" t="s">
-        <v>273</v>
+      <c r="B194" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
@@ -10805,14 +10805,14 @@
       <c r="A195" t="s">
         <v>272</v>
       </c>
-      <c r="B195" t="s">
-        <v>273</v>
+      <c r="B195" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>8</v>
@@ -10849,14 +10849,14 @@
       <c r="A196" t="s">
         <v>272</v>
       </c>
-      <c r="B196" t="s">
-        <v>273</v>
+      <c r="B196" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
@@ -10893,14 +10893,14 @@
       <c r="A197" t="s">
         <v>272</v>
       </c>
-      <c r="B197" t="s">
-        <v>273</v>
+      <c r="B197" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>8</v>
@@ -10937,14 +10937,14 @@
       <c r="A198" t="s">
         <v>272</v>
       </c>
-      <c r="B198" t="s">
-        <v>273</v>
+      <c r="B198" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
@@ -10981,14 +10981,14 @@
       <c r="A199" t="s">
         <v>272</v>
       </c>
-      <c r="B199" t="s">
-        <v>273</v>
+      <c r="B199" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>8</v>
@@ -11025,14 +11025,14 @@
       <c r="A200" t="s">
         <v>272</v>
       </c>
-      <c r="B200" t="s">
-        <v>273</v>
+      <c r="B200" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
@@ -11069,14 +11069,14 @@
       <c r="A201" t="s">
         <v>272</v>
       </c>
-      <c r="B201" t="s">
-        <v>273</v>
+      <c r="B201" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>8</v>
@@ -11113,14 +11113,14 @@
       <c r="A202" t="s">
         <v>272</v>
       </c>
-      <c r="B202" t="s">
-        <v>273</v>
+      <c r="B202" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
@@ -11157,14 +11157,14 @@
       <c r="A203" t="s">
         <v>272</v>
       </c>
-      <c r="B203" t="s">
-        <v>273</v>
+      <c r="B203" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>8</v>
@@ -11201,14 +11201,14 @@
       <c r="A204" t="s">
         <v>272</v>
       </c>
-      <c r="B204" t="s">
-        <v>273</v>
+      <c r="B204" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
@@ -11245,14 +11245,14 @@
       <c r="A205" t="s">
         <v>272</v>
       </c>
-      <c r="B205" t="s">
-        <v>273</v>
+      <c r="B205" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>8</v>
@@ -11289,14 +11289,14 @@
       <c r="A206" t="s">
         <v>272</v>
       </c>
-      <c r="B206" t="s">
-        <v>273</v>
+      <c r="B206" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
@@ -11333,14 +11333,14 @@
       <c r="A207" t="s">
         <v>272</v>
       </c>
-      <c r="B207" t="s">
-        <v>273</v>
+      <c r="B207" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>8</v>
@@ -11377,14 +11377,14 @@
       <c r="A208" t="s">
         <v>272</v>
       </c>
-      <c r="B208" t="s">
-        <v>273</v>
+      <c r="B208" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
@@ -11421,14 +11421,14 @@
       <c r="A209" t="s">
         <v>272</v>
       </c>
-      <c r="B209" t="s">
-        <v>273</v>
+      <c r="B209" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>8</v>
@@ -11465,14 +11465,14 @@
       <c r="A210" t="s">
         <v>272</v>
       </c>
-      <c r="B210" t="s">
-        <v>273</v>
+      <c r="B210" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
@@ -11509,14 +11509,14 @@
       <c r="A211" t="s">
         <v>272</v>
       </c>
-      <c r="B211" t="s">
-        <v>273</v>
+      <c r="B211" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>8</v>
@@ -11553,14 +11553,14 @@
       <c r="A212" t="s">
         <v>272</v>
       </c>
-      <c r="B212" t="s">
-        <v>273</v>
+      <c r="B212" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
@@ -11598,13 +11598,13 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11642,13 +11642,13 @@
         <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11686,13 +11686,13 @@
         <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11730,13 +11730,13 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
+        <v>558</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11774,13 +11774,13 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>8</v>
@@ -11818,13 +11818,13 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11862,13 +11862,13 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C219" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -11906,13 +11906,13 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -11950,13 +11950,13 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -11994,13 +11994,13 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
@@ -12038,13 +12038,13 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -12082,13 +12082,13 @@
         <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -12126,13 +12126,13 @@
         <v>272</v>
       </c>
       <c r="B225" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -12170,13 +12170,13 @@
         <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12214,13 +12214,13 @@
         <v>272</v>
       </c>
       <c r="B227" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12258,13 +12258,13 @@
         <v>272</v>
       </c>
       <c r="B228" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12302,13 +12302,13 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12346,13 +12346,13 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -12390,13 +12390,13 @@
         <v>272</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>8</v>
@@ -12434,13 +12434,13 @@
         <v>272</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
@@ -12478,13 +12478,13 @@
         <v>272</v>
       </c>
       <c r="B233" t="s">
+        <v>559</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>8</v>
@@ -12522,13 +12522,13 @@
         <v>272</v>
       </c>
       <c r="B234" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
@@ -12566,13 +12566,13 @@
         <v>272</v>
       </c>
       <c r="B235" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>8</v>
@@ -12610,13 +12610,13 @@
         <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
@@ -12654,13 +12654,13 @@
         <v>272</v>
       </c>
       <c r="B237" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>8</v>
@@ -12698,13 +12698,13 @@
         <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
@@ -12742,13 +12742,13 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>8</v>
@@ -12786,13 +12786,13 @@
         <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
@@ -12830,13 +12830,13 @@
         <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>8</v>
@@ -12874,13 +12874,13 @@
         <v>272</v>
       </c>
       <c r="B242" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
@@ -12918,13 +12918,13 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>8</v>
@@ -12962,13 +12962,13 @@
         <v>272</v>
       </c>
       <c r="B244" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>8</v>
@@ -13006,13 +13006,13 @@
         <v>272</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>8</v>
@@ -13050,13 +13050,13 @@
         <v>272</v>
       </c>
       <c r="B246" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>8</v>
@@ -13094,13 +13094,13 @@
         <v>272</v>
       </c>
       <c r="B247" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>8</v>
@@ -13138,13 +13138,13 @@
         <v>272</v>
       </c>
       <c r="B248" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>8</v>
@@ -13182,13 +13182,13 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>8</v>
@@ -13226,13 +13226,13 @@
         <v>272</v>
       </c>
       <c r="B250" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>8</v>
@@ -13270,13 +13270,13 @@
         <v>272</v>
       </c>
       <c r="B251" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>8</v>
@@ -13314,13 +13314,13 @@
         <v>272</v>
       </c>
       <c r="B252" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>8</v>
@@ -13358,13 +13358,13 @@
         <v>272</v>
       </c>
       <c r="B253" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C253" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>8</v>
@@ -13402,13 +13402,13 @@
         <v>272</v>
       </c>
       <c r="B254" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C254" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>8</v>
@@ -13446,13 +13446,13 @@
         <v>272</v>
       </c>
       <c r="B255" t="s">
-        <v>296</v>
+        <v>559</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>8</v>
@@ -13490,13 +13490,13 @@
         <v>272</v>
       </c>
       <c r="B256" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>8</v>
@@ -13534,13 +13534,13 @@
         <v>272</v>
       </c>
       <c r="B257" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>8</v>
@@ -13578,13 +13578,13 @@
         <v>272</v>
       </c>
       <c r="B258" t="s">
+        <v>560</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>8</v>
@@ -13622,13 +13622,13 @@
         <v>272</v>
       </c>
       <c r="B259" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>8</v>
@@ -13666,13 +13666,13 @@
         <v>272</v>
       </c>
       <c r="B260" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>8</v>
@@ -13710,13 +13710,13 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>8</v>
@@ -13754,13 +13754,13 @@
         <v>272</v>
       </c>
       <c r="B262" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>8</v>
@@ -13798,13 +13798,13 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>307</v>
+        <v>560</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>8</v>
@@ -13842,13 +13842,13 @@
         <v>272</v>
       </c>
       <c r="B264" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>8</v>
@@ -13886,13 +13886,13 @@
         <v>272</v>
       </c>
       <c r="B265" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>8</v>
@@ -13930,13 +13930,13 @@
         <v>272</v>
       </c>
       <c r="B266" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>8</v>
@@ -13974,13 +13974,13 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>8</v>
@@ -14018,13 +14018,13 @@
         <v>142</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>8</v>
@@ -14062,13 +14062,13 @@
         <v>142</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>8</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEED4A3-F9F3-4C78-9710-766FF3B5089E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E06B7-9282-458D-AC73-CC80B2B5F3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1716,13 +1716,13 @@
     <t>A - Senza carico</t>
   </si>
   <si>
-    <t>B - Carico Parziale</t>
-  </si>
-  <si>
     <t>C - Carico totale</t>
   </si>
   <si>
     <t>D - Core Stability</t>
+  </si>
+  <si>
+    <t>B - Carico parziale</t>
   </si>
 </sst>
 </file>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256:B263"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213:B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11598,7 +11598,7 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>503</v>
@@ -11642,7 +11642,7 @@
         <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>505</v>
@@ -11686,7 +11686,7 @@
         <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>475</v>
@@ -11730,7 +11730,7 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>476</v>
@@ -11774,7 +11774,7 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>380</v>
@@ -11818,7 +11818,7 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>495</v>
@@ -11862,7 +11862,7 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>496</v>
@@ -11906,7 +11906,7 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>497</v>
@@ -11950,7 +11950,7 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>498</v>
@@ -11994,7 +11994,7 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>381</v>
@@ -12038,7 +12038,7 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>479</v>
@@ -12082,7 +12082,7 @@
         <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>480</v>
@@ -12126,7 +12126,7 @@
         <v>272</v>
       </c>
       <c r="B225" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>481</v>
@@ -12170,7 +12170,7 @@
         <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>482</v>
@@ -12214,7 +12214,7 @@
         <v>272</v>
       </c>
       <c r="B227" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>483</v>
@@ -12258,7 +12258,7 @@
         <v>272</v>
       </c>
       <c r="B228" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>484</v>
@@ -12302,7 +12302,7 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>485</v>
@@ -12346,7 +12346,7 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>486</v>
@@ -12390,7 +12390,7 @@
         <v>272</v>
       </c>
       <c r="B231" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>445</v>
@@ -12434,7 +12434,7 @@
         <v>272</v>
       </c>
       <c r="B232" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>382</v>
@@ -12478,7 +12478,7 @@
         <v>272</v>
       </c>
       <c r="B233" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>383</v>
@@ -12522,7 +12522,7 @@
         <v>272</v>
       </c>
       <c r="B234" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>447</v>
@@ -12566,7 +12566,7 @@
         <v>272</v>
       </c>
       <c r="B235" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>384</v>
@@ -12610,7 +12610,7 @@
         <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>449</v>
@@ -12654,7 +12654,7 @@
         <v>272</v>
       </c>
       <c r="B237" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>451</v>
@@ -12698,7 +12698,7 @@
         <v>272</v>
       </c>
       <c r="B238" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>385</v>
@@ -12742,7 +12742,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>386</v>
@@ -12786,7 +12786,7 @@
         <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>453</v>
@@ -12830,7 +12830,7 @@
         <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>387</v>
@@ -12874,7 +12874,7 @@
         <v>272</v>
       </c>
       <c r="B242" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>359</v>
@@ -12918,7 +12918,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>388</v>
@@ -12962,7 +12962,7 @@
         <v>272</v>
       </c>
       <c r="B244" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>389</v>
@@ -13006,7 +13006,7 @@
         <v>272</v>
       </c>
       <c r="B245" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>455</v>
@@ -13050,7 +13050,7 @@
         <v>272</v>
       </c>
       <c r="B246" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>457</v>
@@ -13094,7 +13094,7 @@
         <v>272</v>
       </c>
       <c r="B247" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>390</v>
@@ -13138,7 +13138,7 @@
         <v>272</v>
       </c>
       <c r="B248" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>459</v>
@@ -13182,7 +13182,7 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>461</v>
@@ -13226,7 +13226,7 @@
         <v>272</v>
       </c>
       <c r="B250" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>462</v>
@@ -13270,7 +13270,7 @@
         <v>272</v>
       </c>
       <c r="B251" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>463</v>
@@ -13314,7 +13314,7 @@
         <v>272</v>
       </c>
       <c r="B252" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>464</v>
@@ -13358,7 +13358,7 @@
         <v>272</v>
       </c>
       <c r="B253" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>469</v>
@@ -13402,7 +13402,7 @@
         <v>272</v>
       </c>
       <c r="B254" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>470</v>
@@ -13446,7 +13446,7 @@
         <v>272</v>
       </c>
       <c r="B255" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>471</v>
@@ -13490,7 +13490,7 @@
         <v>272</v>
       </c>
       <c r="B256" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>391</v>
@@ -13534,7 +13534,7 @@
         <v>272</v>
       </c>
       <c r="B257" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>392</v>
@@ -13578,7 +13578,7 @@
         <v>272</v>
       </c>
       <c r="B258" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>393</v>
@@ -13622,7 +13622,7 @@
         <v>272</v>
       </c>
       <c r="B259" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>394</v>
@@ -13666,7 +13666,7 @@
         <v>272</v>
       </c>
       <c r="B260" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>395</v>
@@ -13710,7 +13710,7 @@
         <v>272</v>
       </c>
       <c r="B261" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>396</v>
@@ -13754,7 +13754,7 @@
         <v>272</v>
       </c>
       <c r="B262" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>397</v>
@@ -13798,7 +13798,7 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>398</v>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E06B7-9282-458D-AC73-CC80B2B5F3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DBB23-33CE-407E-B2E7-DFEF5888DB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="123" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="123" workbookViewId="0">
       <selection activeCell="B213" sqref="B213:B230"/>
     </sheetView>
   </sheetViews>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87745299-3D9B-468E-BB3E-81271A144542}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB397B9E-6A87-4766-B2F1-848B5553F53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="593">
   <si>
     <t>cartella</t>
   </si>
@@ -1720,6 +1720,105 @@
   </si>
   <si>
     <t>conas03</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>esse3.mp4</t>
+  </si>
+  <si>
+    <t>esse3</t>
+  </si>
+  <si>
+    <t>ancaginocchio1.mp4</t>
+  </si>
+  <si>
+    <t>ancaginocchio1</t>
+  </si>
+  <si>
+    <t>escav1.mp4</t>
+  </si>
+  <si>
+    <t>escav2.mp4</t>
+  </si>
+  <si>
+    <t>escav3.mp4</t>
+  </si>
+  <si>
+    <t>escav4.mp4</t>
+  </si>
+  <si>
+    <t>escav1</t>
+  </si>
+  <si>
+    <t>escav2</t>
+  </si>
+  <si>
+    <t>escav3</t>
+  </si>
+  <si>
+    <t>escav4</t>
+  </si>
+  <si>
+    <t>es1anca.mp4</t>
+  </si>
+  <si>
+    <t>es2anca.mp4</t>
+  </si>
+  <si>
+    <t>es3anca.mp4</t>
+  </si>
+  <si>
+    <t>es4anca.mp4</t>
+  </si>
+  <si>
+    <t>es1anca</t>
+  </si>
+  <si>
+    <t>es2anca</t>
+  </si>
+  <si>
+    <t>es3anca</t>
+  </si>
+  <si>
+    <t>es4anca</t>
+  </si>
+  <si>
+    <t>es1ginocchio.mp4</t>
+  </si>
+  <si>
+    <t>es2ginocchio.mp4</t>
+  </si>
+  <si>
+    <t>es3ginocchio.mp4</t>
+  </si>
+  <si>
+    <t>es4ginocchio.mp4</t>
+  </si>
+  <si>
+    <t>es5ginocchio.mp4</t>
+  </si>
+  <si>
+    <t>es6ginocchio.mp4</t>
+  </si>
+  <si>
+    <t>es1ginocchio</t>
+  </si>
+  <si>
+    <t>es2ginocchio</t>
+  </si>
+  <si>
+    <t>es3ginocchio</t>
+  </si>
+  <si>
+    <t>es4ginocchio</t>
+  </si>
+  <si>
+    <t>es5ginocchio</t>
+  </si>
+  <si>
+    <t>es6ginocchio</t>
   </si>
 </sst>
 </file>
@@ -2091,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14099,11 +14198,21 @@
       <c r="AF269" s="2"/>
     </row>
     <row r="270" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
+      <c r="A270" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
@@ -14133,11 +14242,21 @@
       <c r="AF270" s="2"/>
     </row>
     <row r="271" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
+      <c r="A271" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
@@ -14167,11 +14286,21 @@
       <c r="AF271" s="2"/>
     </row>
     <row r="272" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
+      <c r="A272" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
@@ -14201,11 +14330,21 @@
       <c r="AF272" s="2"/>
     </row>
     <row r="273" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
+      <c r="A273" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
@@ -14235,11 +14374,21 @@
       <c r="AF273" s="2"/>
     </row>
     <row r="274" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
+      <c r="A274" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
@@ -14269,11 +14418,21 @@
       <c r="AF274" s="2"/>
     </row>
     <row r="275" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
+      <c r="A275" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
@@ -14303,11 +14462,21 @@
       <c r="AF275" s="2"/>
     </row>
     <row r="276" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
+      <c r="A276" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
@@ -14337,11 +14506,21 @@
       <c r="AF276" s="2"/>
     </row>
     <row r="277" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
+      <c r="A277" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
@@ -14371,11 +14550,21 @@
       <c r="AF277" s="2"/>
     </row>
     <row r="278" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
+      <c r="A278" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
@@ -14405,11 +14594,21 @@
       <c r="AF278" s="2"/>
     </row>
     <row r="279" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
+      <c r="A279" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
@@ -14439,11 +14638,21 @@
       <c r="AF279" s="2"/>
     </row>
     <row r="280" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
+      <c r="A280" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
@@ -14473,11 +14682,21 @@
       <c r="AF280" s="2"/>
     </row>
     <row r="281" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
+      <c r="A281" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
@@ -14507,11 +14726,21 @@
       <c r="AF281" s="2"/>
     </row>
     <row r="282" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
+      <c r="A282" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
@@ -14541,11 +14770,21 @@
       <c r="AF282" s="2"/>
     </row>
     <row r="283" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
+      <c r="A283" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
@@ -14575,11 +14814,21 @@
       <c r="AF283" s="2"/>
     </row>
     <row r="284" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
+      <c r="A284" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
@@ -14609,11 +14858,21 @@
       <c r="AF284" s="2"/>
     </row>
     <row r="285" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
+      <c r="A285" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
@@ -14643,7 +14902,9 @@
       <c r="AF285" s="2"/>
     </row>
     <row r="286" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
+      <c r="A286" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB397B9E-6A87-4766-B2F1-848B5553F53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA86AC7-086A-4A4A-B5D6-ED2AA753D4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2190,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="123" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B272" zoomScale="123" workbookViewId="0">
       <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>

--- a/esercizi.xlsx
+++ b/esercizi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\iomimuovoacasa.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\iomimuovoacasa.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CA86AC7-086A-4A4A-B5D6-ED2AA753D4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71983B-7840-483D-886F-CBD935AFC6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizi" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,6 @@
     <t>C35</t>
   </si>
   <si>
-    <t>Carico Parziale</t>
-  </si>
-  <si>
     <t>B05.mp4</t>
   </si>
   <si>
@@ -1819,6 +1816,9 @@
   </si>
   <si>
     <t>es6ginocchio</t>
+  </si>
+  <si>
+    <t>Carico parziale</t>
   </si>
 </sst>
 </file>
@@ -2190,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B272" zoomScale="123" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213:B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,10 +3157,10 @@
         <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -3169,10 +3169,10 @@
         <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3207,22 +3207,22 @@
         <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -3257,22 +3257,22 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -3307,22 +3307,22 @@
         <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3357,22 +3357,22 @@
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3407,22 +3407,22 @@
         <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3457,22 +3457,22 @@
         <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3507,22 +3507,22 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -7165,10 +7165,10 @@
         <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
@@ -7253,10 +7253,10 @@
         <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
@@ -7297,10 +7297,10 @@
         <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         <v>320</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>200</v>
@@ -7649,10 +7649,10 @@
         <v>320</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>8</v>
@@ -7825,7 +7825,7 @@
         <v>216</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>218</v>
@@ -7869,7 +7869,7 @@
         <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>200</v>
@@ -7913,10 +7913,10 @@
         <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>8</v>
@@ -8573,10 +8573,10 @@
         <v>216</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
@@ -8705,10 +8705,10 @@
         <v>237</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>8</v>
@@ -8749,10 +8749,10 @@
         <v>237</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
@@ -8793,10 +8793,10 @@
         <v>237</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>8</v>
@@ -9717,7 +9717,7 @@
         <v>216</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>218</v>
@@ -9761,7 +9761,7 @@
         <v>67</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>200</v>
@@ -9805,7 +9805,7 @@
         <v>67</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>323</v>
@@ -9849,10 +9849,10 @@
         <v>61</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>8</v>
@@ -11694,13 +11694,13 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>8</v>
@@ -11738,13 +11738,13 @@
         <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
@@ -11782,13 +11782,13 @@
         <v>272</v>
       </c>
       <c r="B215" t="s">
+        <v>592</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="D215" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>8</v>
@@ -11826,13 +11826,13 @@
         <v>272</v>
       </c>
       <c r="B216" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
@@ -11870,7 +11870,7 @@
         <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>383</v>
@@ -11914,13 +11914,13 @@
         <v>272</v>
       </c>
       <c r="B218" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
@@ -11958,13 +11958,13 @@
         <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>8</v>
@@ -12002,13 +12002,13 @@
         <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
@@ -12046,13 +12046,13 @@
         <v>272</v>
       </c>
       <c r="B221" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>8</v>
@@ -12090,7 +12090,7 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>384</v>
@@ -12134,13 +12134,13 @@
         <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>8</v>
@@ -12178,13 +12178,13 @@
         <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
@@ -12222,13 +12222,13 @@
         <v>272</v>
       </c>
       <c r="B225" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>8</v>
@@ -12266,13 +12266,13 @@
         <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
@@ -12310,13 +12310,13 @@
         <v>272</v>
       </c>
       <c r="B227" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>8</v>
@@ -12354,13 +12354,13 @@
         <v>272</v>
       </c>
       <c r="B228" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
@@ -12398,13 +12398,13 @@
         <v>272</v>
       </c>
       <c r="B229" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>8</v>
@@ -12442,13 +12442,13 @@
         <v>272</v>
       </c>
       <c r="B230" t="s">
-        <v>478</v>
+        <v>592</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
@@ -14114,13 +14114,13 @@
         <v>142</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="D268" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>8</v>
@@ -14158,13 +14158,13 @@
         <v>142</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>8</v>
@@ -14202,13 +14202,13 @@
         <v>142</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="D270" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>8</v>
@@ -14246,13 +14246,13 @@
         <v>142</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C271" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>8</v>
@@ -14290,13 +14290,13 @@
         <v>142</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>8</v>
@@ -14334,13 +14334,13 @@
         <v>142</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>8</v>
@@ -14378,13 +14378,13 @@
         <v>142</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>8</v>
@@ -14422,13 +14422,13 @@
         <v>142</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>8</v>
@@ -14466,13 +14466,13 @@
         <v>142</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>8</v>
@@ -14510,13 +14510,13 @@
         <v>142</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>8</v>
@@ -14554,13 +14554,13 @@
         <v>142</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>8</v>
@@ -14598,13 +14598,13 @@
         <v>142</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>8</v>
@@ -14642,13 +14642,13 @@
         <v>142</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>8</v>
@@ -14686,13 +14686,13 @@
         <v>142</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>8</v>
@@ -14730,13 +14730,13 @@
         <v>142</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>8</v>
@@ -14774,13 +14774,13 @@
         <v>142</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>8</v>
@@ -14818,13 +14818,13 @@
         <v>142</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>8</v>
@@ -14862,13 +14862,13 @@
         <v>142</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>8</v>
